--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -13,12 +13,13 @@
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
     <sheet name="Theme view" r:id="rId8" sheetId="6"/>
     <sheet name="Sector view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="355">
   <si>
     <t>Conference name</t>
   </si>
@@ -176,829 +177,913 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 6</t>
+  </si>
+  <si>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Elsa Poe</t>
+  </si>
+  <si>
+    <t>Flo Rye</t>
+  </si>
+  <si>
+    <t>Gus Smith</t>
+  </si>
+  <si>
+    <t>Hugo Watt</t>
+  </si>
+  <si>
+    <t>Ivy Cole</t>
+  </si>
+  <si>
+    <t>Jay Fox</t>
+  </si>
+  <si>
+    <t>Amy Jones</t>
+  </si>
+  <si>
+    <t>Beth King</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Chad Li</t>
+  </si>
+  <si>
+    <t>Dan Poe</t>
+  </si>
+  <si>
+    <t>Elsa Rye</t>
+  </si>
+  <si>
+    <t>Flo Smith</t>
+  </si>
+  <si>
+    <t>Gus Watt</t>
+  </si>
+  <si>
+    <t>Hugo Cole</t>
+  </si>
+  <si>
+    <t>Ivy Fox</t>
+  </si>
+  <si>
+    <t>Jay Green</t>
+  </si>
+  <si>
+    <t>Amy King</t>
+  </si>
+  <si>
+    <t>Beth Li</t>
+  </si>
+  <si>
+    <t>Chad Poe</t>
+  </si>
+  <si>
+    <t>Dan Rye</t>
+  </si>
+  <si>
+    <t>Elsa Smith</t>
+  </si>
+  <si>
+    <t>Flo Watt</t>
+  </si>
+  <si>
+    <t>Gus Cole</t>
+  </si>
+  <si>
+    <t>Hugo Fox</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Mobile, Big Data</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Culture, Big Data</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Chad Jones, Dan King</t>
+  </si>
+  <si>
+    <t>Security, Big Data</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Culture</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>IoT, Big Data</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>IoT, Security</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Elsa Poe, Flo Rye</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Modern Web, Culture</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Ivy Cole, Jay Fox</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Elsa Rye, Flo Smith</t>
+  </si>
+  <si>
+    <t>Cloud, Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>Ivy Fox, Jay Green</t>
+  </si>
+  <si>
+    <t>Culture, Security</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Amy King, Beth Li</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Chad Poe, Dan Rye, Elsa Smith</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Flo Watt, Gus Cole</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>Deliver stable VertX</t>
+  </si>
+  <si>
+    <t>Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>Implement platform-independent JUnit</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>Program flexible Keycloak</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>Hack modularized OpenShift</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>Hands on real-time Spring</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Advanced containerized Drools</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox</t>
+  </si>
+  <si>
     <t>S42</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 6</t>
-  </si>
-  <si>
-    <t>R 7</t>
-  </si>
-  <si>
-    <t>R 8</t>
-  </si>
-  <si>
-    <t>R 9</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Elsa Poe</t>
-  </si>
-  <si>
-    <t>Flo Rye</t>
-  </si>
-  <si>
-    <t>Gus Smith</t>
-  </si>
-  <si>
-    <t>Hugo Watt</t>
-  </si>
-  <si>
-    <t>Ivy Cole</t>
-  </si>
-  <si>
-    <t>Jay Fox</t>
-  </si>
-  <si>
-    <t>Amy Jones</t>
-  </si>
-  <si>
-    <t>Beth King</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Chad Li</t>
-  </si>
-  <si>
-    <t>Dan Poe</t>
-  </si>
-  <si>
-    <t>Elsa Rye</t>
-  </si>
-  <si>
-    <t>Flo Smith</t>
-  </si>
-  <si>
-    <t>Gus Watt</t>
-  </si>
-  <si>
-    <t>Hugo Cole</t>
-  </si>
-  <si>
-    <t>Ivy Fox</t>
-  </si>
-  <si>
-    <t>Jay Green</t>
-  </si>
-  <si>
-    <t>Amy King</t>
-  </si>
-  <si>
-    <t>Beth Li</t>
-  </si>
-  <si>
-    <t>Chad Poe</t>
-  </si>
-  <si>
-    <t>Dan Rye</t>
-  </si>
-  <si>
-    <t>Elsa Smith</t>
-  </si>
-  <si>
-    <t>Flo Watt</t>
-  </si>
-  <si>
-    <t>Gus Cole</t>
-  </si>
-  <si>
-    <t>Hugo Fox</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Big Data, Middleware</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Chad Green, Dan Jones</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Security, Culture</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>Flo Li, Gus Poe</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
+    <t>Learn virtualized OptaPlanner</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>Intro to serverless jBPM</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>Discover AI-driven Camel</t>
+  </si>
+  <si>
+    <t>Dan King, Elsa Li</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Mastering machine learning XStream</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Docker</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>Building deep learning Hibernate</t>
+  </si>
+  <si>
+    <t>Mobile, Security</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>Securing scalable GWT</t>
   </si>
   <si>
     <t>Big Data</t>
   </si>
   <si>
-    <t>Jay Watt, Amy Fox</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Beth Green, Chad Jones</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise JUnit</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Modern Web, Mobile</t>
-  </si>
-  <si>
-    <t>Gus Rye, Hugo Smith</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>Jay Cole, Amy Green</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>Debug enterprise Errai</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Angular</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>Understand mobile Weld</t>
   </si>
   <si>
     <t>Chad King, Dan Li</t>
   </si>
   <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>IoT, Big Data</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Securing scalable JUnit</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Debug enterprise OpenShift</t>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>Applying modern RestEasy</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>Grok distributed Android</t>
+  </si>
+  <si>
+    <t>Flo Rye, Gus Smith</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Tensorflow</t>
+  </si>
+  <si>
+    <t>Hugo Watt, Ivy Cole</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>Using secure VertX</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>Deliver stable JUnit</t>
+  </si>
+  <si>
+    <t>Amy Jones, Beth King</t>
+  </si>
+  <si>
+    <t>IoT, Middleware</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>Implement platform-independent Keycloak</t>
   </si>
   <si>
     <t>Artificial Intelligence, Cloud</t>
   </si>
   <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time Spring</t>
-  </si>
-  <si>
-    <t>Ivy Cole, Jay Fox</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Drools</t>
-  </si>
-  <si>
-    <t>Amy Jones, Beth King</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Chad Li, Dan Poe</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless jBPM</t>
-  </si>
-  <si>
-    <t>Security, Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven Camel</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning XStream</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Docker</t>
-  </si>
-  <si>
-    <t>Hugo Cole, Ivy Fox, Jay Green, Amy King</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning JUnit</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable OpenShift</t>
-  </si>
-  <si>
-    <t>Chad Poe, Dan Rye</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise WildFly</t>
-  </si>
-  <si>
-    <t>Culture, Mobile</t>
-  </si>
-  <si>
-    <t>Elsa Smith, Flo Watt</t>
-  </si>
-  <si>
-    <t>S30</t>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>Program flexible OpenShift</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Security</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>Hack modularized WildFly</t>
+  </si>
+  <si>
+    <t>S60</t>
   </si>
   <si>
     <t>Hands on real-time Drools</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>S31</t>
+    <t>Gus Watt, Hugo Cole</t>
+  </si>
+  <si>
+    <t>S61</t>
   </si>
   <si>
     <t>Advanced containerized OptaPlanner</t>
   </si>
   <si>
-    <t>Hugo Fox, Amy Cole</t>
-  </si>
-  <si>
-    <t>S32</t>
+    <t>Middleware, Big Data</t>
+  </si>
+  <si>
+    <t>S62</t>
   </si>
   <si>
     <t>Learn virtualized jBPM</t>
   </si>
   <si>
-    <t>Cloud, Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>S33</t>
+    <t>S63</t>
   </si>
   <si>
     <t>Intro to serverless Camel</t>
   </si>
   <si>
-    <t>Chad Green, Dan Jones, Elsa King, Flo Li</t>
-  </si>
-  <si>
-    <t>S34</t>
+    <t>S64</t>
   </si>
   <si>
     <t>Discover AI-driven XStream</t>
   </si>
   <si>
-    <t>S35</t>
+    <t>Big Data, Mobile</t>
+  </si>
+  <si>
+    <t>S65</t>
   </si>
   <si>
     <t>Mastering machine learning Docker</t>
   </si>
   <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven JUnit</t>
-  </si>
-  <si>
-    <t>S37</t>
-  </si>
-  <si>
-    <t>Building deep learning OpenShift</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green, Chad Jones</t>
-  </si>
-  <si>
-    <t>S38</t>
-  </si>
-  <si>
-    <t>Securing scalable WildFly</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>Debug enterprise Spring</t>
-  </si>
-  <si>
-    <t>S40</t>
-  </si>
-  <si>
-    <t>Hands on real-time OptaPlanner</t>
-  </si>
-  <si>
-    <t>S41</t>
-  </si>
-  <si>
-    <t>Advanced containerized jBPM</t>
-  </si>
-  <si>
-    <t>Learn virtualized Camel</t>
-  </si>
-  <si>
-    <t>S43</t>
-  </si>
-  <si>
-    <t>Intro to serverless XStream</t>
-  </si>
-  <si>
-    <t>S44</t>
-  </si>
-  <si>
-    <t>Discover AI-driven Docker</t>
-  </si>
-  <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>Mastering machine learning JUnit</t>
-  </si>
-  <si>
-    <t>S46</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven OpenShift</t>
-  </si>
-  <si>
-    <t>S47</t>
-  </si>
-  <si>
-    <t>Building deep learning WildFly</t>
-  </si>
-  <si>
-    <t>Flo Rye, Gus Smith</t>
-  </si>
-  <si>
-    <t>S48</t>
-  </si>
-  <si>
-    <t>Securing scalable Spring</t>
-  </si>
-  <si>
-    <t>Hugo Watt, Ivy Cole</t>
-  </si>
-  <si>
-    <t>S49</t>
-  </si>
-  <si>
-    <t>Debug enterprise Drools</t>
-  </si>
-  <si>
-    <t>Jay Fox, Amy Jones</t>
-  </si>
-  <si>
-    <t>S50</t>
-  </si>
-  <si>
-    <t>Hands on real-time jBPM</t>
-  </si>
-  <si>
-    <t>S51</t>
-  </si>
-  <si>
-    <t>Advanced containerized Camel</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>S52</t>
-  </si>
-  <si>
-    <t>Learn virtualized XStream</t>
-  </si>
-  <si>
-    <t>Modern Web, Middleware</t>
-  </si>
-  <si>
-    <t>Dan Poe, Elsa Rye, Flo Smith, Gus Watt</t>
-  </si>
-  <si>
-    <t>S53</t>
-  </si>
-  <si>
-    <t>Intro to serverless Docker</t>
-  </si>
-  <si>
-    <t>Hugo Cole, Ivy Fox</t>
-  </si>
-  <si>
-    <t>S54</t>
-  </si>
-  <si>
-    <t>Discover AI-driven JUnit</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>S55</t>
-  </si>
-  <si>
-    <t>Mastering machine learning OpenShift</t>
-  </si>
-  <si>
-    <t>S56</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven WildFly</t>
-  </si>
-  <si>
-    <t>S57</t>
-  </si>
-  <si>
-    <t>Building deep learning Spring</t>
-  </si>
-  <si>
-    <t>S58</t>
-  </si>
-  <si>
-    <t>Securing scalable Drools</t>
-  </si>
-  <si>
-    <t>Dan Rye, Elsa Smith</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>Debug enterprise OptaPlanner</t>
-  </si>
-  <si>
-    <t>Flo Watt, Gus Cole</t>
-  </si>
-  <si>
-    <t>S60</t>
-  </si>
-  <si>
-    <t>Hands on real-time Camel</t>
-  </si>
-  <si>
-    <t>S61</t>
-  </si>
-  <si>
-    <t>Advanced containerized XStream</t>
-  </si>
-  <si>
-    <t>S62</t>
-  </si>
-  <si>
-    <t>Learn virtualized Docker</t>
-  </si>
-  <si>
-    <t>S63</t>
-  </si>
-  <si>
-    <t>Intro to serverless JUnit</t>
-  </si>
-  <si>
-    <t>S64</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OpenShift</t>
-  </si>
-  <si>
-    <t>S65</t>
-  </si>
-  <si>
-    <t>Mastering machine learning WildFly</t>
-  </si>
-  <si>
     <t>S66</t>
   </si>
   <si>
-    <t>Tuning IOT-driven Spring</t>
-  </si>
-  <si>
-    <t>IoT, Middleware</t>
+    <t>Tuning IOT-driven Hibernate</t>
+  </si>
+  <si>
+    <t>Dan Rye, Elsa Smith, Flo Watt</t>
   </si>
   <si>
     <t>S67</t>
   </si>
   <si>
-    <t>Building deep learning Drools</t>
+    <t>Building deep learning GWT</t>
+  </si>
+  <si>
+    <t>Gus Cole, Hugo Fox</t>
   </si>
   <si>
     <t>S68</t>
   </si>
   <si>
-    <t>Securing scalable OptaPlanner</t>
+    <t>Securing scalable Errai</t>
   </si>
   <si>
     <t>S69</t>
   </si>
   <si>
-    <t>Debug enterprise jBPM</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green</t>
+    <t>Debug enterprise Angular</t>
   </si>
   <si>
     <t>S70</t>
   </si>
   <si>
-    <t>Hands on real-time XStream</t>
+    <t>Prepare for streaming Weld</t>
   </si>
   <si>
     <t>S71</t>
   </si>
   <si>
-    <t>Advanced containerized Docker</t>
+    <t>Understand mobile RestEasy</t>
   </si>
   <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Speaker</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1105,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,6 +1125,16 @@
         <fgColor rgb="AD7FA8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EF2929"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCAF3E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1053,11 +1148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1073,9 +1170,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.8671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="81.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="70.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1235,11 +1332,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1479,20 +1576,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2043,27 +2140,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3398,7 +3495,7 @@
         <v>32</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -5283,7 +5380,7 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -5336,26 +5433,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.37109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.52734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.05859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="38.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="24.85546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="26.30859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.0234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="21.671875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="22.20703125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="23.125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="22.84375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.05859375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.59375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.28515625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="21.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.09765625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="23.01171875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="22.7734375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="19.47265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="20.3828125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="6.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="6.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5381,72 +5480,78 @@
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>130</v>
+      <c r="V1" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -5455,60 +5560,66 @@
         <v>32</v>
       </c>
       <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="b">
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
+        <v>142</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -5517,60 +5628,66 @@
         <v>32</v>
       </c>
       <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" t="s">
-        <v>32</v>
-      </c>
       <c r="S3" t="s">
         <v>32</v>
       </c>
       <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -5579,60 +5696,66 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" t="b">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
       <c r="S4" t="s">
         <v>32</v>
       </c>
       <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
+        <v>152</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -5641,60 +5764,66 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
       <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
       <c r="S5" t="s">
         <v>32</v>
       </c>
       <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -5703,60 +5832,66 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="b">
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
       <c r="S6" t="s">
         <v>32</v>
       </c>
       <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -5765,60 +5900,66 @@
         <v>32</v>
       </c>
       <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
-      </c>
       <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="b">
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
       <c r="S7" t="s">
         <v>32</v>
       </c>
       <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -5827,60 +5968,66 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
         <v>64</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
       <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="b">
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" t="s">
-        <v>32</v>
-      </c>
       <c r="S8" t="s">
         <v>32</v>
       </c>
       <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>160</v>
+        <v>32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -5889,60 +6036,66 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
       <c r="O9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" t="b">
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
       <c r="S9" t="s">
         <v>32</v>
       </c>
       <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
         <v>32</v>
@@ -5962,49 +6115,55 @@
       <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" t="b">
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
       <c r="S10" t="s">
         <v>32</v>
       </c>
       <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.0</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -6024,49 +6183,55 @@
       <c r="O11" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="b">
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
       <c r="S11" t="s">
         <v>32</v>
       </c>
       <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -6086,49 +6251,55 @@
       <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="P12" t="b">
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
       <c r="S12" t="s">
         <v>32</v>
       </c>
       <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" t="s">
-        <v>171</v>
+        <v>184</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -6148,49 +6319,55 @@
       <c r="O13" t="s">
         <v>32</v>
       </c>
-      <c r="P13" t="b">
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
       <c r="S13" t="s">
         <v>32</v>
       </c>
       <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -6210,49 +6387,55 @@
       <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="P14" t="b">
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
       <c r="S14" t="s">
         <v>32</v>
       </c>
       <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" t="s">
-        <v>177</v>
+        <v>32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -6272,49 +6455,55 @@
       <c r="O15" t="s">
         <v>32</v>
       </c>
-      <c r="P15" t="b">
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
       <c r="S15" t="s">
         <v>32</v>
       </c>
       <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -6334,49 +6523,55 @@
       <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="P16" t="b">
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>32</v>
-      </c>
       <c r="S16" t="s">
         <v>32</v>
       </c>
       <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -6396,49 +6591,55 @@
       <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="P17" t="b">
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>32</v>
-      </c>
       <c r="S17" t="s">
         <v>32</v>
       </c>
       <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
+        <v>32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -6458,49 +6659,55 @@
       <c r="O18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" t="b">
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" t="s">
-        <v>32</v>
-      </c>
       <c r="S18" t="s">
         <v>32</v>
       </c>
       <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>98</v>
+        <v>142</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -6520,49 +6727,55 @@
       <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" t="b">
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
       <c r="S19" t="s">
         <v>32</v>
       </c>
       <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -6582,49 +6795,55 @@
       <c r="O20" t="s">
         <v>32</v>
       </c>
-      <c r="P20" t="b">
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" t="s">
-        <v>32</v>
-      </c>
       <c r="S20" t="s">
         <v>32</v>
       </c>
       <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
+        <v>184</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
@@ -6644,49 +6863,55 @@
       <c r="O21" t="s">
         <v>32</v>
       </c>
-      <c r="P21" t="b">
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" t="s">
-        <v>32</v>
-      </c>
       <c r="S21" t="s">
         <v>32</v>
       </c>
       <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" t="s">
-        <v>197</v>
+        <v>220</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -6706,49 +6931,55 @@
       <c r="O22" t="s">
         <v>32</v>
       </c>
-      <c r="P22" t="b">
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="b">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>32</v>
-      </c>
       <c r="S22" t="s">
         <v>32</v>
       </c>
       <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -6768,49 +6999,55 @@
       <c r="O23" t="s">
         <v>32</v>
       </c>
-      <c r="P23" t="b">
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>32</v>
-      </c>
       <c r="S23" t="s">
         <v>32</v>
       </c>
       <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>203</v>
+        <v>32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.0</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J24" t="s">
         <v>32</v>
@@ -6830,49 +7067,55 @@
       <c r="O24" t="s">
         <v>32</v>
       </c>
-      <c r="P24" t="b">
+      <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="b">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" t="s">
-        <v>32</v>
-      </c>
       <c r="S24" t="s">
         <v>32</v>
       </c>
       <c r="T24" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
@@ -6892,49 +7135,55 @@
       <c r="O25" t="s">
         <v>32</v>
       </c>
-      <c r="P25" t="b">
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="b">
         <v>0</v>
       </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>32</v>
-      </c>
       <c r="S25" t="s">
         <v>32</v>
       </c>
       <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
+        <v>147</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J26" t="s">
         <v>32</v>
@@ -6954,49 +7203,55 @@
       <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="P26" t="b">
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>32</v>
-      </c>
       <c r="S26" t="s">
         <v>32</v>
       </c>
       <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.0</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
@@ -7016,49 +7271,55 @@
       <c r="O27" t="s">
         <v>32</v>
       </c>
-      <c r="P27" t="b">
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" t="b">
         <v>0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" t="s">
-        <v>32</v>
-      </c>
       <c r="S27" t="s">
         <v>32</v>
       </c>
       <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" t="s">
-        <v>213</v>
+        <v>32</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
@@ -7078,49 +7339,55 @@
       <c r="O28" t="s">
         <v>32</v>
       </c>
-      <c r="P28" t="b">
+      <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" t="b">
         <v>0</v>
       </c>
-      <c r="Q28" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" t="s">
-        <v>32</v>
-      </c>
       <c r="S28" t="s">
         <v>32</v>
       </c>
       <c r="T28" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>115</v>
+        <v>32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -7140,49 +7407,55 @@
       <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="P29" t="b">
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" t="b">
         <v>0</v>
       </c>
-      <c r="Q29" t="s">
-        <v>32</v>
-      </c>
-      <c r="R29" t="s">
-        <v>32</v>
-      </c>
       <c r="S29" t="s">
         <v>32</v>
       </c>
       <c r="T29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>218</v>
+        <v>32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J30" t="s">
         <v>32</v>
@@ -7202,49 +7475,55 @@
       <c r="O30" t="s">
         <v>32</v>
       </c>
-      <c r="P30" t="b">
+      <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" t="b">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>32</v>
-      </c>
-      <c r="R30" t="s">
-        <v>32</v>
-      </c>
       <c r="S30" t="s">
         <v>32</v>
       </c>
       <c r="T30" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" t="s">
-        <v>222</v>
+        <v>32</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
@@ -7264,49 +7543,55 @@
       <c r="O31" t="s">
         <v>32</v>
       </c>
-      <c r="P31" t="b">
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" t="b">
         <v>0</v>
       </c>
-      <c r="Q31" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" t="s">
-        <v>32</v>
-      </c>
       <c r="S31" t="s">
         <v>32</v>
       </c>
       <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.0</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
@@ -7326,49 +7611,55 @@
       <c r="O32" t="s">
         <v>32</v>
       </c>
-      <c r="P32" t="b">
+      <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" t="b">
         <v>0</v>
       </c>
-      <c r="Q32" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" t="s">
-        <v>32</v>
-      </c>
       <c r="S32" t="s">
         <v>32</v>
       </c>
       <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" t="s">
-        <v>228</v>
+        <v>32</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.0</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
@@ -7388,49 +7679,55 @@
       <c r="O33" t="s">
         <v>32</v>
       </c>
-      <c r="P33" t="b">
+      <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" t="b">
         <v>0</v>
       </c>
-      <c r="Q33" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" t="s">
-        <v>32</v>
-      </c>
       <c r="S33" t="s">
         <v>32</v>
       </c>
       <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -7450,49 +7747,55 @@
       <c r="O34" t="s">
         <v>32</v>
       </c>
-      <c r="P34" t="b">
+      <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" t="b">
         <v>0</v>
       </c>
-      <c r="Q34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" t="s">
-        <v>32</v>
-      </c>
       <c r="S34" t="s">
         <v>32</v>
       </c>
       <c r="T34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
         <v>151</v>
       </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
       <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" t="s">
-        <v>234</v>
+        <v>147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
@@ -7512,49 +7815,55 @@
       <c r="O35" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="b">
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" t="b">
         <v>0</v>
       </c>
-      <c r="Q35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" t="s">
-        <v>32</v>
-      </c>
       <c r="S35" t="s">
         <v>32</v>
       </c>
       <c r="T35" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
@@ -7574,49 +7883,55 @@
       <c r="O36" t="s">
         <v>32</v>
       </c>
-      <c r="P36" t="b">
-        <v>0</v>
+      <c r="P36" t="s">
+        <v>32</v>
       </c>
       <c r="Q36" t="s">
         <v>32</v>
       </c>
-      <c r="R36" t="s">
-        <v>32</v>
+      <c r="R36" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="S36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T36" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" t="s">
-        <v>152</v>
+        <v>32</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
@@ -7636,49 +7951,55 @@
       <c r="O37" t="s">
         <v>32</v>
       </c>
-      <c r="P37" t="b">
+      <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" t="b">
         <v>0</v>
       </c>
-      <c r="Q37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" t="s">
-        <v>32</v>
-      </c>
       <c r="S37" t="s">
         <v>32</v>
       </c>
       <c r="T37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
@@ -7698,49 +8019,55 @@
       <c r="O38" t="s">
         <v>32</v>
       </c>
-      <c r="P38" t="b">
+      <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>32</v>
+      </c>
+      <c r="R38" t="b">
         <v>0</v>
       </c>
-      <c r="Q38" t="s">
-        <v>32</v>
-      </c>
-      <c r="R38" t="s">
-        <v>32</v>
-      </c>
       <c r="S38" t="s">
         <v>32</v>
       </c>
       <c r="T38" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" t="s">
-        <v>244</v>
+        <v>32</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
@@ -7760,49 +8087,55 @@
       <c r="O39" t="s">
         <v>32</v>
       </c>
-      <c r="P39" t="b">
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" t="b">
         <v>0</v>
       </c>
-      <c r="Q39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" t="s">
-        <v>32</v>
-      </c>
       <c r="S39" t="s">
         <v>32</v>
       </c>
       <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.0</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J40" t="s">
         <v>32</v>
@@ -7822,49 +8155,55 @@
       <c r="O40" t="s">
         <v>32</v>
       </c>
-      <c r="P40" t="b">
+      <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" t="b">
         <v>0</v>
       </c>
-      <c r="Q40" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" t="s">
-        <v>32</v>
-      </c>
       <c r="S40" t="s">
         <v>32</v>
       </c>
       <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
@@ -7884,49 +8223,55 @@
       <c r="O41" t="s">
         <v>32</v>
       </c>
-      <c r="P41" t="b">
+      <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>32</v>
+      </c>
+      <c r="R41" t="b">
         <v>0</v>
       </c>
-      <c r="Q41" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" t="s">
-        <v>32</v>
-      </c>
       <c r="S41" t="s">
         <v>32</v>
       </c>
       <c r="T41" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
@@ -7946,49 +8291,55 @@
       <c r="O42" t="s">
         <v>32</v>
       </c>
-      <c r="P42" t="b">
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" t="b">
         <v>0</v>
       </c>
-      <c r="Q42" t="s">
-        <v>32</v>
-      </c>
-      <c r="R42" t="s">
-        <v>32</v>
-      </c>
       <c r="S42" t="s">
         <v>32</v>
       </c>
       <c r="T42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" t="s">
-        <v>171</v>
+        <v>32</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
@@ -8008,49 +8359,55 @@
       <c r="O43" t="s">
         <v>32</v>
       </c>
-      <c r="P43" t="b">
+      <c r="P43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" t="b">
         <v>0</v>
       </c>
-      <c r="Q43" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" t="s">
-        <v>32</v>
-      </c>
       <c r="S43" t="s">
         <v>32</v>
       </c>
       <c r="T43" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" t="s">
-        <v>91</v>
+        <v>147</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
         <v>32</v>
@@ -8070,49 +8427,55 @@
       <c r="O44" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="3" t="b">
-        <v>1</v>
+      <c r="P44" t="s">
+        <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
-      </c>
-      <c r="R44" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="U44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" t="s">
-        <v>177</v>
+        <v>32</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.0</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
@@ -8132,49 +8495,55 @@
       <c r="O45" t="s">
         <v>32</v>
       </c>
-      <c r="P45" t="b">
+      <c r="P45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" t="b">
         <v>0</v>
       </c>
-      <c r="Q45" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" t="s">
-        <v>32</v>
-      </c>
       <c r="S45" t="s">
         <v>32</v>
       </c>
       <c r="T45" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" t="s">
-        <v>94</v>
+        <v>32</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J46" t="s">
         <v>32</v>
@@ -8194,49 +8563,55 @@
       <c r="O46" t="s">
         <v>32</v>
       </c>
-      <c r="P46" t="b">
+      <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>32</v>
+      </c>
+      <c r="R46" t="b">
         <v>0</v>
       </c>
-      <c r="Q46" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" t="s">
-        <v>32</v>
-      </c>
       <c r="S46" t="s">
         <v>32</v>
       </c>
       <c r="T46" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" t="s">
-        <v>183</v>
+        <v>284</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.0</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J47" t="s">
         <v>32</v>
@@ -8256,49 +8631,55 @@
       <c r="O47" t="s">
         <v>32</v>
       </c>
-      <c r="P47" t="b">
+      <c r="P47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" t="b">
         <v>0</v>
       </c>
-      <c r="Q47" t="s">
-        <v>32</v>
-      </c>
-      <c r="R47" t="s">
-        <v>32</v>
-      </c>
       <c r="S47" t="s">
         <v>32</v>
       </c>
       <c r="T47" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" t="s">
-        <v>97</v>
+        <v>32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
         <v>32</v>
@@ -8318,49 +8699,55 @@
       <c r="O48" t="s">
         <v>32</v>
       </c>
-      <c r="P48" t="b">
+      <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" t="b">
         <v>0</v>
       </c>
-      <c r="Q48" t="s">
-        <v>32</v>
-      </c>
-      <c r="R48" t="s">
-        <v>32</v>
-      </c>
       <c r="S48" t="s">
         <v>32</v>
       </c>
       <c r="T48" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" t="s">
+        <v>32</v>
+      </c>
+      <c r="V48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" t="s">
-        <v>264</v>
+        <v>220</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J49" t="s">
         <v>32</v>
@@ -8380,49 +8767,55 @@
       <c r="O49" t="s">
         <v>32</v>
       </c>
-      <c r="P49" t="b">
+      <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" t="b">
         <v>0</v>
       </c>
-      <c r="Q49" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" t="s">
-        <v>32</v>
-      </c>
       <c r="S49" t="s">
         <v>32</v>
       </c>
       <c r="T49" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" t="s">
-        <v>267</v>
+        <v>32</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
@@ -8442,49 +8835,55 @@
       <c r="O50" t="s">
         <v>32</v>
       </c>
-      <c r="P50" t="b">
+      <c r="P50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" t="b">
         <v>0</v>
       </c>
-      <c r="Q50" t="s">
-        <v>32</v>
-      </c>
-      <c r="R50" t="s">
-        <v>32</v>
-      </c>
       <c r="S50" t="s">
         <v>32</v>
       </c>
       <c r="T50" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" t="s">
+        <v>32</v>
+      </c>
+      <c r="V50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="C51" t="s">
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" t="s">
-        <v>270</v>
+        <v>220</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
@@ -8504,49 +8903,55 @@
       <c r="O51" t="s">
         <v>32</v>
       </c>
-      <c r="P51" t="b">
+      <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" t="b">
         <v>0</v>
       </c>
-      <c r="Q51" t="s">
-        <v>32</v>
-      </c>
-      <c r="R51" t="s">
-        <v>32</v>
-      </c>
       <c r="S51" t="s">
         <v>32</v>
       </c>
       <c r="T51" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
@@ -8566,49 +8971,55 @@
       <c r="O52" t="s">
         <v>32</v>
       </c>
-      <c r="P52" t="b">
+      <c r="P52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" t="b">
         <v>0</v>
       </c>
-      <c r="Q52" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" t="s">
-        <v>32</v>
-      </c>
       <c r="S52" t="s">
         <v>32</v>
       </c>
       <c r="T52" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" t="s">
-        <v>106</v>
+        <v>32</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.0</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J53" t="s">
         <v>32</v>
@@ -8628,49 +9039,55 @@
       <c r="O53" t="s">
         <v>32</v>
       </c>
-      <c r="P53" t="b">
+      <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" t="b">
         <v>0</v>
       </c>
-      <c r="Q53" t="s">
-        <v>32</v>
-      </c>
-      <c r="R53" t="s">
-        <v>32</v>
-      </c>
       <c r="S53" t="s">
         <v>32</v>
       </c>
       <c r="T53" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" t="s">
-        <v>279</v>
+        <v>32</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J54" t="s">
         <v>32</v>
@@ -8690,49 +9107,55 @@
       <c r="O54" t="s">
         <v>32</v>
       </c>
-      <c r="P54" t="b">
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" t="b">
         <v>0</v>
       </c>
-      <c r="Q54" t="s">
-        <v>32</v>
-      </c>
-      <c r="R54" t="s">
-        <v>32</v>
-      </c>
       <c r="S54" t="s">
         <v>32</v>
       </c>
       <c r="T54" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" t="s">
-        <v>282</v>
+        <v>32</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.0</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
         <v>32</v>
@@ -8752,49 +9175,55 @@
       <c r="O55" t="s">
         <v>32</v>
       </c>
-      <c r="P55" t="b">
+      <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" t="b">
         <v>0</v>
       </c>
-      <c r="Q55" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" t="s">
-        <v>32</v>
-      </c>
       <c r="S55" t="s">
         <v>32</v>
       </c>
       <c r="T55" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" t="s">
+        <v>32</v>
+      </c>
+      <c r="V55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="E56" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G56" t="s">
-        <v>113</v>
+        <v>220</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.0</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J56" t="s">
         <v>32</v>
@@ -8814,49 +9243,55 @@
       <c r="O56" t="s">
         <v>32</v>
       </c>
-      <c r="P56" t="b">
+      <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" t="b">
         <v>0</v>
       </c>
-      <c r="Q56" t="s">
-        <v>32</v>
-      </c>
-      <c r="R56" t="s">
-        <v>32</v>
-      </c>
       <c r="S56" t="s">
         <v>32</v>
       </c>
       <c r="T56" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" t="s">
-        <v>114</v>
+        <v>32</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J57" t="s">
         <v>32</v>
@@ -8876,49 +9311,55 @@
       <c r="O57" t="s">
         <v>32</v>
       </c>
-      <c r="P57" t="b">
+      <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" t="b">
         <v>0</v>
       </c>
-      <c r="Q57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R57" t="s">
-        <v>32</v>
-      </c>
       <c r="S57" t="s">
         <v>32</v>
       </c>
       <c r="T57" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" t="s">
-        <v>115</v>
+        <v>284</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J58" t="s">
         <v>32</v>
@@ -8938,49 +9379,55 @@
       <c r="O58" t="s">
         <v>32</v>
       </c>
-      <c r="P58" t="b">
+      <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" t="b">
         <v>0</v>
       </c>
-      <c r="Q58" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" t="s">
-        <v>32</v>
-      </c>
       <c r="S58" t="s">
         <v>32</v>
       </c>
       <c r="T58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C59" t="s">
         <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" t="s">
-        <v>116</v>
+        <v>32</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.0</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J59" t="s">
         <v>32</v>
@@ -9000,49 +9447,55 @@
       <c r="O59" t="s">
         <v>32</v>
       </c>
-      <c r="P59" t="b">
+      <c r="P59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" t="b">
         <v>0</v>
       </c>
-      <c r="Q59" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" t="s">
-        <v>32</v>
-      </c>
       <c r="S59" t="s">
         <v>32</v>
       </c>
       <c r="T59" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" t="s">
+        <v>32</v>
+      </c>
+      <c r="V59" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C60" t="s">
         <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" t="s">
-        <v>294</v>
+        <v>142</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J60" t="s">
         <v>32</v>
@@ -9062,49 +9515,55 @@
       <c r="O60" t="s">
         <v>32</v>
       </c>
-      <c r="P60" t="b">
+      <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" t="b">
         <v>0</v>
       </c>
-      <c r="Q60" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" t="s">
-        <v>32</v>
-      </c>
       <c r="S60" t="s">
         <v>32</v>
       </c>
       <c r="T60" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C61" t="s">
         <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" t="s">
-        <v>297</v>
+        <v>32</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J61" t="s">
         <v>32</v>
@@ -9124,49 +9583,55 @@
       <c r="O61" t="s">
         <v>32</v>
       </c>
-      <c r="P61" t="b">
+      <c r="P61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" t="b">
         <v>0</v>
       </c>
-      <c r="Q61" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" t="s">
-        <v>32</v>
-      </c>
       <c r="S61" t="s">
         <v>32</v>
       </c>
       <c r="T61" t="s">
+        <v>32</v>
+      </c>
+      <c r="U61" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C62" t="s">
         <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" t="s">
-        <v>228</v>
+        <v>32</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="I62" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J62" t="s">
         <v>32</v>
@@ -9186,49 +9651,55 @@
       <c r="O62" t="s">
         <v>32</v>
       </c>
-      <c r="P62" t="b">
+      <c r="P62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>32</v>
+      </c>
+      <c r="R62" t="b">
         <v>0</v>
       </c>
-      <c r="Q62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" t="s">
-        <v>32</v>
-      </c>
       <c r="S62" t="s">
         <v>32</v>
       </c>
       <c r="T62" t="s">
+        <v>32</v>
+      </c>
+      <c r="U62" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="C63" t="s">
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
-      </c>
-      <c r="G63" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J63" t="s">
         <v>32</v>
@@ -9248,49 +9719,55 @@
       <c r="O63" t="s">
         <v>32</v>
       </c>
-      <c r="P63" t="b">
+      <c r="P63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="b">
         <v>0</v>
       </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>32</v>
-      </c>
       <c r="S63" t="s">
         <v>32</v>
       </c>
       <c r="T63" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
         <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.0</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
         <v>32</v>
@@ -9310,49 +9787,55 @@
       <c r="O64" t="s">
         <v>32</v>
       </c>
-      <c r="P64" t="b">
+      <c r="P64" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>32</v>
+      </c>
+      <c r="R64" t="b">
         <v>0</v>
       </c>
-      <c r="Q64" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" t="s">
-        <v>32</v>
-      </c>
       <c r="S64" t="s">
         <v>32</v>
       </c>
       <c r="T64" t="s">
+        <v>32</v>
+      </c>
+      <c r="U64" t="s">
+        <v>32</v>
+      </c>
+      <c r="V64" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.0</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J65" t="s">
         <v>32</v>
@@ -9372,49 +9855,55 @@
       <c r="O65" t="s">
         <v>32</v>
       </c>
-      <c r="P65" t="b">
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65" t="b">
         <v>0</v>
       </c>
-      <c r="Q65" t="s">
-        <v>32</v>
-      </c>
-      <c r="R65" t="s">
-        <v>32</v>
-      </c>
       <c r="S65" t="s">
         <v>32</v>
       </c>
       <c r="T65" t="s">
+        <v>32</v>
+      </c>
+      <c r="U65" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
+        <v>32</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J66" t="s">
         <v>32</v>
@@ -9434,49 +9923,55 @@
       <c r="O66" t="s">
         <v>32</v>
       </c>
-      <c r="P66" t="b">
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R66" t="b">
         <v>0</v>
       </c>
-      <c r="Q66" t="s">
-        <v>32</v>
-      </c>
-      <c r="R66" t="s">
-        <v>32</v>
-      </c>
       <c r="S66" t="s">
         <v>32</v>
       </c>
       <c r="T66" t="s">
+        <v>32</v>
+      </c>
+      <c r="U66" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="I67" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J67" t="s">
         <v>32</v>
@@ -9496,49 +9991,55 @@
       <c r="O67" t="s">
         <v>32</v>
       </c>
-      <c r="P67" t="b">
+      <c r="P67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" t="b">
         <v>0</v>
       </c>
-      <c r="Q67" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" t="s">
-        <v>32</v>
-      </c>
       <c r="S67" t="s">
         <v>32</v>
       </c>
       <c r="T67" t="s">
+        <v>32</v>
+      </c>
+      <c r="U67" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="E68" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" t="s">
-        <v>80</v>
+        <v>147</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.0</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J68" t="s">
         <v>32</v>
@@ -9558,49 +10059,55 @@
       <c r="O68" t="s">
         <v>32</v>
       </c>
-      <c r="P68" t="b">
+      <c r="P68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>32</v>
+      </c>
+      <c r="R68" t="b">
         <v>0</v>
       </c>
-      <c r="Q68" t="s">
-        <v>32</v>
-      </c>
-      <c r="R68" t="s">
-        <v>32</v>
-      </c>
       <c r="S68" t="s">
         <v>32</v>
       </c>
       <c r="T68" t="s">
+        <v>32</v>
+      </c>
+      <c r="U68" t="s">
+        <v>32</v>
+      </c>
+      <c r="V68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
+        <v>32</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.0</v>
       </c>
       <c r="H69" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I69" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J69" t="s">
         <v>32</v>
@@ -9620,49 +10127,55 @@
       <c r="O69" t="s">
         <v>32</v>
       </c>
-      <c r="P69" t="b">
+      <c r="P69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69" t="b">
         <v>0</v>
       </c>
-      <c r="Q69" t="s">
-        <v>32</v>
-      </c>
-      <c r="R69" t="s">
-        <v>32</v>
-      </c>
       <c r="S69" t="s">
         <v>32</v>
       </c>
       <c r="T69" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" t="s">
+        <v>32</v>
+      </c>
+      <c r="V69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="C70" t="s">
         <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J70" t="s">
         <v>32</v>
@@ -9682,49 +10195,55 @@
       <c r="O70" t="s">
         <v>32</v>
       </c>
-      <c r="P70" t="b">
+      <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" t="b">
         <v>0</v>
       </c>
-      <c r="Q70" t="s">
-        <v>32</v>
-      </c>
-      <c r="R70" t="s">
-        <v>32</v>
-      </c>
       <c r="S70" t="s">
         <v>32</v>
       </c>
       <c r="T70" t="s">
+        <v>32</v>
+      </c>
+      <c r="U70" t="s">
+        <v>32</v>
+      </c>
+      <c r="V70" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" t="s">
-        <v>320</v>
+        <v>32</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
       </c>
       <c r="H71" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="I71" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J71" t="s">
         <v>32</v>
@@ -9744,49 +10263,55 @@
       <c r="O71" t="s">
         <v>32</v>
       </c>
-      <c r="P71" t="b">
+      <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>32</v>
+      </c>
+      <c r="R71" t="b">
         <v>0</v>
       </c>
-      <c r="Q71" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" t="s">
-        <v>32</v>
-      </c>
       <c r="S71" t="s">
         <v>32</v>
       </c>
       <c r="T71" t="s">
+        <v>32</v>
+      </c>
+      <c r="U71" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="B72" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C72" t="s">
         <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.0</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J72" t="s">
         <v>32</v>
@@ -9806,49 +10331,55 @@
       <c r="O72" t="s">
         <v>32</v>
       </c>
-      <c r="P72" t="b">
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>32</v>
+      </c>
+      <c r="R72" t="b">
         <v>0</v>
       </c>
-      <c r="Q72" t="s">
-        <v>32</v>
-      </c>
-      <c r="R72" t="s">
-        <v>32</v>
-      </c>
       <c r="S72" t="s">
         <v>32</v>
       </c>
       <c r="T72" t="s">
+        <v>32</v>
+      </c>
+      <c r="U72" t="s">
+        <v>32</v>
+      </c>
+      <c r="V72" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" t="s">
-        <v>86</v>
+        <v>32</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.0</v>
       </c>
       <c r="H73" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="I73" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="J73" t="s">
         <v>32</v>
@@ -9868,19 +10399,25 @@
       <c r="O73" t="s">
         <v>32</v>
       </c>
-      <c r="P73" t="b">
+      <c r="P73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" t="b">
         <v>0</v>
       </c>
-      <c r="Q73" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" t="s">
-        <v>32</v>
-      </c>
       <c r="S73" t="s">
         <v>32</v>
       </c>
       <c r="T73" t="s">
+        <v>32</v>
+      </c>
+      <c r="U73" t="s">
+        <v>32</v>
+      </c>
+      <c r="V73" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9900,19 +10437,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9958,7 +10495,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -10001,42 +10538,20 @@
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
   </sheetData>
   <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
@@ -10059,19 +10574,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6171875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10117,7 +10632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -10154,6 +10669,2092 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" r:id="rId3" sheetId="1"/>
@@ -11,15 +11,17 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Theme view" r:id="rId8" sheetId="6"/>
-    <sheet name="Sector view" r:id="rId9" sheetId="7"/>
-    <sheet name="Speaker view" r:id="rId10" sheetId="8"/>
+    <sheet name="Room view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
+    <sheet name="Content view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="357">
   <si>
     <t>Conference name</t>
   </si>
@@ -1077,13 +1079,19 @@
     <t>Understand mobile RestEasy</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
     <t>Theme tag</t>
   </si>
   <si>
     <t>Sector tag</t>
   </si>
   <si>
-    <t>Speaker</t>
+    <t>Content tag</t>
+  </si>
+  <si>
+    <t>(2) S34</t>
   </si>
 </sst>
 </file>
@@ -1321,6 +1329,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.78515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -10431,7 +10576,2621 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -10495,7 +13254,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -10563,12 +13322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -10632,7 +13391,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>44</v>
@@ -10669,2092 +13428,6 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="D4D4" sheet="true" scenarios="true" objects="true"/>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L38" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" t="s">
-        <v>32</v>
-      </c>
-      <c r="L47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -11,11 +11,11 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Room view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speaker view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sector view" r:id="rId11" sheetId="9"/>
-    <sheet name="Content view" r:id="rId12" sheetId="10"/>
+    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
+    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
+    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
+    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
+    <sheet name="Contents view" r:id="rId12" sheetId="10"/>
   </sheets>
 </workbook>
 </file>
@@ -38,10 +38,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Theme conflict</t>
-  </si>
-  <si>
-    <t>Soft penalty per common theme of 2 talks that have an overlapping timeslot</t>
+    <t>Theme track conflict</t>
+  </si>
+  <si>
+    <t>Soft penalty per common theme track of 2 talks that have an overlapping timeslot</t>
   </si>
   <si>
     <t>Sector conflict</t>
@@ -185,618 +185,618 @@
     <t>Large, Recorded</t>
   </si>
   <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 6</t>
+  </si>
+  <si>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Elsa Poe</t>
+  </si>
+  <si>
+    <t>Flo Rye</t>
+  </si>
+  <si>
+    <t>Gus Smith</t>
+  </si>
+  <si>
+    <t>Hugo Watt</t>
+  </si>
+  <si>
+    <t>Ivy Cole</t>
+  </si>
+  <si>
+    <t>Jay Fox</t>
+  </si>
+  <si>
+    <t>Amy Jones</t>
+  </si>
+  <si>
+    <t>Beth King</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Chad Li</t>
+  </si>
+  <si>
+    <t>Dan Poe</t>
+  </si>
+  <si>
+    <t>Elsa Rye</t>
+  </si>
+  <si>
+    <t>Flo Smith</t>
+  </si>
+  <si>
+    <t>Gus Watt</t>
+  </si>
+  <si>
+    <t>Hugo Cole</t>
+  </si>
+  <si>
+    <t>Ivy Fox</t>
+  </si>
+  <si>
+    <t>Jay Green</t>
+  </si>
+  <si>
+    <t>Amy King</t>
+  </si>
+  <si>
+    <t>Beth Li</t>
+  </si>
+  <si>
+    <t>Chad Poe</t>
+  </si>
+  <si>
+    <t>Dan Rye</t>
+  </si>
+  <si>
+    <t>Elsa Smith</t>
+  </si>
+  <si>
+    <t>Flo Watt</t>
+  </si>
+  <si>
+    <t>Gus Cole</t>
+  </si>
+  <si>
+    <t>Hugo Fox</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Theme track tags</t>
+  </si>
+  <si>
+    <t>Sector tags</t>
+  </si>
+  <si>
+    <t>Audience level</t>
+  </si>
+  <si>
+    <t>Content tags</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Pinned by user</t>
+  </si>
+  <si>
+    <t>Timeslot day</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>Hands on real-time OpenShift</t>
+  </si>
+  <si>
+    <t>Amy Cole, Beth Fox</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Gus Poe, Hugo Rye</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Mobile, Big Data</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Culture, Big Data</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Chad Jones, Dan King</t>
+  </si>
+  <si>
+    <t>Security, Big Data</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Culture</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>IoT, Big Data</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>IoT, Security</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Elsa Poe, Flo Rye</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Modern Web, Culture</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Ivy Cole, Jay Fox</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Elsa Rye, Flo Smith</t>
+  </si>
+  <si>
+    <t>Cloud, Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>Ivy Fox, Jay Green</t>
+  </si>
+  <si>
+    <t>Culture, Security</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Amy King, Beth Li</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Chad Poe, Dan Rye, Elsa Smith</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Flo Watt, Gus Cole</t>
+  </si>
+  <si>
     <t>S34</t>
   </si>
   <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 6</t>
-  </si>
-  <si>
-    <t>R 7</t>
-  </si>
-  <si>
-    <t>R 8</t>
-  </si>
-  <si>
-    <t>R 9</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Elsa Poe</t>
-  </si>
-  <si>
-    <t>Flo Rye</t>
-  </si>
-  <si>
-    <t>Gus Smith</t>
-  </si>
-  <si>
-    <t>Hugo Watt</t>
-  </si>
-  <si>
-    <t>Ivy Cole</t>
-  </si>
-  <si>
-    <t>Jay Fox</t>
-  </si>
-  <si>
-    <t>Amy Jones</t>
-  </si>
-  <si>
-    <t>Beth King</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Chad Li</t>
-  </si>
-  <si>
-    <t>Dan Poe</t>
-  </si>
-  <si>
-    <t>Elsa Rye</t>
-  </si>
-  <si>
-    <t>Flo Smith</t>
-  </si>
-  <si>
-    <t>Gus Watt</t>
-  </si>
-  <si>
-    <t>Hugo Cole</t>
-  </si>
-  <si>
-    <t>Ivy Fox</t>
-  </si>
-  <si>
-    <t>Jay Green</t>
-  </si>
-  <si>
-    <t>Amy King</t>
-  </si>
-  <si>
-    <t>Beth Li</t>
-  </si>
-  <si>
-    <t>Chad Poe</t>
-  </si>
-  <si>
-    <t>Dan Rye</t>
-  </si>
-  <si>
-    <t>Elsa Smith</t>
-  </si>
-  <si>
-    <t>Flo Watt</t>
-  </si>
-  <si>
-    <t>Gus Cole</t>
-  </si>
-  <si>
-    <t>Hugo Fox</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Speakers</t>
-  </si>
-  <si>
-    <t>Theme tags</t>
-  </si>
-  <si>
-    <t>Sector tags</t>
-  </si>
-  <si>
-    <t>Audience level</t>
-  </si>
-  <si>
-    <t>Content tags</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Pinned by user</t>
-  </si>
-  <si>
-    <t>Timeslot day</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Hands on real-time OpenShift</t>
-  </si>
-  <si>
-    <t>Amy Cole, Beth Fox</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Mobile, Big Data</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Culture, Big Data</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Chad Jones, Dan King</t>
-  </si>
-  <si>
-    <t>Security, Big Data</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Flo Poe, Gus Rye</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Hugo Smith, Ivy Watt</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Culture</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>IoT, Big Data</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>IoT, Security</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Elsa Poe, Flo Rye</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Modern Web, Culture</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Ivy Cole, Jay Fox</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Elsa Rye, Flo Smith</t>
-  </si>
-  <si>
-    <t>Cloud, Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>Ivy Fox, Jay Green</t>
-  </si>
-  <si>
-    <t>Culture, Security</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
-    <t>Amy King, Beth Li</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Applying modern Weld</t>
-  </si>
-  <si>
-    <t>Chad Poe, Dan Rye, Elsa Smith</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Grok distributed RestEasy</t>
-  </si>
-  <si>
-    <t>Flo Watt, Gus Cole</t>
-  </si>
-  <si>
     <t>Troubleshooting reliable Android</t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
     <t>Speaker</t>
   </si>
   <si>
-    <t>Theme tag</t>
+    <t>Theme track tag</t>
   </si>
   <si>
     <t>Sector tag</t>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -1894,8 +1894,8 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2438,28 +2438,28 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>46</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -2518,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -2778,7 +2778,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -2973,7 +2973,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
         <v>34</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -4515,22 +4515,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
         <v>106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -5378,7 +5378,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
@@ -5585,7 +5585,7 @@
         <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L50" t="s">
         <v>34</v>
@@ -5665,61 +5665,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>26</v>
@@ -5728,24 +5728,24 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
         <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -5754,11 +5754,11 @@
         <v>3.0</v>
       </c>
       <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
         <v>139</v>
       </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
       <c r="J2" t="s">
         <v>34</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
         <v>34</v>
@@ -5801,31 +5801,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
         <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
       </c>
       <c r="G3" t="n">
         <v>2.0</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
@@ -5840,7 +5840,7 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -5869,31 +5869,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>149</v>
       </c>
       <c r="G4" t="n">
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -5908,7 +5908,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
@@ -5937,31 +5937,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
         <v>151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>154</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -5976,7 +5976,7 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
@@ -6005,19 +6005,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -6026,10 +6026,10 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
@@ -6044,7 +6044,7 @@
         <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
         <v>34</v>
@@ -6073,19 +6073,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -6094,10 +6094,10 @@
         <v>2.0</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
@@ -6112,7 +6112,7 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>34</v>
@@ -6141,19 +6141,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -6162,10 +6162,10 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
@@ -6180,7 +6180,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -6209,19 +6209,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -6230,10 +6230,10 @@
         <v>3.0</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
@@ -6248,7 +6248,7 @@
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
@@ -6277,19 +6277,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
         <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -6298,10 +6298,10 @@
         <v>3.0</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
         <v>34</v>
@@ -6345,19 +6345,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" t="s">
-        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -6366,10 +6366,10 @@
         <v>3.0</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -6413,19 +6413,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
         <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>180</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
         <v>181</v>
-      </c>
-      <c r="E12" t="s">
-        <v>182</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -6434,10 +6434,10 @@
         <v>3.0</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -6481,31 +6481,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" t="s">
         <v>184</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" t="n">
         <v>3.0</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -6549,19 +6549,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
         <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -6570,10 +6570,10 @@
         <v>3.0</v>
       </c>
       <c r="H14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -6617,19 +6617,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" t="s">
         <v>192</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
         <v>194</v>
-      </c>
-      <c r="E15" t="s">
-        <v>195</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -6638,10 +6638,10 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
         <v>34</v>
@@ -6685,19 +6685,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
         <v>197</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -6706,10 +6706,10 @@
         <v>3.0</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
@@ -6753,19 +6753,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
         <v>201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>202</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -6774,10 +6774,10 @@
         <v>3.0</v>
       </c>
       <c r="H17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
         <v>34</v>
@@ -6821,19 +6821,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
         <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>205</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -6842,10 +6842,10 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -6889,31 +6889,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
         <v>208</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" t="n">
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -6957,19 +6957,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
         <v>212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -6978,10 +6978,10 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -7025,31 +7025,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
         <v>216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>217</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
         <v>34</v>
@@ -7093,31 +7093,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
         <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" t="n">
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
@@ -7161,19 +7161,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
         <v>223</v>
-      </c>
-      <c r="B23" t="s">
-        <v>224</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -7182,10 +7182,10 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
         <v>34</v>
@@ -7229,19 +7229,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
         <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>227</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -7250,10 +7250,10 @@
         <v>3.0</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24" t="s">
         <v>34</v>
@@ -7297,19 +7297,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
         <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>230</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -7318,10 +7318,10 @@
         <v>2.0</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -7365,31 +7365,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
         <v>231</v>
-      </c>
-      <c r="B26" t="s">
-        <v>232</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -7433,19 +7433,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
         <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>234</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -7454,10 +7454,10 @@
         <v>2.0</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J27" t="s">
         <v>34</v>
@@ -7501,19 +7501,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" t="s">
         <v>235</v>
-      </c>
-      <c r="B28" t="s">
-        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -7522,10 +7522,10 @@
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
         <v>34</v>
@@ -7569,19 +7569,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s">
         <v>237</v>
-      </c>
-      <c r="B29" t="s">
-        <v>238</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" t="s">
         <v>239</v>
-      </c>
-      <c r="E29" t="s">
-        <v>240</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -7590,10 +7590,10 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
         <v>34</v>
@@ -7637,19 +7637,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" t="s">
         <v>241</v>
-      </c>
-      <c r="B30" t="s">
-        <v>242</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
@@ -7658,10 +7658,10 @@
         <v>1.0</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -7705,19 +7705,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s">
         <v>243</v>
-      </c>
-      <c r="B31" t="s">
-        <v>244</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -7726,10 +7726,10 @@
         <v>2.0</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
         <v>34</v>
@@ -7773,19 +7773,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
         <v>245</v>
-      </c>
-      <c r="B32" t="s">
-        <v>246</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" t="s">
         <v>247</v>
-      </c>
-      <c r="E32" t="s">
-        <v>248</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -7794,10 +7794,10 @@
         <v>2.0</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J32" t="s">
         <v>34</v>
@@ -7841,19 +7841,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
         <v>249</v>
-      </c>
-      <c r="B33" t="s">
-        <v>250</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -7862,10 +7862,10 @@
         <v>3.0</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J33" t="s">
         <v>34</v>
@@ -7909,19 +7909,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
         <v>252</v>
-      </c>
-      <c r="B34" t="s">
-        <v>253</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -7930,10 +7930,10 @@
         <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" t="s">
         <v>34</v>
@@ -7977,31 +7977,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
         <v>255</v>
-      </c>
-      <c r="B35" t="s">
-        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" t="s">
         <v>34</v>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
         <v>258</v>
@@ -8054,10 +8054,10 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -8066,10 +8066,10 @@
         <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J36" t="s">
         <v>34</v>
@@ -8122,10 +8122,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
         <v>137</v>
-      </c>
-      <c r="E37" t="s">
-        <v>138</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -8134,10 +8134,10 @@
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" t="s">
         <v>34</v>
@@ -8193,7 +8193,7 @@
         <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
@@ -8202,10 +8202,10 @@
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" t="s">
         <v>34</v>
@@ -8261,7 +8261,7 @@
         <v>266</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
@@ -8270,10 +8270,10 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J39" t="s">
         <v>34</v>
@@ -8326,10 +8326,10 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -8338,10 +8338,10 @@
         <v>3.0</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J40" t="s">
         <v>34</v>
@@ -8394,10 +8394,10 @@
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
@@ -8409,7 +8409,7 @@
         <v>271</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J41" t="s">
         <v>34</v>
@@ -8462,10 +8462,10 @@
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -8474,10 +8474,10 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J42" t="s">
         <v>34</v>
@@ -8533,7 +8533,7 @@
         <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
@@ -8542,10 +8542,10 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J43" t="s">
         <v>34</v>
@@ -8598,22 +8598,22 @@
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J44" t="s">
         <v>34</v>
@@ -8666,10 +8666,10 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -8678,10 +8678,10 @@
         <v>3.0</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J45" t="s">
         <v>34</v>
@@ -8737,7 +8737,7 @@
         <v>283</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -8746,10 +8746,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J46" t="s">
         <v>34</v>
@@ -8802,10 +8802,10 @@
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
         <v>286</v>
@@ -8814,10 +8814,10 @@
         <v>2.0</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J47" t="s">
         <v>34</v>
@@ -8870,10 +8870,10 @@
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
@@ -8885,7 +8885,7 @@
         <v>289</v>
       </c>
       <c r="I48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J48" t="s">
         <v>34</v>
@@ -8938,22 +8938,22 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
         <v>292</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J49" t="s">
         <v>34</v>
@@ -9006,7 +9006,7 @@
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
         <v>295</v>
@@ -9018,10 +9018,10 @@
         <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J50" t="s">
         <v>34</v>
@@ -9074,22 +9074,22 @@
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J51" t="s">
         <v>34</v>
@@ -9142,22 +9142,22 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G52" t="n">
         <v>3.0</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J52" t="s">
         <v>34</v>
@@ -9213,7 +9213,7 @@
         <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -9222,10 +9222,10 @@
         <v>2.0</v>
       </c>
       <c r="H53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J53" t="s">
         <v>34</v>
@@ -9278,10 +9278,10 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
@@ -9290,10 +9290,10 @@
         <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J54" t="s">
         <v>34</v>
@@ -9349,7 +9349,7 @@
         <v>307</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -9358,10 +9358,10 @@
         <v>2.0</v>
       </c>
       <c r="H55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J55" t="s">
         <v>34</v>
@@ -9417,19 +9417,19 @@
         <v>310</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G56" t="n">
         <v>2.0</v>
       </c>
       <c r="H56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J56" t="s">
         <v>34</v>
@@ -9482,10 +9482,10 @@
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
@@ -9494,10 +9494,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J57" t="s">
         <v>34</v>
@@ -9562,10 +9562,10 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J58" t="s">
         <v>34</v>
@@ -9618,7 +9618,7 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>319</v>
@@ -9630,10 +9630,10 @@
         <v>3.0</v>
       </c>
       <c r="H59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J59" t="s">
         <v>34</v>
@@ -9686,13 +9686,13 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>322</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" t="n">
         <v>1.0</v>
@@ -9701,7 +9701,7 @@
         <v>271</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J60" t="s">
         <v>34</v>
@@ -9754,10 +9754,10 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -9766,10 +9766,10 @@
         <v>2.0</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J61" t="s">
         <v>34</v>
@@ -9825,7 +9825,7 @@
         <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
@@ -9834,10 +9834,10 @@
         <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J62" t="s">
         <v>34</v>
@@ -9890,7 +9890,7 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>330</v>
@@ -9902,10 +9902,10 @@
         <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J63" t="s">
         <v>34</v>
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>295</v>
@@ -9970,10 +9970,10 @@
         <v>2.0</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J64" t="s">
         <v>34</v>
@@ -10026,10 +10026,10 @@
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
@@ -10038,10 +10038,10 @@
         <v>3.0</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J65" t="s">
         <v>34</v>
@@ -10094,7 +10094,7 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
         <v>337</v>
@@ -10106,10 +10106,10 @@
         <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J66" t="s">
         <v>34</v>
@@ -10162,10 +10162,10 @@
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
         <v>34</v>
@@ -10177,7 +10177,7 @@
         <v>289</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J67" t="s">
         <v>34</v>
@@ -10233,19 +10233,19 @@
         <v>342</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68" t="n">
         <v>2.0</v>
       </c>
       <c r="H68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J68" t="s">
         <v>34</v>
@@ -10301,7 +10301,7 @@
         <v>345</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
@@ -10310,10 +10310,10 @@
         <v>2.0</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J69" t="s">
         <v>34</v>
@@ -10366,10 +10366,10 @@
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
@@ -10378,10 +10378,10 @@
         <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J70" t="s">
         <v>34</v>
@@ -10434,10 +10434,10 @@
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
         <v>34</v>
@@ -10446,10 +10446,10 @@
         <v>1.0</v>
       </c>
       <c r="H71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J71" t="s">
         <v>34</v>
@@ -10502,10 +10502,10 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
@@ -10514,10 +10514,10 @@
         <v>2.0</v>
       </c>
       <c r="H72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J72" t="s">
         <v>34</v>
@@ -10570,10 +10570,10 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
@@ -10582,10 +10582,10 @@
         <v>2.0</v>
       </c>
       <c r="H73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J73" t="s">
         <v>34</v>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
@@ -10748,8 +10748,8 @@
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
+      <c r="C3" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
@@ -11112,7 +11112,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -11394,7 +11394,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -11435,7 +11435,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -11558,7 +11558,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -11599,7 +11599,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -11722,7 +11722,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -11763,7 +11763,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -11845,7 +11845,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -11886,7 +11886,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
@@ -12091,7 +12091,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -12132,7 +12132,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -12255,7 +12255,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -12378,7 +12378,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -12501,7 +12501,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -12665,7 +12665,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -12788,7 +12788,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -12870,7 +12870,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -12952,7 +12952,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
         <v>34</v>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -13116,7 +13116,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>34</v>
@@ -13198,13 +13198,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
@@ -13258,7 +13258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.19140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.82421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -13357,11 +13357,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -20,8 +20,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S34: Troubleshooting reliable Android
+  Hugo Fox
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S34: Troubleshooting reliable Android
+  Hugo Fox
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C50" authorId="0">
+      <text>
+        <t>S34: Troubleshooting reliable Android
+  Hugo Fox
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S34: Troubleshooting reliable Android
+  Hugo Fox
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="362">
   <si>
     <t>Conference name</t>
   </si>
@@ -1425,6 +1493,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1535,20 +1606,42 @@
       <c r="A3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -1557,6 +1650,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10671,6 +10765,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11207,11 +11304,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13293,11 +13394,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13408,20 +13513,42 @@
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -13430,11 +13557,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="398">
   <si>
     <t>Conference name</t>
   </si>
@@ -304,295 +304,298 @@
     <t>End</t>
   </si>
   <si>
+    <t>Talk types</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Mon 2018-10-01</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Tue 2018-10-02</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>10:15-12:15</t>
+  </si>
+  <si>
+    <t>10:15-11:00</t>
+  </si>
+  <si>
+    <t>11:30-12:15</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>15:30-16:15</t>
+  </si>
+  <si>
+    <t>16:30-17:15</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>R 4</t>
+  </si>
+  <si>
+    <t>R 5</t>
+  </si>
+  <si>
+    <t>Lab_room, Large, Recorded</t>
+  </si>
+  <si>
+    <t>R 6</t>
+  </si>
+  <si>
+    <t>R 7</t>
+  </si>
+  <si>
+    <t>R 8</t>
+  </si>
+  <si>
+    <t>R 9</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>Lab_room</t>
+  </si>
+  <si>
+    <t>Required timeslot tags</t>
+  </si>
+  <si>
+    <t>Preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Required room tags</t>
+  </si>
+  <si>
+    <t>Preferred room tags</t>
+  </si>
+  <si>
+    <t>Prohibited room tags</t>
+  </si>
+  <si>
+    <t>Undesired room tags</t>
+  </si>
+  <si>
+    <t>Amy Cole</t>
+  </si>
+  <si>
+    <t>Beth Fox</t>
+  </si>
+  <si>
+    <t>Chad Green</t>
+  </si>
+  <si>
+    <t>Dan Jones</t>
+  </si>
+  <si>
+    <t>Elsa King</t>
+  </si>
+  <si>
+    <t>Flo Li</t>
+  </si>
+  <si>
+    <t>Gus Poe</t>
+  </si>
+  <si>
+    <t>Hugo Rye</t>
+  </si>
+  <si>
+    <t>Ivy Smith</t>
+  </si>
+  <si>
+    <t>Jay Watt</t>
+  </si>
+  <si>
+    <t>Amy Fox</t>
+  </si>
+  <si>
+    <t>Beth Green</t>
+  </si>
+  <si>
+    <t>Chad Jones</t>
+  </si>
+  <si>
+    <t>Dan King</t>
+  </si>
+  <si>
+    <t>Elsa Li</t>
+  </si>
+  <si>
+    <t>Flo Poe</t>
+  </si>
+  <si>
+    <t>Gus Rye</t>
+  </si>
+  <si>
+    <t>Hugo Smith</t>
+  </si>
+  <si>
+    <t>Ivy Watt</t>
+  </si>
+  <si>
+    <t>Jay Cole</t>
+  </si>
+  <si>
+    <t>Amy Green</t>
+  </si>
+  <si>
+    <t>Beth Jones</t>
+  </si>
+  <si>
+    <t>Chad King</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Elsa Poe</t>
+  </si>
+  <si>
+    <t>Flo Rye</t>
+  </si>
+  <si>
+    <t>Gus Smith</t>
+  </si>
+  <si>
+    <t>Hugo Watt</t>
+  </si>
+  <si>
+    <t>Ivy Cole</t>
+  </si>
+  <si>
+    <t>Jay Fox</t>
+  </si>
+  <si>
+    <t>Amy Jones</t>
+  </si>
+  <si>
+    <t>Beth King</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Chad Li</t>
+  </si>
+  <si>
+    <t>Dan Poe</t>
+  </si>
+  <si>
+    <t>Elsa Rye</t>
+  </si>
+  <si>
+    <t>Flo Smith</t>
+  </si>
+  <si>
+    <t>Gus Watt</t>
+  </si>
+  <si>
+    <t>Hugo Cole</t>
+  </si>
+  <si>
+    <t>Ivy Fox</t>
+  </si>
+  <si>
+    <t>Jay Green</t>
+  </si>
+  <si>
+    <t>Amy King</t>
+  </si>
+  <si>
+    <t>Beth Li</t>
+  </si>
+  <si>
+    <t>Chad Poe</t>
+  </si>
+  <si>
+    <t>Dan Rye</t>
+  </si>
+  <si>
+    <t>Elsa Smith</t>
+  </si>
+  <si>
+    <t>Flo Watt</t>
+  </si>
+  <si>
+    <t>Gus Cole</t>
+  </si>
+  <si>
+    <t>Hugo Fox</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Talk type</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Mon 2018-10-01</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Breakout</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:15</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Tue 2018-10-02</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>10:15-12:15</t>
-  </si>
-  <si>
-    <t>10:15-11:00</t>
-  </si>
-  <si>
-    <t>11:30-12:15</t>
-  </si>
-  <si>
-    <t>13:00-15:00</t>
-  </si>
-  <si>
-    <t>15:30-16:15</t>
-  </si>
-  <si>
-    <t>16:30-17:15</t>
-  </si>
-  <si>
-    <t>R 1</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 2</t>
-  </si>
-  <si>
-    <t>R 3</t>
-  </si>
-  <si>
-    <t>Recorded</t>
-  </si>
-  <si>
-    <t>R 4</t>
-  </si>
-  <si>
-    <t>R 5</t>
-  </si>
-  <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
-    <t>R 6</t>
-  </si>
-  <si>
-    <t>R 7</t>
-  </si>
-  <si>
-    <t>R 8</t>
-  </si>
-  <si>
-    <t>R 9</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
-    <t>Required timeslot tags</t>
-  </si>
-  <si>
-    <t>Preferred timeslot tags</t>
-  </si>
-  <si>
-    <t>Prohibited timeslot tags</t>
-  </si>
-  <si>
-    <t>Undesired timeslot tags</t>
-  </si>
-  <si>
-    <t>Required room tags</t>
-  </si>
-  <si>
-    <t>Preferred room tags</t>
-  </si>
-  <si>
-    <t>Prohibited room tags</t>
-  </si>
-  <si>
-    <t>Undesired room tags</t>
-  </si>
-  <si>
-    <t>Amy Cole</t>
-  </si>
-  <si>
-    <t>Beth Fox</t>
-  </si>
-  <si>
-    <t>Chad Green</t>
-  </si>
-  <si>
-    <t>Dan Jones</t>
-  </si>
-  <si>
-    <t>Elsa King</t>
-  </si>
-  <si>
-    <t>Flo Li</t>
-  </si>
-  <si>
-    <t>Gus Poe</t>
-  </si>
-  <si>
-    <t>Hugo Rye</t>
-  </si>
-  <si>
-    <t>Ivy Smith</t>
-  </si>
-  <si>
-    <t>Jay Watt</t>
-  </si>
-  <si>
-    <t>Amy Fox</t>
-  </si>
-  <si>
-    <t>Beth Green</t>
-  </si>
-  <si>
-    <t>Chad Jones</t>
-  </si>
-  <si>
-    <t>Dan King</t>
-  </si>
-  <si>
-    <t>Elsa Li</t>
-  </si>
-  <si>
-    <t>Flo Poe</t>
-  </si>
-  <si>
-    <t>Gus Rye</t>
-  </si>
-  <si>
-    <t>Hugo Smith</t>
-  </si>
-  <si>
-    <t>Ivy Watt</t>
-  </si>
-  <si>
-    <t>Jay Cole</t>
-  </si>
-  <si>
-    <t>Amy Green</t>
-  </si>
-  <si>
-    <t>Beth Jones</t>
-  </si>
-  <si>
-    <t>Chad King</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Elsa Poe</t>
-  </si>
-  <si>
-    <t>Flo Rye</t>
-  </si>
-  <si>
-    <t>Gus Smith</t>
-  </si>
-  <si>
-    <t>Hugo Watt</t>
-  </si>
-  <si>
-    <t>Ivy Cole</t>
-  </si>
-  <si>
-    <t>Jay Fox</t>
-  </si>
-  <si>
-    <t>Amy Jones</t>
-  </si>
-  <si>
-    <t>Beth King</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Chad Li</t>
-  </si>
-  <si>
-    <t>Dan Poe</t>
-  </si>
-  <si>
-    <t>Elsa Rye</t>
-  </si>
-  <si>
-    <t>Flo Smith</t>
-  </si>
-  <si>
-    <t>Gus Watt</t>
-  </si>
-  <si>
-    <t>Hugo Cole</t>
-  </si>
-  <si>
-    <t>Ivy Fox</t>
-  </si>
-  <si>
-    <t>Jay Green</t>
-  </si>
-  <si>
-    <t>Amy King</t>
-  </si>
-  <si>
-    <t>Beth Li</t>
-  </si>
-  <si>
-    <t>Chad Poe</t>
-  </si>
-  <si>
-    <t>Dan Rye</t>
-  </si>
-  <si>
-    <t>Elsa Smith</t>
-  </si>
-  <si>
-    <t>Flo Watt</t>
-  </si>
-  <si>
-    <t>Gus Cole</t>
-  </si>
-  <si>
-    <t>Hugo Fox</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Speakers</t>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1931,13 +1934,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2053,7 +2056,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2094,13 +2097,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2257,13 +2260,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2321,7 +2324,7 @@
     <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="6.0859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.29296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -6455,28 +6458,28 @@
         <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>97</v>
@@ -6503,10 +6506,10 @@
         <v>104</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -6515,39 +6518,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -6591,34 +6594,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -6662,34 +6665,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -6733,10 +6736,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -6745,22 +6748,22 @@
         <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -6804,34 +6807,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -6875,34 +6878,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -6946,34 +6949,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -7017,34 +7020,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -7088,10 +7091,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
@@ -7100,22 +7103,22 @@
         <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -7159,10 +7162,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
@@ -7171,22 +7174,22 @@
         <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -7230,34 +7233,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -7301,34 +7304,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -7372,34 +7375,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -7443,34 +7446,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -7514,10 +7517,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
@@ -7526,22 +7529,22 @@
         <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -7585,10 +7588,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
@@ -7597,22 +7600,22 @@
         <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
@@ -7668,22 +7671,22 @@
         <v>133</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -7727,34 +7730,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -7798,10 +7801,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
@@ -7810,22 +7813,22 @@
         <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -7869,10 +7872,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
@@ -7881,22 +7884,22 @@
         <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -7940,34 +7943,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -8011,10 +8014,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
@@ -8023,22 +8026,22 @@
         <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -8082,34 +8085,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -8153,10 +8156,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
@@ -8165,22 +8168,22 @@
         <v>144</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -8224,10 +8227,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
@@ -8236,22 +8239,22 @@
         <v>145</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -8295,10 +8298,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
@@ -8307,22 +8310,22 @@
         <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -8366,34 +8369,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -8437,10 +8440,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
@@ -8449,22 +8452,22 @@
         <v>151</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -8508,10 +8511,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
@@ -8520,22 +8523,22 @@
         <v>152</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -8579,34 +8582,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -8650,10 +8653,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
@@ -8662,22 +8665,22 @@
         <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -8721,10 +8724,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
@@ -8733,22 +8736,22 @@
         <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -8792,10 +8795,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
@@ -8804,22 +8807,22 @@
         <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -8863,10 +8866,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
@@ -8875,22 +8878,22 @@
         <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -8934,10 +8937,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
@@ -8946,22 +8949,22 @@
         <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -9005,34 +9008,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -9076,10 +9079,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>67</v>
@@ -9088,22 +9091,22 @@
         <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>65</v>
@@ -9147,10 +9150,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>67</v>
@@ -9159,22 +9162,22 @@
         <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>65</v>
@@ -9218,10 +9221,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>67</v>
@@ -9230,22 +9233,22 @@
         <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>65</v>
@@ -9289,34 +9292,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>65</v>
@@ -9360,34 +9363,34 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>65</v>
@@ -9431,34 +9434,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>65</v>
@@ -9502,34 +9505,34 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>65</v>
@@ -9573,10 +9576,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
@@ -9585,22 +9588,22 @@
         <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>65</v>
@@ -9644,10 +9647,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>67</v>
@@ -9656,22 +9659,22 @@
         <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>65</v>
@@ -9715,10 +9718,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>67</v>
@@ -9727,22 +9730,22 @@
         <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>65</v>
@@ -9786,34 +9789,34 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>65</v>
@@ -9857,10 +9860,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
@@ -9869,22 +9872,22 @@
         <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>65</v>
@@ -9928,34 +9931,34 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>65</v>
@@ -9999,10 +10002,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>67</v>
@@ -10011,22 +10014,22 @@
         <v>134</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>65</v>
@@ -10070,10 +10073,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>67</v>
@@ -10082,22 +10085,22 @@
         <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>65</v>
@@ -10141,10 +10144,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
@@ -10153,22 +10156,22 @@
         <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>65</v>
@@ -10212,10 +10215,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>67</v>
@@ -10224,22 +10227,22 @@
         <v>138</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>65</v>
@@ -10283,10 +10286,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
@@ -10295,22 +10298,22 @@
         <v>139</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>65</v>
@@ -10354,34 +10357,34 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>65</v>
@@ -10425,10 +10428,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>67</v>
@@ -10437,22 +10440,22 @@
         <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>65</v>
@@ -10496,34 +10499,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>65</v>
@@ -10567,10 +10570,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>67</v>
@@ -10579,22 +10582,22 @@
         <v>145</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>65</v>
@@ -10638,10 +10641,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>67</v>
@@ -10650,22 +10653,22 @@
         <v>146</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>65</v>
@@ -10709,10 +10712,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
@@ -10721,22 +10724,22 @@
         <v>147</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>65</v>
@@ -10780,34 +10783,34 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>65</v>
@@ -10851,10 +10854,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>67</v>
@@ -10863,22 +10866,22 @@
         <v>150</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>65</v>
@@ -10922,10 +10925,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
@@ -10934,22 +10937,22 @@
         <v>151</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>65</v>
@@ -10993,10 +10996,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
@@ -11005,22 +11008,22 @@
         <v>152</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>65</v>
@@ -11064,10 +11067,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
@@ -11076,22 +11079,22 @@
         <v>153</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>65</v>
@@ -11135,10 +11138,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>67</v>
@@ -11147,22 +11150,22 @@
         <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>65</v>
@@ -11206,10 +11209,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>67</v>
@@ -11218,22 +11221,22 @@
         <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>65</v>
@@ -11277,10 +11280,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
@@ -11289,22 +11292,22 @@
         <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>65</v>
@@ -11348,10 +11351,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>67</v>
@@ -11360,22 +11363,22 @@
         <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>65</v>
@@ -11419,10 +11422,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>67</v>
@@ -11431,22 +11434,22 @@
         <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>65</v>
@@ -11490,10 +11493,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
@@ -11502,22 +11505,22 @@
         <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>65</v>
@@ -11561,34 +11564,34 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>65</v>
@@ -11721,7 +11724,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -11768,7 +11771,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -12253,7 +12256,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -12505,7 +12508,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>65</v>
@@ -14343,7 +14346,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -14384,13 +14387,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -14506,7 +14509,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -11,32 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Rooms view" r:id="rId8" sheetId="6"/>
-    <sheet name="Speakers view" r:id="rId9" sheetId="7"/>
-    <sheet name="Theme tracks view" r:id="rId10" sheetId="8"/>
-    <sheet name="Sectors view" r:id="rId11" sheetId="9"/>
-    <sheet name="Audience type view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience level view" r:id="rId13" sheetId="11"/>
-    <sheet name="Contents view" r:id="rId14" sheetId="12"/>
+    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
+    <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
+    <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
+    <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
+    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Contents view" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,7 +57,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -96,6 +80,23 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S70: Prepare for streaming Weld
+  Flo Li
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="C8" authorId="0">
       <text>
         <t>S70: Prepare for streaming Weld
@@ -107,7 +108,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="402">
   <si>
     <t>Conference name</t>
   </si>
@@ -397,9 +398,6 @@
     <t>R 5</t>
   </si>
   <si>
-    <t>Lab_room, Large, Recorded</t>
-  </si>
-  <si>
     <t>R 6</t>
   </si>
   <si>
@@ -415,9 +413,6 @@
     <t>R 10</t>
   </si>
   <si>
-    <t>Lab_room</t>
-  </si>
-  <si>
     <t>Required timeslot tags</t>
   </si>
   <si>
@@ -1295,6 +1290,24 @@
   </si>
   <si>
     <t>Understand mobile RestEasy</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>-142init</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Usable timeslots</t>
+  </si>
+  <si>
+    <t>Usable rooms</t>
+  </si>
+  <si>
+    <t>Usable sessions</t>
   </si>
   <si>
     <t>S70: Prepare for streaming Weld
@@ -1427,6 +1440,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -1835,6 +1852,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="14.1953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -1893,7 +2031,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -1934,13 +2072,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -1984,7 +2122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -2056,7 +2194,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2097,13 +2235,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2147,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -2219,7 +2357,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2260,13 +2398,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2567,8 +2705,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="6.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.6328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.51171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -2580,6 +2718,7 @@
     <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2590,11 +2729,11 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2608,11 +2747,11 @@
         <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,6 +2762,9 @@
         <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2631,42 +2773,45 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2675,42 +2820,45 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2719,42 +2867,45 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2763,42 +2914,45 @@
         <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2807,42 +2961,45 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2851,269 +3008,287 @@
         <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -3224,28 +3399,28 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>77</v>
@@ -3286,7 +3461,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -3351,7 +3526,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>65</v>
@@ -3416,7 +3591,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
@@ -3481,7 +3656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
@@ -3546,7 +3721,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3611,7 +3786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>65</v>
@@ -3676,7 +3851,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -3741,7 +3916,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -3806,7 +3981,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>65</v>
@@ -3871,7 +4046,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
@@ -3936,7 +4111,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>65</v>
@@ -4001,7 +4176,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>65</v>
@@ -4066,7 +4241,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
@@ -4131,7 +4306,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
@@ -4196,7 +4371,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>65</v>
@@ -4261,7 +4436,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>65</v>
@@ -4326,7 +4501,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>65</v>
@@ -4391,7 +4566,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -4456,7 +4631,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
@@ -4521,7 +4696,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
@@ -4586,7 +4761,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -4651,7 +4826,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
@@ -4716,7 +4891,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
@@ -4781,7 +4956,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -4846,7 +5021,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -4911,7 +5086,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>65</v>
@@ -4976,7 +5151,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
@@ -5041,7 +5216,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -5106,7 +5281,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -5171,7 +5346,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>65</v>
@@ -5236,7 +5411,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>65</v>
@@ -5301,7 +5476,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>65</v>
@@ -5316,7 +5491,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>65</v>
@@ -5366,7 +5541,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>65</v>
@@ -5431,7 +5606,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>65</v>
@@ -5496,7 +5671,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>65</v>
@@ -5561,7 +5736,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>65</v>
@@ -5626,7 +5801,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>65</v>
@@ -5691,7 +5866,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>65</v>
@@ -5756,7 +5931,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>65</v>
@@ -5821,7 +5996,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>65</v>
@@ -5886,7 +6061,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>65</v>
@@ -5951,7 +6126,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>65</v>
@@ -6016,7 +6191,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>65</v>
@@ -6081,7 +6256,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>65</v>
@@ -6146,7 +6321,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -6211,7 +6386,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>65</v>
@@ -6276,7 +6451,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>65</v>
@@ -6341,7 +6516,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>65</v>
@@ -6452,64 +6627,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>57</v>
@@ -6518,39 +6693,39 @@
         <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>65</v>
@@ -6565,7 +6740,7 @@
         <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>65</v>
@@ -6594,34 +6769,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>65</v>
@@ -6636,7 +6811,7 @@
         <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>65</v>
@@ -6665,34 +6840,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>65</v>
@@ -6707,7 +6882,7 @@
         <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>65</v>
@@ -6736,34 +6911,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>65</v>
@@ -6778,7 +6953,7 @@
         <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>65</v>
@@ -6807,34 +6982,34 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>65</v>
@@ -6849,7 +7024,7 @@
         <v>65</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>65</v>
@@ -6878,34 +7053,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>65</v>
@@ -6920,7 +7095,7 @@
         <v>65</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>65</v>
@@ -6949,34 +7124,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>65</v>
@@ -6991,7 +7166,7 @@
         <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>65</v>
@@ -7020,34 +7195,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>65</v>
@@ -7062,7 +7237,7 @@
         <v>65</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>65</v>
@@ -7091,34 +7266,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>65</v>
@@ -7162,34 +7337,34 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>65</v>
@@ -7233,34 +7408,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>65</v>
@@ -7304,34 +7479,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>65</v>
@@ -7375,34 +7550,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>65</v>
@@ -7446,34 +7621,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>65</v>
@@ -7517,34 +7692,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>65</v>
@@ -7588,34 +7763,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>65</v>
@@ -7659,34 +7834,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>65</v>
@@ -7730,34 +7905,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>65</v>
@@ -7801,34 +7976,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>65</v>
@@ -7872,34 +8047,34 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>65</v>
@@ -7943,34 +8118,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>65</v>
@@ -8014,34 +8189,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>65</v>
@@ -8085,34 +8260,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>65</v>
@@ -8156,34 +8331,34 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>65</v>
@@ -8227,34 +8402,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>65</v>
@@ -8298,34 +8473,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>65</v>
@@ -8369,34 +8544,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>65</v>
@@ -8440,34 +8615,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>65</v>
@@ -8511,34 +8686,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>65</v>
@@ -8582,34 +8757,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>65</v>
@@ -8653,34 +8828,34 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>65</v>
@@ -8724,34 +8899,34 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>65</v>
@@ -8795,34 +8970,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>65</v>
@@ -8866,34 +9041,34 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>65</v>
@@ -8937,34 +9112,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>65</v>
@@ -9008,34 +9183,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>65</v>
@@ -9079,34 +9254,34 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>65</v>
@@ -9150,34 +9325,34 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>65</v>
@@ -9221,34 +9396,34 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>65</v>
@@ -9292,34 +9467,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>65</v>
@@ -9363,34 +9538,34 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>65</v>
@@ -9434,34 +9609,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>65</v>
@@ -9505,34 +9680,34 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>65</v>
@@ -9576,34 +9751,34 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>65</v>
@@ -9647,34 +9822,34 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>65</v>
@@ -9718,34 +9893,34 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>65</v>
@@ -9789,34 +9964,34 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>65</v>
@@ -9860,34 +10035,34 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>65</v>
@@ -9931,34 +10106,34 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>65</v>
@@ -10002,34 +10177,34 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>65</v>
@@ -10073,34 +10248,34 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>65</v>
@@ -10144,34 +10319,34 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>65</v>
@@ -10215,34 +10390,34 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>65</v>
@@ -10286,34 +10461,34 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>65</v>
@@ -10357,34 +10532,34 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>65</v>
@@ -10428,34 +10603,34 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>65</v>
@@ -10499,34 +10674,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>65</v>
@@ -10570,34 +10745,34 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>65</v>
@@ -10641,34 +10816,34 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>65</v>
@@ -10712,34 +10887,34 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>65</v>
@@ -10783,34 +10958,34 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>65</v>
@@ -10854,34 +11029,34 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>65</v>
@@ -10925,34 +11100,34 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>65</v>
@@ -10996,34 +11171,34 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>65</v>
@@ -11067,34 +11242,34 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>65</v>
@@ -11138,34 +11313,34 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>65</v>
@@ -11209,34 +11384,34 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>65</v>
@@ -11280,34 +11455,34 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>65</v>
@@ -11351,34 +11526,34 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>65</v>
@@ -11422,34 +11597,34 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>65</v>
@@ -11493,34 +11668,34 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>65</v>
@@ -11564,34 +11739,34 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>65</v>
@@ -11640,6 +11815,93 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>64.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -11724,7 +11986,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -11771,7 +12033,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -11970,7 +12232,7 @@
     </row>
     <row r="8" ht="60.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>65</v>
@@ -12011,7 +12273,7 @@
     </row>
     <row r="9" ht="60.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -12052,7 +12314,7 @@
     </row>
     <row r="10" ht="60.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -12093,7 +12355,7 @@
     </row>
     <row r="11" ht="60.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -12134,7 +12396,7 @@
     </row>
     <row r="12" ht="60.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -12184,7 +12446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -12256,7 +12518,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -12297,7 +12559,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
@@ -12338,7 +12600,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>65</v>
@@ -12379,7 +12641,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>65</v>
@@ -12420,7 +12682,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>65</v>
@@ -12461,7 +12723,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>65</v>
@@ -12502,13 +12764,13 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>65</v>
@@ -12543,7 +12805,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -12584,7 +12846,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>65</v>
@@ -12625,7 +12887,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>65</v>
@@ -12666,7 +12928,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>65</v>
@@ -12707,7 +12969,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>65</v>
@@ -12748,7 +13010,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
@@ -12789,7 +13051,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>65</v>
@@ -12830,7 +13092,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>65</v>
@@ -12871,7 +13133,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>65</v>
@@ -12912,7 +13174,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -12953,7 +13215,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>65</v>
@@ -12994,7 +13256,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
@@ -13035,7 +13297,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
@@ -13076,7 +13338,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>65</v>
@@ -13117,7 +13379,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>65</v>
@@ -13158,7 +13420,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>65</v>
@@ -13199,7 +13461,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>65</v>
@@ -13240,7 +13502,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
@@ -13281,7 +13543,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>65</v>
@@ -13322,7 +13584,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="true">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>65</v>
@@ -13363,7 +13625,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="true">
       <c r="A29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>65</v>
@@ -13404,7 +13666,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>65</v>
@@ -13445,7 +13707,7 @@
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>65</v>
@@ -13486,7 +13748,7 @@
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>65</v>
@@ -13527,7 +13789,7 @@
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="A33" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>65</v>
@@ -13568,7 +13830,7 @@
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>65</v>
@@ -13609,7 +13871,7 @@
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="A35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>65</v>
@@ -13650,7 +13912,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>65</v>
@@ -13691,7 +13953,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>65</v>
@@ -13732,7 +13994,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="A38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>65</v>
@@ -13773,7 +14035,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>65</v>
@@ -13814,7 +14076,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>65</v>
@@ -13855,7 +14117,7 @@
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>65</v>
@@ -13896,7 +14158,7 @@
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>65</v>
@@ -13937,7 +14199,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>65</v>
@@ -13978,7 +14240,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>65</v>
@@ -14019,7 +14281,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>65</v>
@@ -14060,7 +14322,7 @@
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="A46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>65</v>
@@ -14101,7 +14363,7 @@
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>65</v>
@@ -14142,7 +14404,7 @@
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="A48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>65</v>
@@ -14183,7 +14445,7 @@
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="A49" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>65</v>
@@ -14224,7 +14486,7 @@
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="A50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>65</v>
@@ -14274,7 +14536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FCE94F"/>
@@ -14346,7 +14608,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -14387,13 +14649,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -14435,125 +14697,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FCE94F"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="404">
   <si>
     <t>Conference name</t>
   </si>
@@ -602,7 +602,7 @@
     <t>Sector tags</t>
   </si>
   <si>
-    <t>Audience type</t>
+    <t>Audience types</t>
   </si>
   <si>
     <t>Audience level</t>
@@ -1308,6 +1308,9 @@
   </si>
   <si>
     <t>Usable sessions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>S70: Prepare for streaming Weld
@@ -1324,6 +1327,9 @@
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Audience type</t>
   </si>
   <si>
     <t>2</t>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2078,7 +2084,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2235,13 +2241,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -2357,7 +2363,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -2404,7 +2410,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -11893,6 +11899,24 @@
       </c>
       <c r="E5" s="2" t="n">
         <v>64.0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>120.0</v>
       </c>
     </row>
   </sheetData>
@@ -12033,7 +12057,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -12518,7 +12542,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -12770,7 +12794,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>65</v>
@@ -14608,7 +14632,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>77</v>
@@ -14655,7 +14679,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -2831,7 +2831,7 @@
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2840,7 +2840,7 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2849,7 +2849,7 @@
       <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2858,7 +2858,7 @@
       <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -2878,7 +2878,7 @@
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2887,7 +2887,7 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2896,7 +2896,7 @@
       <c r="I4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2905,7 +2905,7 @@
       <c r="L4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -2925,7 +2925,7 @@
       <c r="C5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2934,7 +2934,7 @@
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2943,7 +2943,7 @@
       <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2952,7 +2952,7 @@
       <c r="L5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2972,7 +2972,7 @@
       <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2981,7 +2981,7 @@
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2990,7 +2990,7 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -2999,7 +2999,7 @@
       <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -3022,37 +3022,37 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3075,7 +3075,7 @@
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3084,7 +3084,7 @@
       <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -3093,7 +3093,7 @@
       <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -3113,7 +3113,7 @@
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3122,7 +3122,7 @@
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3131,7 +3131,7 @@
       <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -3140,7 +3140,7 @@
       <c r="L9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3160,7 +3160,7 @@
       <c r="C10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3169,7 +3169,7 @@
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3178,7 +3178,7 @@
       <c r="I10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -3187,7 +3187,7 @@
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -3207,7 +3207,7 @@
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3216,7 +3216,7 @@
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3225,7 +3225,7 @@
       <c r="I11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -3234,7 +3234,7 @@
       <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -3257,37 +3257,37 @@
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1567,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1589,7 +1589,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1611,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1622,7 +1622,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1633,7 +1633,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1644,7 +1644,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1655,7 +1655,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -1666,7 +1666,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -1677,7 +1677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -1688,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Infeasible view" r:id="rId8" sheetId="6"/>
     <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
     <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
     <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
     <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
-    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Audience types view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience levels view" r:id="rId14" sheetId="12"/>
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
+    <sheet name="Languages view" r:id="rId16" sheetId="14"/>
+    <sheet name="Score view" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
@@ -31,9 +33,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -48,9 +51,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -65,9 +69,28 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -82,9 +105,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -99,9 +123,10 @@
   <commentList>
     <comment ref="C8" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -116,9 +141,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S70: Prepare for streaming Weld
-  Flo Li
-  PINNED BY USER</t>
+        <t xml:space="preserve">S70: Prepare for streaming Weld
+    Flo Li
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -126,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3904" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="407">
   <si>
     <t>Conference name</t>
   </si>
@@ -1339,6 +1365,15 @@
   </si>
   <si>
     <t>S70 (level 2)</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1485,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -2454,6 +2497,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -11916,7 +12165,7 @@
         <v>10.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>120.0</v>
+        <v>72.0</v>
       </c>
     </row>
   </sheetData>
@@ -12049,7 +12298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" ht="60.0" customHeight="true">
+    <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -12090,7 +12339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -12131,7 +12380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="60.0" customHeight="true">
+    <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -12172,7 +12421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="true">
+    <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -12213,7 +12462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="60.0" customHeight="true">
+    <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -12254,7 +12503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="60.0" customHeight="true">
+    <row r="8" ht="45.0" customHeight="true">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -12295,7 +12544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="60.0" customHeight="true">
+    <row r="9" ht="45.0" customHeight="true">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -12336,7 +12585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="60.0" customHeight="true">
+    <row r="10" ht="45.0" customHeight="true">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -12377,7 +12626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="60.0" customHeight="true">
+    <row r="11" ht="45.0" customHeight="true">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -12418,7 +12667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="60.0" customHeight="true">
+    <row r="12" ht="45.0" customHeight="true">
       <c r="A12" s="2" t="s">
         <v>94</v>
       </c>
@@ -12485,18 +12734,31 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
+    <col min="15" max="15" width="20.0" customWidth="true"/>
+    <col min="16" max="16" width="20.0" customWidth="true"/>
+    <col min="17" max="17" width="20.0" customWidth="true"/>
+    <col min="18" max="18" width="20.0" customWidth="true"/>
+    <col min="19" max="19" width="20.0" customWidth="true"/>
+    <col min="20" max="20" width="20.0" customWidth="true"/>
+    <col min="21" max="21" width="20.0" customWidth="true"/>
+    <col min="22" max="22" width="20.0" customWidth="true"/>
+    <col min="23" max="23" width="20.0" customWidth="true"/>
+    <col min="24" max="24" width="20.0" customWidth="true"/>
+    <col min="25" max="25" width="20.0" customWidth="true"/>
+    <col min="26" max="26" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -33,8 +33,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -51,8 +51,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -69,8 +69,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -87,8 +87,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -105,8 +105,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -121,10 +121,10 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C42" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -141,8 +141,16 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S70: Prepare for streaming Weld
-    Flo Li
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <t xml:space="preserve">S64: Discover AI-driven XStream
+    Jay Green
 PINNED BY USER
 </t>
       </text>
@@ -152,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="409">
   <si>
     <t>Conference name</t>
   </si>
@@ -667,6 +675,12 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
+    <t>Number of likes</t>
+  </si>
+  <si>
+    <t>Crowd control risk</t>
+  </si>
+  <si>
     <t>Pinned by user</t>
   </si>
   <si>
@@ -703,603 +717,576 @@
     <t>Advanced containerized WildFly</t>
   </si>
   <si>
-    <t>Chad Green, Dan Jones</t>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Dan Jones, Elsa King</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Hugo Rye, Ivy Smith</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox, Beth Green</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Chad Jones, Dan King</t>
   </si>
   <si>
     <t>Middleware</t>
   </si>
   <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Elsa King, Flo Li</t>
-  </si>
-  <si>
-    <t>Security, Culture</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Mobile, Cloud</t>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Ivy Watt, Jay Cole</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
   </si>
   <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Elsa Poe, Flo Rye, Gus Smith</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>Hugo Watt, Ivy Cole</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>Big Data, Mobile</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Amy Jones, Beth King</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Chad Li, Dan Poe</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Flo Smith, Gus Watt</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>Cloud, Culture</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Beth Li, Chad Poe</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>Modern Web, Mobile</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Gus Cole, Hugo Fox</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Security, Mobile</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>Deliver stable VertX</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>Implement platform-independent JUnit</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>Program flexible Keycloak</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>Hack modularized OpenShift</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>Hands on real-time Spring</t>
   </si>
   <si>
     <t>Jay Watt, Amy Fox</t>
   </si>
   <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Beth Green, Chad Jones</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Dan King, Elsa Li, Flo Poe</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Docker, Kubernetes</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
-    <t>Middleware, Cloud</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Amy Green, Beth Jones</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Chad King, Dan Li</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Advanced containerized Drools</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>Learn virtualized OptaPlanner</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>Intro to serverless jBPM</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Cloud</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>Discover AI-driven Camel</t>
+  </si>
+  <si>
+    <t>Elsa Li, Flo Poe</t>
+  </si>
+  <si>
+    <t>Security, Modern Web</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Mastering machine learning XStream</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Docker</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>Building deep learning Hibernate</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>Securing scalable GWT</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>Debug enterprise Errai</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Angular</t>
+  </si>
+  <si>
+    <t>IoT, Mobile</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>Understand mobile Weld</t>
+  </si>
+  <si>
+    <t>Cloud, Middleware</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>Applying modern RestEasy</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>Grok distributed Android</t>
   </si>
   <si>
     <t>Elsa Poe, Flo Rye</t>
   </si>
   <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>IoT, Big Data</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>Jay Fox, Amy Jones</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Dan Poe, Elsa Rye</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Big Data, Mobile</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Gus Watt, Hugo Cole</t>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Tensorflow</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>Using secure VertX</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>Deliver stable JUnit</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>Implement platform-independent Keycloak</t>
+  </si>
+  <si>
+    <t>Security, Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>Program flexible OpenShift</t>
+  </si>
+  <si>
+    <t>Beth King, Chad Li</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>Hack modularized WildFly</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>Hands on real-time Drools</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>Advanced containerized OptaPlanner</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>Learn virtualized jBPM</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Mobile</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>Intro to serverless Camel</t>
+  </si>
+  <si>
+    <t>Hugo Cole, Ivy Fox</t>
+  </si>
+  <si>
+    <t>S64</t>
+  </si>
+  <si>
+    <t>Discover AI-driven XStream</t>
   </si>
   <si>
     <t>Big Data, Middleware</t>
   </si>
   <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Beth Li, Chad Poe, Dan Rye, Elsa Smith</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Cloud, Culture</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>Hugo Fox, Amy Cole</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Applying modern Weld</t>
-  </si>
-  <si>
-    <t>Middleware, Culture</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Grok distributed RestEasy</t>
-  </si>
-  <si>
-    <t>Modern Web, Mobile</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Android</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>Using secure Tensorflow</t>
-  </si>
-  <si>
-    <t>Gus Poe, Hugo Rye</t>
-  </si>
-  <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>Deliver stable VertX</t>
-  </si>
-  <si>
-    <t>S37</t>
-  </si>
-  <si>
-    <t>Implement platform-independent JUnit</t>
-  </si>
-  <si>
-    <t>S38</t>
-  </si>
-  <si>
-    <t>Program flexible Keycloak</t>
-  </si>
-  <si>
-    <t>Security, Mobile</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>Hack modularized OpenShift</t>
-  </si>
-  <si>
-    <t>S40</t>
-  </si>
-  <si>
-    <t>Hands on real-time Spring</t>
-  </si>
-  <si>
-    <t>Dan King, Elsa Li, Flo Poe, Gus Rye</t>
-  </si>
-  <si>
-    <t>S41</t>
-  </si>
-  <si>
-    <t>Advanced containerized Drools</t>
-  </si>
-  <si>
-    <t>Hugo Smith, Ivy Watt</t>
-  </si>
-  <si>
-    <t>Big Data, IoT</t>
-  </si>
-  <si>
-    <t>S42</t>
-  </si>
-  <si>
-    <t>Learn virtualized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Jay Cole, Amy Green</t>
-  </si>
-  <si>
-    <t>S43</t>
-  </si>
-  <si>
-    <t>Intro to serverless jBPM</t>
-  </si>
-  <si>
-    <t>Culture, Mobile</t>
-  </si>
-  <si>
-    <t>S44</t>
-  </si>
-  <si>
-    <t>Discover AI-driven Camel</t>
-  </si>
-  <si>
-    <t>Cloud, Middleware</t>
-  </si>
-  <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>Mastering machine learning XStream</t>
-  </si>
-  <si>
-    <t>S46</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Docker</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S47</t>
-  </si>
-  <si>
-    <t>Building deep learning Hibernate</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Middleware</t>
-  </si>
-  <si>
-    <t>S48</t>
-  </si>
-  <si>
-    <t>Securing scalable GWT</t>
-  </si>
-  <si>
-    <t>Hugo Watt, Ivy Cole</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>S49</t>
-  </si>
-  <si>
-    <t>Debug enterprise Errai</t>
-  </si>
-  <si>
-    <t>S50</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Angular</t>
-  </si>
-  <si>
-    <t>S51</t>
-  </si>
-  <si>
-    <t>Understand mobile Weld</t>
-  </si>
-  <si>
-    <t>S52</t>
-  </si>
-  <si>
-    <t>Applying modern RestEasy</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>S53</t>
-  </si>
-  <si>
-    <t>Grok distributed Android</t>
-  </si>
-  <si>
-    <t>S54</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Tensorflow</t>
-  </si>
-  <si>
-    <t>Elsa Rye, Flo Smith</t>
-  </si>
-  <si>
-    <t>S55</t>
-  </si>
-  <si>
-    <t>Using secure VertX</t>
-  </si>
-  <si>
-    <t>S56</t>
-  </si>
-  <si>
-    <t>Deliver stable JUnit</t>
-  </si>
-  <si>
-    <t>Hugo Cole, Ivy Fox</t>
-  </si>
-  <si>
-    <t>S57</t>
-  </si>
-  <si>
-    <t>Implement platform-independent Keycloak</t>
-  </si>
-  <si>
-    <t>S58</t>
-  </si>
-  <si>
-    <t>Program flexible OpenShift</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>Hack modularized WildFly</t>
-  </si>
-  <si>
-    <t>S60</t>
-  </si>
-  <si>
-    <t>Hands on real-time Drools</t>
-  </si>
-  <si>
-    <t>Chad Poe, Dan Rye</t>
-  </si>
-  <si>
-    <t>S61</t>
-  </si>
-  <si>
-    <t>Advanced containerized OptaPlanner</t>
-  </si>
-  <si>
-    <t>S62</t>
-  </si>
-  <si>
-    <t>Learn virtualized jBPM</t>
-  </si>
-  <si>
-    <t>S63</t>
-  </si>
-  <si>
-    <t>Intro to serverless Camel</t>
-  </si>
-  <si>
-    <t>S64</t>
-  </si>
-  <si>
-    <t>Discover AI-driven XStream</t>
-  </si>
-  <si>
     <t>S65</t>
   </si>
   <si>
@@ -1312,9 +1299,6 @@
     <t>Tuning IOT-driven Hibernate</t>
   </si>
   <si>
-    <t>Security, Artificial Intelligence</t>
-  </si>
-  <si>
     <t>S67</t>
   </si>
   <si>
@@ -1327,6 +1311,9 @@
     <t>Securing scalable Errai</t>
   </si>
   <si>
+    <t>Dan Rye, Elsa Smith</t>
+  </si>
+  <si>
     <t>S69</t>
   </si>
   <si>
@@ -1366,14 +1353,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S70: Prepare for streaming Weld
-  Flo Li</t>
+    <t>S64: Discover AI-driven XStream
+  Jay Green</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S70 @ R 1</t>
+    <t>S64 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1385,13 +1372,13 @@
     <t>Audience type</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Content tag</t>
   </si>
   <si>
-    <t>S70 (level 2)</t>
+    <t>S64 (level 3)</t>
   </si>
   <si>
     <t>Constraint match</t>
@@ -2038,7 +2025,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2159,7 +2146,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2200,13 +2187,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2363,13 +2350,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2485,7 +2472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -2526,13 +2513,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2689,13 +2676,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -2728,10 +2715,10 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2767,13 +2754,13 @@
     <row r="1"/>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6937,12 +6924,12 @@
     <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="37.0234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.55859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="29.48828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="28.52734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="20.05859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="21.8046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.55078125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="24.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="25.390625" customWidth="true" bestFit="true"/>
@@ -6954,11 +6941,13 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.65234375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.14453125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="6.3984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="6.32421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7029,45 +7018,51 @@
         <v>172</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>173</v>
+      <c r="AA1" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>72</v>
@@ -7099,43 +7094,49 @@
       <c r="T2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="2" t="b">
+      <c r="U2" s="2" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
@@ -7144,7 +7145,7 @@
         <v>186</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>72</v>
@@ -7176,19 +7177,25 @@
       <c r="T3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="2" t="b">
+      <c r="U3" s="2" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7212,16 +7219,16 @@
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>72</v>
@@ -7253,52 +7260,58 @@
       <c r="T4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="2" t="b">
+      <c r="U4" s="2" t="n">
+        <v>790.0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>72</v>
@@ -7330,34 +7343,40 @@
       <c r="T5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="2" t="b">
+      <c r="U5" s="2" t="n">
+        <v>540.0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>200</v>
@@ -7366,16 +7385,16 @@
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>72</v>
@@ -7407,43 +7426,49 @@
       <c r="T6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="2" t="b">
+      <c r="U6" s="2" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
@@ -7452,7 +7477,7 @@
         <v>206</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>72</v>
@@ -7484,19 +7509,25 @@
       <c r="T7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U7" s="2" t="b">
+      <c r="U7" s="2" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7514,99 +7545,105 @@
         <v>209</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="J8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="V8" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="2" t="b">
+      <c r="W8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>72</v>
@@ -7638,120 +7675,132 @@
       <c r="T9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="2" t="b">
+      <c r="U9" s="2" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="J10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="V10" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U10" s="2" t="b">
+      <c r="W10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>1.0</v>
@@ -7760,7 +7809,7 @@
         <v>223</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>72</v>
@@ -7792,19 +7841,25 @@
       <c r="T11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U11" s="2" t="b">
+      <c r="U11" s="2" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7819,25 +7874,25 @@
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>72</v>
@@ -7869,52 +7924,58 @@
       <c r="T12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U12" s="2" t="b">
+      <c r="U12" s="2" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>72</v>
@@ -7946,52 +8007,58 @@
       <c r="T13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U13" s="2" t="b">
+      <c r="U13" s="2" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>72</v>
@@ -8023,52 +8090,58 @@
       <c r="T14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U14" s="2" t="b">
+      <c r="U14" s="2" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>72</v>
@@ -8100,52 +8173,58 @@
       <c r="T15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U15" s="2" t="b">
+      <c r="U15" s="2" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>72</v>
@@ -8177,52 +8256,58 @@
       <c r="T16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U16" s="2" t="b">
+      <c r="U16" s="2" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>72</v>
@@ -8254,52 +8339,58 @@
       <c r="T17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="2" t="b">
+      <c r="U17" s="2" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>72</v>
@@ -8331,52 +8422,58 @@
       <c r="T18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="2" t="b">
+      <c r="U18" s="2" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>72</v>
@@ -8408,52 +8505,58 @@
       <c r="T19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U19" s="2" t="b">
+      <c r="U19" s="2" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>72</v>
@@ -8485,129 +8588,141 @@
       <c r="T20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U20" s="2" t="b">
+      <c r="U20" s="2" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H21" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="V21" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="2" t="b">
+      <c r="W21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA21" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>186</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>72</v>
@@ -8639,52 +8754,58 @@
       <c r="T22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="2" t="b">
+      <c r="U22" s="2" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>72</v>
@@ -8716,52 +8837,58 @@
       <c r="T23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U23" s="2" t="b">
+      <c r="U23" s="2" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>72</v>
@@ -8793,129 +8920,141 @@
       <c r="T24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U24" s="2" t="b">
+      <c r="U24" s="2" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H25" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="V25" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U25" s="2" t="b">
+      <c r="W25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>206</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>72</v>
@@ -8947,129 +9086,141 @@
       <c r="T26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U26" s="2" t="b">
+      <c r="U26" s="2" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA26" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H27" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="V27" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="2" t="b">
+      <c r="W27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W27" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA27" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>72</v>
@@ -9101,52 +9252,58 @@
       <c r="T28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="2" t="b">
+      <c r="U28" s="2" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA28" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>72</v>
@@ -9178,43 +9335,49 @@
       <c r="T29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U29" s="2" t="b">
+      <c r="U29" s="2" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W29" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA29" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>3.0</v>
@@ -9223,7 +9386,7 @@
         <v>223</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>72</v>
@@ -9255,129 +9418,141 @@
       <c r="T30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U30" s="2" t="b">
+      <c r="U30" s="2" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H31" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="V31" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U31" s="2" t="b">
+      <c r="W31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>72</v>
@@ -9409,52 +9584,58 @@
       <c r="T32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U32" s="2" t="b">
+      <c r="U32" s="2" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>72</v>
@@ -9486,52 +9667,58 @@
       <c r="T33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U33" s="2" t="b">
+      <c r="U33" s="2" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>72</v>
@@ -9563,52 +9750,58 @@
       <c r="T34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U34" s="2" t="b">
+      <c r="U34" s="2" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>72</v>
@@ -9640,52 +9833,58 @@
       <c r="T35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U35" s="2" t="b">
+      <c r="U35" s="2" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W35" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>72</v>
@@ -9717,52 +9916,58 @@
       <c r="T36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U36" s="2" t="b">
+      <c r="U36" s="2" t="n">
+        <v>618.0</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA36" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>72</v>
@@ -9794,52 +9999,58 @@
       <c r="T37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U37" s="2" t="b">
+      <c r="U37" s="2" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W37" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA37" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>72</v>
@@ -9871,52 +10082,58 @@
       <c r="T38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U38" s="2" t="b">
+      <c r="U38" s="2" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>72</v>
@@ -9948,52 +10165,58 @@
       <c r="T39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U39" s="2" t="b">
+      <c r="U39" s="2" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W39" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X39" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA39" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>72</v>
@@ -10025,52 +10248,58 @@
       <c r="T40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U40" s="2" t="b">
+      <c r="U40" s="2" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X40" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>72</v>
@@ -10102,52 +10331,58 @@
       <c r="T41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U41" s="2" t="b">
+      <c r="U41" s="2" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W41" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X41" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA41" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>72</v>
@@ -10179,52 +10414,58 @@
       <c r="T42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U42" s="2" t="b">
+      <c r="U42" s="2" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA42" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>323</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>72</v>
@@ -10256,52 +10497,58 @@
       <c r="T43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U43" s="2" t="b">
+      <c r="U43" s="2" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W43" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X43" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>72</v>
@@ -10333,43 +10580,49 @@
       <c r="T44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U44" s="2" t="b">
+      <c r="U44" s="2" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X44" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA44" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
@@ -10378,7 +10631,7 @@
         <v>206</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>72</v>
@@ -10410,52 +10663,58 @@
       <c r="T45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U45" s="2" t="b">
+      <c r="U45" s="2" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X45" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA45" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>72</v>
@@ -10487,52 +10746,58 @@
       <c r="T46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U46" s="2" t="b">
+      <c r="U46" s="2" t="n">
+        <v>995.0</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X46" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA46" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>72</v>
@@ -10564,52 +10829,58 @@
       <c r="T47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U47" s="2" t="b">
+      <c r="U47" s="2" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X47" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA47" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>72</v>
@@ -10641,43 +10912,49 @@
       <c r="T48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U48" s="2" t="b">
+      <c r="U48" s="2" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X48" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA48" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>2.0</v>
@@ -10686,7 +10963,7 @@
         <v>223</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>72</v>
@@ -10718,52 +10995,58 @@
       <c r="T49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U49" s="2" t="b">
+      <c r="U49" s="2" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W49" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>72</v>
@@ -10795,129 +11078,141 @@
       <c r="T50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U50" s="2" t="b">
+      <c r="U50" s="2" t="n">
+        <v>928.0</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X50" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA50" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H51" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="V51" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U51" s="2" t="b">
+      <c r="W51" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA51" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>72</v>
@@ -10949,52 +11244,58 @@
       <c r="T52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U52" s="2" t="b">
+      <c r="U52" s="2" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA52" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>72</v>
@@ -11026,52 +11327,58 @@
       <c r="T53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U53" s="2" t="b">
+      <c r="U53" s="2" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W53" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA53" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>72</v>
@@ -11103,52 +11410,58 @@
       <c r="T54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U54" s="2" t="b">
+      <c r="U54" s="2" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X54" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA54" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>72</v>
@@ -11180,129 +11493,141 @@
       <c r="T55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U55" s="2" t="b">
+      <c r="U55" s="2" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W55" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X55" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA55" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H56" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="V56" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U56" s="2" t="b">
+      <c r="W56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X56" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA56" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>72</v>
@@ -11334,52 +11659,58 @@
       <c r="T57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U57" s="2" t="b">
+      <c r="U57" s="2" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA57" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>72</v>
@@ -11411,52 +11742,58 @@
       <c r="T58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U58" s="2" t="b">
+      <c r="U58" s="2" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA58" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>72</v>
@@ -11488,52 +11825,58 @@
       <c r="T59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U59" s="2" t="b">
+      <c r="U59" s="2" t="n">
+        <v>525.0</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA59" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>368</v>
+        <v>181</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>72</v>
@@ -11565,52 +11908,58 @@
       <c r="T60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U60" s="2" t="b">
+      <c r="U60" s="2" t="n">
+        <v>898.0</v>
+      </c>
+      <c r="V60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA60" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>72</v>
+        <v>325</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>186</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>72</v>
@@ -11642,52 +11991,58 @@
       <c r="T61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U61" s="2" t="b">
+      <c r="U61" s="2" t="n">
+        <v>621.0</v>
+      </c>
+      <c r="V61" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W61" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X61" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA61" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>72</v>
@@ -11719,52 +12074,58 @@
       <c r="T62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U62" s="2" t="b">
+      <c r="U62" s="2" t="n">
+        <v>993.0</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W62" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA62" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>72</v>
@@ -11796,52 +12157,58 @@
       <c r="T63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U63" s="2" t="b">
+      <c r="U63" s="2" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="V63" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA63" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>206</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>72</v>
@@ -11873,52 +12240,58 @@
       <c r="T64" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U64" s="2" t="b">
+      <c r="U64" s="2" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="V64" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA64" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>72</v>
@@ -11950,52 +12323,58 @@
       <c r="T65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U65" s="2" t="b">
+      <c r="U65" s="2" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>72</v>
@@ -12027,52 +12406,58 @@
       <c r="T66" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>72</v>
+      <c r="U66" s="2" t="n">
+        <v>778.0</v>
+      </c>
+      <c r="V66" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W66" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>72</v>
@@ -12104,52 +12489,58 @@
       <c r="T67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U67" s="2" t="b">
+      <c r="U67" s="2" t="n">
+        <v>552.0</v>
+      </c>
+      <c r="V67" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W67" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X67" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA67" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>386</v>
+        <v>195</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>223</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>72</v>
@@ -12181,129 +12572,141 @@
       <c r="T68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U68" s="2" t="b">
+      <c r="U68" s="2" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="V68" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA68" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H69" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" s="2" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="V69" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U69" s="2" t="b">
+      <c r="W69" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>72</v>
@@ -12335,52 +12738,58 @@
       <c r="T70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U70" s="2" t="b">
+      <c r="U70" s="2" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="V70" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>72</v>
@@ -12412,52 +12821,58 @@
       <c r="T71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U71" s="2" t="b">
+      <c r="U71" s="2" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="V71" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W71" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA71" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>72</v>
@@ -12489,96 +12904,108 @@
       <c r="T72" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U72" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>69</v>
+      <c r="U72" s="2" t="n">
+        <v>626.0</v>
+      </c>
+      <c r="V72" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W72" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>307</v>
+        <v>158</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H73" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U73" s="2" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="V73" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U73" s="2" t="b">
+      <c r="W73" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="X73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Y73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12611,10 +13038,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2"/>
@@ -12623,16 +13050,16 @@
         <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
@@ -12672,7 +13099,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>72.0</v>
@@ -12778,7 +13205,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -12825,7 +13252,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -13323,7 +13750,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -13574,8 +14001,8 @@
       <c r="B8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>406</v>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>72</v>
@@ -14968,8 +15395,8 @@
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>72</v>
+      <c r="C42" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
@@ -15413,7 +15840,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -15454,13 +15881,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>72</v>
@@ -15490,6 +15917,47 @@
         <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>72</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -25,6 +25,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -33,8 +51,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -51,8 +69,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -69,8 +87,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -87,8 +105,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -105,8 +123,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -121,10 +139,10 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C42" authorId="0">
+    <comment ref="C4" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -141,16 +159,8 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
-PINNED BY USER
-</t>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <t xml:space="preserve">S64: Discover AI-driven XStream
-    Jay Green
+        <t xml:space="preserve">S35: Using secure Tensorflow
+    Beth Fox
 PINNED BY USER
 </t>
       </text>
@@ -160,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="409">
   <si>
     <t>Conference name</t>
   </si>
@@ -414,6 +424,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
     <t>10:15-12:15</t>
   </si>
   <si>
@@ -444,12 +457,12 @@
     <t>R 3</t>
   </si>
   <si>
+    <t>R 4</t>
+  </si>
+  <si>
     <t>Recorded</t>
   </si>
   <si>
-    <t>R 4</t>
-  </si>
-  <si>
     <t>R 5</t>
   </si>
   <si>
@@ -585,12 +598,12 @@
     <t>Amy Jones</t>
   </si>
   <si>
+    <t>Large</t>
+  </si>
+  <si>
     <t>Beth King</t>
   </si>
   <si>
-    <t>Large</t>
-  </si>
-  <si>
     <t>Chad Li</t>
   </si>
   <si>
@@ -696,450 +709,450 @@
     <t>Hands on real-time OpenShift</t>
   </si>
   <si>
-    <t>Amy Cole, Beth Fox</t>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Flo Li, Gus Poe</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Hugo Rye, Ivy Smith, Jay Watt</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Amy Fox, Beth Green</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Culture, Security</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Elsa Li, Flo Poe</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Culture</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Gus Rye, Hugo Smith</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Jay Cole, Amy Green</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>Beth Jones, Chad King</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Flo Rye, Gus Smith</t>
+  </si>
+  <si>
+    <t>Security, Mobile</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
   </si>
   <si>
     <t>IoT</t>
   </si>
   <si>
-    <t>Managers</t>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Amy Jones, Beth King</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Chad Li, Dan Poe</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>Elsa Rye, Flo Smith</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>Middleware, Culture</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Amy King, Beth Li</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Mobile, Culture</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Modern Web, Middleware</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>Modern Web, Cloud</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>Deliver stable VertX</t>
+  </si>
+  <si>
+    <t>Cloud, Middleware</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>Implement platform-independent JUnit</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>Program flexible Keycloak</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>Hack modularized OpenShift</t>
   </si>
   <si>
     <t>OpenShift</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
-  </si>
-  <si>
-    <t>Dan Jones, Elsa King</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Jay Watt, Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Chad Jones, Dan King</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Flo Poe, Gus Rye</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Ivy Watt, Jay Cole</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Elsa Poe, Flo Rye, Gus Smith</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>Hugo Watt, Ivy Cole</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>Big Data, Mobile</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>Amy Jones, Beth King</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Chad Li, Dan Poe</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Flo Smith, Gus Watt</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>Cloud, Culture</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
-  </si>
-  <si>
-    <t>Beth Li, Chad Poe</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>Modern Web, Mobile</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
-    <t>Gus Cole, Hugo Fox</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Applying modern Weld</t>
-  </si>
-  <si>
-    <t>Security, Mobile</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Grok distributed RestEasy</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Android</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>Using secure Tensorflow</t>
-  </si>
-  <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>Deliver stable VertX</t>
-  </si>
-  <si>
-    <t>S37</t>
-  </si>
-  <si>
-    <t>Implement platform-independent JUnit</t>
-  </si>
-  <si>
-    <t>S38</t>
-  </si>
-  <si>
-    <t>Program flexible Keycloak</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>Hack modularized OpenShift</t>
-  </si>
-  <si>
     <t>S40</t>
   </si>
   <si>
     <t>Hands on real-time Spring</t>
   </si>
   <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Advanced containerized Drools</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>Learn virtualized OptaPlanner</t>
+  </si>
+  <si>
     <t>Jay Watt, Amy Fox</t>
   </si>
   <si>
-    <t>S41</t>
-  </si>
-  <si>
-    <t>Advanced containerized Drools</t>
-  </si>
-  <si>
-    <t>S42</t>
-  </si>
-  <si>
-    <t>Learn virtualized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Financial services</t>
-  </si>
-  <si>
     <t>S43</t>
   </si>
   <si>
     <t>Intro to serverless jBPM</t>
   </si>
   <si>
-    <t>Artificial Intelligence, Cloud</t>
-  </si>
-  <si>
     <t>S44</t>
   </si>
   <si>
     <t>Discover AI-driven Camel</t>
   </si>
   <si>
-    <t>Elsa Li, Flo Poe</t>
-  </si>
-  <si>
-    <t>Security, Modern Web</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
     <t>S45</t>
   </si>
   <si>
@@ -1152,9 +1165,6 @@
     <t>Tuning IOT-driven Docker</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>S47</t>
   </si>
   <si>
@@ -1173,24 +1183,21 @@
     <t>Debug enterprise Errai</t>
   </si>
   <si>
+    <t>IoT, Mobile</t>
+  </si>
+  <si>
     <t>S50</t>
   </si>
   <si>
     <t>Prepare for streaming Angular</t>
   </si>
   <si>
-    <t>IoT, Mobile</t>
-  </si>
-  <si>
     <t>S51</t>
   </si>
   <si>
     <t>Understand mobile Weld</t>
   </si>
   <si>
-    <t>Cloud, Middleware</t>
-  </si>
-  <si>
     <t>S52</t>
   </si>
   <si>
@@ -1203,15 +1210,15 @@
     <t>Grok distributed Android</t>
   </si>
   <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Tensorflow</t>
+  </si>
+  <si>
     <t>Elsa Poe, Flo Rye</t>
   </si>
   <si>
-    <t>S54</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Tensorflow</t>
-  </si>
-  <si>
     <t>S55</t>
   </si>
   <si>
@@ -1224,13 +1231,16 @@
     <t>Deliver stable JUnit</t>
   </si>
   <si>
+    <t>Security, Artificial Intelligence</t>
+  </si>
+  <si>
     <t>S57</t>
   </si>
   <si>
     <t>Implement platform-independent Keycloak</t>
   </si>
   <si>
-    <t>Security, Artificial Intelligence</t>
+    <t>Ivy Cole, Jay Fox</t>
   </si>
   <si>
     <t>S58</t>
@@ -1239,7 +1249,7 @@
     <t>Program flexible OpenShift</t>
   </si>
   <si>
-    <t>Beth King, Chad Li</t>
+    <t>Amy Jones, Beth King, Chad Li</t>
   </si>
   <si>
     <t>S59</t>
@@ -1260,13 +1270,16 @@
     <t>Advanced containerized OptaPlanner</t>
   </si>
   <si>
+    <t>Artificial Intelligence, Mobile</t>
+  </si>
+  <si>
     <t>S62</t>
   </si>
   <si>
     <t>Learn virtualized jBPM</t>
   </si>
   <si>
-    <t>Artificial Intelligence, Mobile</t>
+    <t>Gus Watt, Hugo Cole</t>
   </si>
   <si>
     <t>S63</t>
@@ -1275,7 +1288,7 @@
     <t>Intro to serverless Camel</t>
   </si>
   <si>
-    <t>Hugo Cole, Ivy Fox</t>
+    <t>Big Data, Middleware</t>
   </si>
   <si>
     <t>S64</t>
@@ -1284,9 +1297,6 @@
     <t>Discover AI-driven XStream</t>
   </si>
   <si>
-    <t>Big Data, Middleware</t>
-  </si>
-  <si>
     <t>S65</t>
   </si>
   <si>
@@ -1305,15 +1315,15 @@
     <t>Building deep learning GWT</t>
   </si>
   <si>
+    <t>Chad Poe, Dan Rye</t>
+  </si>
+  <si>
     <t>S68</t>
   </si>
   <si>
     <t>Securing scalable Errai</t>
   </si>
   <si>
-    <t>Dan Rye, Elsa Smith</t>
-  </si>
-  <si>
     <t>S69</t>
   </si>
   <si>
@@ -1353,14 +1363,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S64: Discover AI-driven XStream
-  Jay Green</t>
+    <t>S35: Using secure Tensorflow
+  Beth Fox</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S64 @ R 1</t>
+    <t>S35 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1378,7 +1388,7 @@
     <t>Content tag</t>
   </si>
   <si>
-    <t>S64 (level 3)</t>
+    <t>S35 (level 3)</t>
   </si>
   <si>
     <t>Constraint match</t>
@@ -1967,7 +1977,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.6328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -2028,40 +2038,81 @@
         <v>401</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2071,6 +2122,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2088,7 +2140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.99609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -2149,45 +2201,45 @@
         <v>402</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -2309,43 +2361,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
@@ -2475,45 +2527,45 @@
         <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -2635,48 +2687,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -3026,9 +3078,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.87890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.6171875" customWidth="true" bestFit="true"/>
@@ -3040,6 +3092,7 @@
     <col min="13" max="13" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="13.6171875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="13.6171875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3094,13 +3147,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>85</v>
@@ -3118,7 +3171,7 @@
         <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>85</v>
@@ -3135,19 +3188,22 @@
       <c r="O2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>72</v>
@@ -3180,19 +3236,22 @@
         <v>72</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
@@ -3227,21 +3286,24 @@
         <v>72</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>72</v>
@@ -3274,6 +3336,9 @@
         <v>72</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3281,14 +3346,14 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>72</v>
@@ -3321,21 +3386,24 @@
         <v>72</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>72</v>
@@ -3368,19 +3436,22 @@
         <v>72</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
@@ -3415,21 +3486,24 @@
         <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>72</v>
@@ -3462,19 +3536,22 @@
         <v>72</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
@@ -3509,19 +3586,22 @@
         <v>72</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
@@ -3556,21 +3636,24 @@
         <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>72</v>
@@ -3603,6 +3686,9 @@
         <v>72</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3720,69 +3806,69 @@
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>72</v>
@@ -3800,7 +3886,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
@@ -3847,7 +3933,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>72</v>
@@ -3912,7 +3998,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
@@ -3977,7 +4063,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
@@ -3995,7 +4081,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>72</v>
@@ -4042,7 +4128,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>72</v>
@@ -4060,7 +4146,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>72</v>
@@ -4107,7 +4193,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>72</v>
@@ -4133,13 +4219,13 @@
       <c r="I8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -4151,13 +4237,13 @@
       <c r="O8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="P8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S8" s="2" t="s">
@@ -4172,7 +4258,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>72</v>
@@ -4190,7 +4276,7 @@
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>72</v>
@@ -4198,13 +4284,13 @@
       <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -4216,13 +4302,13 @@
       <c r="O9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="P9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S9" s="2" t="s">
@@ -4237,7 +4323,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>72</v>
@@ -4255,7 +4341,7 @@
         <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>72</v>
@@ -4302,7 +4388,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>72</v>
@@ -4367,7 +4453,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>72</v>
@@ -4432,7 +4518,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>72</v>
@@ -4497,7 +4583,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>72</v>
@@ -4562,7 +4648,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>72</v>
@@ -4627,7 +4713,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>72</v>
@@ -4692,7 +4778,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>72</v>
@@ -4757,7 +4843,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>72</v>
@@ -4822,7 +4908,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>72</v>
@@ -4854,16 +4940,16 @@
       <c r="K19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="2" t="s">
+      <c r="N19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -4887,7 +4973,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>72</v>
@@ -4916,19 +5002,19 @@
       <c r="J20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -4952,7 +5038,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>72</v>
@@ -4981,7 +5067,7 @@
       <c r="J21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -5017,7 +5103,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>72</v>
@@ -5082,7 +5168,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>72</v>
@@ -5147,7 +5233,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>72</v>
@@ -5212,7 +5298,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>72</v>
@@ -5277,7 +5363,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>72</v>
@@ -5342,7 +5428,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>72</v>
@@ -5407,7 +5493,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>72</v>
@@ -5472,7 +5558,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>72</v>
@@ -5537,7 +5623,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -5602,7 +5688,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
@@ -5667,7 +5753,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
@@ -5732,7 +5818,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>72</v>
@@ -5747,7 +5833,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>72</v>
@@ -5797,7 +5883,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>72</v>
@@ -5812,7 +5898,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>72</v>
@@ -5823,7 +5909,7 @@
       <c r="I34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -5862,7 +5948,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>72</v>
@@ -5888,7 +5974,7 @@
       <c r="I35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -5927,7 +6013,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>72</v>
@@ -5992,7 +6078,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>72</v>
@@ -6057,7 +6143,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>72</v>
@@ -6122,7 +6208,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>72</v>
@@ -6187,7 +6273,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>72</v>
@@ -6252,7 +6338,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>72</v>
@@ -6317,7 +6403,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>72</v>
@@ -6382,7 +6468,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>72</v>
@@ -6417,13 +6503,13 @@
       <c r="L43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O43" s="2" t="s">
+      <c r="M43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -6435,19 +6521,19 @@
       <c r="R43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U43" s="2" t="s">
+      <c r="S43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U43" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>72</v>
@@ -6482,13 +6568,13 @@
       <c r="L44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O44" s="3" t="s">
+      <c r="M44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>72</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -6500,19 +6586,19 @@
       <c r="R44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U44" s="3" t="s">
+      <c r="S44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U44" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>72</v>
@@ -6577,7 +6663,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>72</v>
@@ -6595,7 +6681,7 @@
         <v>72</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>72</v>
@@ -6642,7 +6728,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>72</v>
@@ -6660,7 +6746,7 @@
         <v>72</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>72</v>
@@ -6707,7 +6793,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>72</v>
@@ -6742,13 +6828,13 @@
       <c r="L48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="M48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="P48" s="2" t="s">
@@ -6760,19 +6846,19 @@
       <c r="R48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U48" s="2" t="s">
+      <c r="S48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>72</v>
@@ -6807,13 +6893,13 @@
       <c r="L49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="M49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="P49" s="2" t="s">
@@ -6825,19 +6911,19 @@
       <c r="R49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U49" s="3" t="s">
+      <c r="S49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>72</v>
@@ -6924,12 +7010,12 @@
     <col min="1" max="1" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="29.48828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.71875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.52734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="20.05859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.3046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.55078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="21.8046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="24.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="25.390625" customWidth="true" bestFit="true"/>
@@ -6952,76 +7038,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>64</v>
@@ -7030,39 +7116,39 @@
         <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>72</v>
@@ -7095,10 +7181,10 @@
         <v>72</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>166.0</v>
+        <v>915.0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W2" s="2" t="b">
         <v>0</v>
@@ -7118,34 +7204,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>72</v>
@@ -7178,7 +7264,7 @@
         <v>72</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>915.0</v>
+        <v>790.0</v>
       </c>
       <c r="V3" s="2" t="n">
         <v>3.0</v>
@@ -7201,34 +7287,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>72</v>
@@ -7261,10 +7347,10 @@
         <v>72</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>790.0</v>
+        <v>540.0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W4" s="2" t="b">
         <v>0</v>
@@ -7284,10 +7370,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>71</v>
@@ -7296,22 +7382,22 @@
         <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>72</v>
@@ -7344,10 +7430,10 @@
         <v>72</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>540.0</v>
+        <v>240.0</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>0</v>
@@ -7367,16 +7453,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>200</v>
@@ -7385,16 +7471,16 @@
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>72</v>
@@ -7427,10 +7513,10 @@
         <v>72</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>240.0</v>
+        <v>522.0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W6" s="2" t="b">
         <v>0</v>
@@ -7450,34 +7536,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>72</v>
@@ -7510,7 +7596,7 @@
         <v>72</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>522.0</v>
+        <v>349.0</v>
       </c>
       <c r="V7" s="2" t="n">
         <v>1.0</v>
@@ -7533,34 +7619,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>72</v>
@@ -7593,7 +7679,7 @@
         <v>72</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>349.0</v>
+        <v>217.0</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>1.0</v>
@@ -7616,34 +7702,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>72</v>
@@ -7676,10 +7762,10 @@
         <v>72</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>217.0</v>
+        <v>630.0</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W9" s="2" t="b">
         <v>0</v>
@@ -7699,10 +7785,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>74</v>
@@ -7711,58 +7797,58 @@
         <v>124</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="V10" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>802.0</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>3.0</v>
       </c>
       <c r="W10" s="2" t="b">
         <v>0</v>
@@ -7782,70 +7868,70 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>711.0</v>
+      </c>
+      <c r="V11" s="2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>718.0</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0.0</v>
       </c>
       <c r="W11" s="2" t="b">
         <v>0</v>
@@ -7865,34 +7951,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>72</v>
@@ -7925,10 +8011,10 @@
         <v>72</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>348.0</v>
+        <v>534.0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W12" s="2" t="b">
         <v>0</v>
@@ -7948,34 +8034,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>72</v>
@@ -8008,7 +8094,7 @@
         <v>72</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>299.0</v>
+        <v>529.0</v>
       </c>
       <c r="V13" s="2" t="n">
         <v>3.0</v>
@@ -8031,34 +8117,34 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>72</v>
@@ -8091,10 +8177,10 @@
         <v>72</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>529.0</v>
+        <v>194.0</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="2" t="b">
         <v>0</v>
@@ -8114,34 +8200,34 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>72</v>
@@ -8174,10 +8260,10 @@
         <v>72</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>486.0</v>
+        <v>653.0</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="2" t="b">
         <v>0</v>
@@ -8197,34 +8283,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>72</v>
@@ -8257,10 +8343,10 @@
         <v>72</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>295.0</v>
+        <v>682.0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W16" s="2" t="b">
         <v>0</v>
@@ -8280,34 +8366,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>72</v>
@@ -8340,10 +8426,10 @@
         <v>72</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>596.0</v>
+        <v>610.0</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="W17" s="2" t="b">
         <v>0</v>
@@ -8363,34 +8449,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>72</v>
@@ -8423,7 +8509,7 @@
         <v>72</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>313.0</v>
+        <v>88.0</v>
       </c>
       <c r="V18" s="2" t="n">
         <v>0.0</v>
@@ -8446,34 +8532,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>72</v>
@@ -8506,10 +8592,10 @@
         <v>72</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>926.0</v>
+        <v>935.0</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" s="2" t="b">
         <v>0</v>
@@ -8529,10 +8615,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>74</v>
@@ -8541,22 +8627,22 @@
         <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>72</v>
@@ -8589,10 +8675,10 @@
         <v>72</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>550.0</v>
+        <v>309.0</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W20" s="2" t="b">
         <v>0</v>
@@ -8612,70 +8698,70 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H21" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>736.0</v>
+      </c>
+      <c r="V21" s="2" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="2" t="n">
-        <v>466.0</v>
-      </c>
-      <c r="V21" s="2" t="n">
-        <v>1.0</v>
       </c>
       <c r="W21" s="2" t="b">
         <v>0</v>
@@ -8695,34 +8781,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>72</v>
@@ -8755,7 +8841,7 @@
         <v>72</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>274.0</v>
+        <v>946.0</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>0.0</v>
@@ -8778,34 +8864,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>72</v>
@@ -8838,7 +8924,7 @@
         <v>72</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>591.0</v>
+        <v>726.0</v>
       </c>
       <c r="V23" s="2" t="n">
         <v>0.0</v>
@@ -8861,34 +8947,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>72</v>
@@ -8921,10 +9007,10 @@
         <v>72</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>130.0</v>
+        <v>435.0</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W24" s="2" t="b">
         <v>0</v>
@@ -8944,10 +9030,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>74</v>
@@ -8956,22 +9042,22 @@
         <v>148</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>72</v>
@@ -9004,10 +9090,10 @@
         <v>72</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>868.0</v>
+        <v>87.0</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W25" s="2" t="b">
         <v>0</v>
@@ -9027,10 +9113,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>74</v>
@@ -9039,22 +9125,22 @@
         <v>149</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>72</v>
@@ -9087,10 +9173,10 @@
         <v>72</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>560.0</v>
+        <v>968.0</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W26" s="2" t="b">
         <v>0</v>
@@ -9110,10 +9196,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>74</v>
@@ -9122,22 +9208,22 @@
         <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>72</v>
@@ -9170,10 +9256,10 @@
         <v>72</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>454.0</v>
+        <v>141.0</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W27" s="2" t="b">
         <v>0</v>
@@ -9193,10 +9279,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>74</v>
@@ -9205,22 +9291,22 @@
         <v>151</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>72</v>
@@ -9253,7 +9339,7 @@
         <v>72</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>768.0</v>
+        <v>268.0</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>0.0</v>
@@ -9276,34 +9362,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>72</v>
@@ -9336,7 +9422,7 @@
         <v>72</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>952.0</v>
+        <v>820.0</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>3.0</v>
@@ -9359,10 +9445,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>74</v>
@@ -9371,22 +9457,22 @@
         <v>154</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>72</v>
@@ -9419,10 +9505,10 @@
         <v>72</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>295.0</v>
+        <v>258.0</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W30" s="2" t="b">
         <v>0</v>
@@ -9442,10 +9528,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>74</v>
@@ -9454,22 +9540,22 @@
         <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>72</v>
@@ -9502,10 +9588,10 @@
         <v>72</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>926.0</v>
+        <v>312.0</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W31" s="2" t="b">
         <v>0</v>
@@ -9525,10 +9611,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>74</v>
@@ -9537,22 +9623,22 @@
         <v>156</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>72</v>
@@ -9585,10 +9671,10 @@
         <v>72</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>135.0</v>
+        <v>774.0</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W32" s="2" t="b">
         <v>0</v>
@@ -9608,34 +9694,34 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>72</v>
@@ -9668,10 +9754,10 @@
         <v>72</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>454.0</v>
+        <v>161.0</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W33" s="2" t="b">
         <v>0</v>
@@ -9691,34 +9777,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>72</v>
@@ -9751,10 +9837,10 @@
         <v>72</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>969.0</v>
+        <v>377.0</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W34" s="2" t="b">
         <v>0</v>
@@ -9774,34 +9860,34 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>72</v>
@@ -9834,10 +9920,10 @@
         <v>72</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>63.0</v>
+        <v>208.0</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W35" s="2" t="b">
         <v>0</v>
@@ -9857,34 +9943,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>72</v>
@@ -9917,10 +10003,10 @@
         <v>72</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>618.0</v>
+        <v>156.0</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="W36" s="2" t="b">
         <v>0</v>
@@ -9940,34 +10026,34 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>72</v>
@@ -10000,57 +10086,57 @@
         <v>72</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>506.0</v>
+        <v>617.0</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W37" s="2" t="b">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="W37" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>72</v>
@@ -10083,10 +10169,10 @@
         <v>72</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>947.0</v>
+        <v>572.0</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W38" s="2" t="b">
         <v>0</v>
@@ -10106,34 +10192,34 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>72</v>
@@ -10166,10 +10252,10 @@
         <v>72</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>428.0</v>
+        <v>618.0</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="W39" s="2" t="b">
         <v>0</v>
@@ -10189,34 +10275,34 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>72</v>
@@ -10249,10 +10335,10 @@
         <v>72</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>450.0</v>
+        <v>642.0</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W40" s="2" t="b">
         <v>0</v>
@@ -10272,34 +10358,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>72</v>
@@ -10332,10 +10418,10 @@
         <v>72</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>707.0</v>
+        <v>158.0</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="W41" s="2" t="b">
         <v>0</v>
@@ -10355,70 +10441,70 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H42" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U42" s="2" t="n">
-        <v>188.0</v>
-      </c>
-      <c r="V42" s="2" t="n">
-        <v>0.0</v>
       </c>
       <c r="W42" s="2" t="b">
         <v>0</v>
@@ -10438,34 +10524,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>72</v>
@@ -10498,7 +10584,7 @@
         <v>72</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>454.0</v>
+        <v>569.0</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>3.0</v>
@@ -10521,34 +10607,34 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>72</v>
@@ -10581,10 +10667,10 @@
         <v>72</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>989.0</v>
+        <v>718.0</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="W44" s="2" t="b">
         <v>0</v>
@@ -10604,34 +10690,34 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>72</v>
@@ -10664,10 +10750,10 @@
         <v>72</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>959.0</v>
+        <v>995.0</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W45" s="2" t="b">
         <v>0</v>
@@ -10687,34 +10773,34 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>72</v>
@@ -10747,7 +10833,7 @@
         <v>72</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>995.0</v>
+        <v>327.0</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>0.0</v>
@@ -10770,34 +10856,34 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>72</v>
@@ -10830,10 +10916,10 @@
         <v>72</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>327.0</v>
+        <v>588.0</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W47" s="2" t="b">
         <v>0</v>
@@ -10853,34 +10939,34 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>72</v>
@@ -10913,10 +10999,10 @@
         <v>72</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>864.0</v>
+        <v>277.0</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="W48" s="2" t="b">
         <v>0</v>
@@ -10945,61 +11031,61 @@
         <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H49" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>928.0</v>
+      </c>
+      <c r="V49" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>4.0</v>
       </c>
       <c r="W49" s="2" t="b">
         <v>0</v>
@@ -11028,25 +11114,25 @@
         <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>72</v>
@@ -11079,7 +11165,7 @@
         <v>72</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>928.0</v>
+        <v>659.0</v>
       </c>
       <c r="V50" s="2" t="n">
         <v>2.0</v>
@@ -11111,25 +11197,25 @@
         <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>337</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>72</v>
@@ -11162,10 +11248,10 @@
         <v>72</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>659.0</v>
+        <v>402.0</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W51" s="2" t="b">
         <v>0</v>
@@ -11185,70 +11271,70 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H52" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>648.0</v>
+      </c>
+      <c r="V52" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U52" s="2" t="n">
-        <v>402.0</v>
-      </c>
-      <c r="V52" s="2" t="n">
-        <v>3.0</v>
       </c>
       <c r="W52" s="2" t="b">
         <v>0</v>
@@ -11277,25 +11363,25 @@
         <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>72</v>
@@ -11328,10 +11414,10 @@
         <v>72</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>648.0</v>
+        <v>900.0</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="W53" s="2" t="b">
         <v>0</v>
@@ -11351,34 +11437,34 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>72</v>
@@ -11411,7 +11497,7 @@
         <v>72</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>900.0</v>
+        <v>283.0</v>
       </c>
       <c r="V54" s="2" t="n">
         <v>4.0</v>
@@ -11434,70 +11520,70 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H55" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="V55" s="2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>283.0</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>4.0</v>
       </c>
       <c r="W55" s="2" t="b">
         <v>0</v>
@@ -11517,34 +11603,34 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>72</v>
@@ -11577,10 +11663,10 @@
         <v>72</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>514.0</v>
+        <v>601.0</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W56" s="2" t="b">
         <v>0</v>
@@ -11600,34 +11686,34 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>72</v>
@@ -11660,10 +11746,10 @@
         <v>72</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>601.0</v>
+        <v>307.0</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="W57" s="2" t="b">
         <v>0</v>
@@ -11683,34 +11769,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>72</v>
@@ -11743,7 +11829,7 @@
         <v>72</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>307.0</v>
+        <v>525.0</v>
       </c>
       <c r="V58" s="2" t="n">
         <v>4.0</v>
@@ -11775,25 +11861,25 @@
         <v>74</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>140</v>
+        <v>356</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>72</v>
@@ -11826,10 +11912,10 @@
         <v>72</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>525.0</v>
+        <v>968.0</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W59" s="2" t="b">
         <v>0</v>
@@ -11861,58 +11947,58 @@
         <v>359</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H60" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U60" s="2" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="V60" s="2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U60" s="2" t="n">
-        <v>898.0</v>
-      </c>
-      <c r="V60" s="2" t="n">
-        <v>0.0</v>
       </c>
       <c r="W60" s="2" t="b">
         <v>0</v>
@@ -11941,25 +12027,25 @@
         <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>72</v>
@@ -11992,10 +12078,10 @@
         <v>72</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>621.0</v>
+        <v>125.0</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W61" s="2" t="b">
         <v>0</v>
@@ -12024,25 +12110,25 @@
         <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H62" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="J62" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>72</v>
@@ -12075,10 +12161,10 @@
         <v>72</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>993.0</v>
+        <v>404.0</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W62" s="2" t="b">
         <v>0</v>
@@ -12107,25 +12193,25 @@
         <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>72</v>
@@ -12158,10 +12244,10 @@
         <v>72</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>404.0</v>
+        <v>125.0</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="W63" s="2" t="b">
         <v>0</v>
@@ -12181,34 +12267,34 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>368</v>
+        <v>211</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>72</v>
@@ -12241,10 +12327,10 @@
         <v>72</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>125.0</v>
+        <v>591.0</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="W64" s="2" t="b">
         <v>0</v>
@@ -12264,34 +12350,34 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>214</v>
+        <v>372</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>72</v>
@@ -12324,7 +12410,7 @@
         <v>72</v>
       </c>
       <c r="U65" s="2" t="n">
-        <v>591.0</v>
+        <v>778.0</v>
       </c>
       <c r="V65" s="2" t="n">
         <v>3.0</v>
@@ -12347,34 +12433,34 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>374</v>
+        <v>200</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>72</v>
@@ -12407,25 +12493,25 @@
         <v>72</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>778.0</v>
+        <v>310.0</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W66" s="4" t="b">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="W66" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67">
@@ -12439,25 +12525,25 @@
         <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>72</v>
@@ -12490,10 +12576,10 @@
         <v>72</v>
       </c>
       <c r="U67" s="2" t="n">
-        <v>552.0</v>
+        <v>658.0</v>
       </c>
       <c r="V67" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W67" s="2" t="b">
         <v>0</v>
@@ -12522,61 +12608,61 @@
         <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H68" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U68" s="2" t="n">
+        <v>564.0</v>
+      </c>
+      <c r="V68" s="2" t="n">
         <v>3.0</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U68" s="2" t="n">
-        <v>658.0</v>
-      </c>
-      <c r="V68" s="2" t="n">
-        <v>2.0</v>
       </c>
       <c r="W68" s="2" t="b">
         <v>0</v>
@@ -12605,25 +12691,25 @@
         <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>72</v>
@@ -12656,10 +12742,10 @@
         <v>72</v>
       </c>
       <c r="U69" s="2" t="n">
-        <v>564.0</v>
+        <v>357.0</v>
       </c>
       <c r="V69" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W69" s="2" t="b">
         <v>0</v>
@@ -12679,34 +12765,34 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>72</v>
@@ -12739,10 +12825,10 @@
         <v>72</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>357.0</v>
+        <v>97.0</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="W70" s="2" t="b">
         <v>0</v>
@@ -12771,25 +12857,25 @@
         <v>74</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>72</v>
@@ -12822,10 +12908,10 @@
         <v>72</v>
       </c>
       <c r="U71" s="2" t="n">
-        <v>97.0</v>
+        <v>626.0</v>
       </c>
       <c r="V71" s="2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="W71" s="2" t="b">
         <v>0</v>
@@ -12854,25 +12940,25 @@
         <v>74</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>72</v>
@@ -12905,7 +12991,7 @@
         <v>72</v>
       </c>
       <c r="U72" s="2" t="n">
-        <v>626.0</v>
+        <v>231.0</v>
       </c>
       <c r="V72" s="2" t="n">
         <v>1.0</v>
@@ -12937,25 +13023,25 @@
         <v>74</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>72</v>
@@ -12988,10 +13074,10 @@
         <v>72</v>
       </c>
       <c r="U73" s="2" t="n">
-        <v>231.0</v>
+        <v>548.0</v>
       </c>
       <c r="V73" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W73" s="2" t="b">
         <v>0</v>
@@ -13047,7 +13133,7 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>392</v>
@@ -13205,48 +13291,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
@@ -13287,7 +13373,7 @@
     </row>
     <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>72</v>
@@ -13328,7 +13414,7 @@
     </row>
     <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>72</v>
@@ -13410,7 +13496,7 @@
     </row>
     <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -13451,7 +13537,7 @@
     </row>
     <row r="8" ht="45.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>72</v>
@@ -13492,7 +13578,7 @@
     </row>
     <row r="9" ht="45.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>72</v>
@@ -13533,7 +13619,7 @@
     </row>
     <row r="10" ht="45.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>72</v>
@@ -13574,7 +13660,7 @@
     </row>
     <row r="11" ht="45.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -13615,7 +13701,7 @@
     </row>
     <row r="12" ht="45.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>72</v>
@@ -13753,45 +13839,45 @@
         <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -13832,13 +13918,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>72</v>
+      <c r="C4" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>72</v>
@@ -13873,7 +13959,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>72</v>
@@ -13914,7 +14000,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>72</v>
@@ -13955,7 +14041,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -13996,15 +14082,15 @@
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -14016,13 +14102,13 @@
       <c r="G8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="H8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -14037,15 +14123,15 @@
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -14057,13 +14143,13 @@
       <c r="G9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -14078,7 +14164,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>72</v>
@@ -14119,7 +14205,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>72</v>
@@ -14160,7 +14246,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>72</v>
@@ -14201,7 +14287,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="true">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>72</v>
@@ -14242,7 +14328,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>72</v>
@@ -14283,7 +14369,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>72</v>
@@ -14324,7 +14410,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="true">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>72</v>
@@ -14365,7 +14451,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>72</v>
@@ -14406,7 +14492,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="true">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>72</v>
@@ -14447,7 +14533,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="true">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>72</v>
@@ -14455,16 +14541,16 @@
       <c r="C19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -14488,24 +14574,24 @@
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -14529,12 +14615,12 @@
     </row>
     <row r="21" ht="15.0" customHeight="true">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -14570,7 +14656,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>72</v>
@@ -14611,7 +14697,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="true">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>72</v>
@@ -14652,7 +14738,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="true">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>72</v>
@@ -14693,7 +14779,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>72</v>
@@ -14734,7 +14820,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>72</v>
@@ -14775,7 +14861,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>72</v>
@@ -14816,7 +14902,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="true">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>72</v>
@@ -14857,7 +14943,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="true">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>72</v>
@@ -14898,7 +14984,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>72</v>
@@ -14939,7 +15025,7 @@
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>72</v>
@@ -14980,7 +15066,7 @@
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
@@ -15021,7 +15107,7 @@
     </row>
     <row r="33" ht="15.0" customHeight="true">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>72</v>
@@ -15062,9 +15148,9 @@
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -15103,9 +15189,9 @@
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="A35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -15144,7 +15230,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>72</v>
@@ -15185,7 +15271,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="A37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>72</v>
@@ -15226,7 +15312,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="A38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>72</v>
@@ -15267,7 +15353,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>72</v>
@@ -15308,7 +15394,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="A40" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>72</v>
@@ -15349,7 +15435,7 @@
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="A41" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>72</v>
@@ -15390,13 +15476,13 @@
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="A42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>399</v>
+      <c r="C42" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>72</v>
@@ -15431,7 +15517,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>72</v>
@@ -15442,13 +15528,13 @@
       <c r="D43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="E43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -15460,19 +15546,19 @@
       <c r="J43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M43" s="8" t="s">
+      <c r="K43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>72</v>
@@ -15483,13 +15569,13 @@
       <c r="D44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="E44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -15501,19 +15587,19 @@
       <c r="J44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M44" s="3" t="s">
+      <c r="K44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>72</v>
@@ -15554,7 +15640,7 @@
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>72</v>
@@ -15595,7 +15681,7 @@
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="A47" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>72</v>
@@ -15636,7 +15722,7 @@
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="A48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>72</v>
@@ -15647,13 +15733,13 @@
       <c r="D48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="8" t="s">
+      <c r="E48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -15665,19 +15751,19 @@
       <c r="J48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="8" t="s">
+      <c r="K48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="A49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>72</v>
@@ -15688,13 +15774,13 @@
       <c r="D49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="E49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>72</v>
       </c>
       <c r="H49" s="8" t="s">
@@ -15706,19 +15792,19 @@
       <c r="J49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M49" s="3" t="s">
+      <c r="K49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>72</v>
@@ -15843,45 +15929,45 @@
         <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>72</v>
@@ -15917,47 +16003,6 @@
         <v>72</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="true">
-      <c r="A4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="8" t="s">
         <v>72</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -235,40 +235,40 @@
     <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t>Speaker preferred timeslot tag</t>
+    <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker undesired timeslot tag</t>
+    <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker preferred room tag</t>
+    <t>Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker preferred room tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker undesired room tag</t>
+    <t>Speaker undesired room tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk preferred room tag</t>
-  </si>
-  <si>
-    <t>Talk undesired room tag</t>
+    <t>Talk preferred room tags</t>
+  </si>
+  <si>
+    <t>Talk undesired room tags</t>
   </si>
   <si>
     <t>Same day talks</t>
@@ -319,43 +319,43 @@
     <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t>Speaker required timeslot tag</t>
+    <t>Speaker required timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker prohibited timeslot tag</t>
+    <t>Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker required room tag</t>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker prohibited room tag</t>
+    <t>Speaker prohibited room tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk required room tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tag</t>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -296,7 +296,7 @@
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
@@ -716,7 +716,7 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
-    <t>Number of likes</t>
+    <t>Favorite count</t>
   </si>
   <si>
     <t>Crowd control risk</t>
@@ -7105,7 +7105,7 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -305,6 +305,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -375,12 +381,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1593,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1842,109 +1842,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1955,40 +1945,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1999,17 +1989,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2024,7 +2025,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2187,7 +2188,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2350,7 +2351,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2513,7 +2514,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2676,7 +2677,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2822,12 +2823,6 @@
       <c r="M3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>395</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2845,50 +2840,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2898,7 +2901,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3143,7 +3146,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3782,7 +3785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -7076,7 +7079,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13184,7 +13187,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -13289,7 +13292,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -13834,7 +13837,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -15937,7 +15940,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="419">
   <si>
     <t>Conference name</t>
   </si>
@@ -729,6 +729,18 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>Published Timeslot</t>
+  </si>
+  <si>
+    <t>Published Start</t>
+  </si>
+  <si>
+    <t>Published End</t>
+  </si>
+  <si>
+    <t>Published Room</t>
   </si>
   <si>
     <t>S00</t>
@@ -1593,7 +1605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -2024,7 +2036,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2091,7 +2103,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -2132,13 +2144,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2187,7 +2199,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2254,7 +2266,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -2295,13 +2307,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2350,7 +2362,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2458,13 +2470,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2513,7 +2525,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2580,7 +2592,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -2621,13 +2633,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2676,7 +2688,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2784,13 +2796,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -2821,12 +2833,6 @@
       </c>
       <c r="M3" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2845,50 +2851,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2898,7 +2912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3143,7 +3157,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3782,7 +3796,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -7076,7 +7090,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7112,6 +7126,10 @@
     <col min="25" max="25" width="6.3984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="7.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.20703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7196,13 +7214,25 @@
       <c r="AA1" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
@@ -7211,22 +7241,22 @@
         <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>76</v>
@@ -7279,37 +7309,49 @@
       <c r="AA2" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>76</v>
@@ -7362,13 +7404,25 @@
       <c r="AA3" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>75</v>
@@ -7377,22 +7431,22 @@
         <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>76</v>
@@ -7445,13 +7499,25 @@
       <c r="AA4" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
@@ -7460,22 +7526,22 @@
         <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>76</v>
@@ -7528,37 +7594,49 @@
       <c r="AA5" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>76</v>
@@ -7611,37 +7689,49 @@
       <c r="AA6" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>76</v>
@@ -7694,37 +7784,49 @@
       <c r="AA7" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>76</v>
@@ -7777,13 +7879,25 @@
       <c r="AA8" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>75</v>
@@ -7792,22 +7906,22 @@
         <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>76</v>
@@ -7860,13 +7974,25 @@
       <c r="AA9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>78</v>
@@ -7875,22 +8001,22 @@
         <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>76</v>
@@ -7943,37 +8069,49 @@
       <c r="AA10" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>76</v>
@@ -8026,37 +8164,49 @@
       <c r="AA11" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>76</v>
@@ -8109,13 +8259,25 @@
       <c r="AA12" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>78</v>
@@ -8124,22 +8286,22 @@
         <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>76</v>
@@ -8192,37 +8354,49 @@
       <c r="AA13" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>76</v>
@@ -8275,37 +8449,49 @@
       <c r="AA14" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>76</v>
@@ -8358,13 +8544,25 @@
       <c r="AA15" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>78</v>
@@ -8373,22 +8571,22 @@
         <v>138</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>76</v>
@@ -8441,13 +8639,25 @@
       <c r="AA16" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>78</v>
@@ -8456,22 +8666,22 @@
         <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>76</v>
@@ -8524,37 +8734,49 @@
       <c r="AA17" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>76</v>
@@ -8607,13 +8829,25 @@
       <c r="AA18" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>78</v>
@@ -8622,22 +8856,22 @@
         <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>76</v>
@@ -8690,13 +8924,25 @@
       <c r="AA19" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>78</v>
@@ -8705,22 +8951,22 @@
         <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>76</v>
@@ -8773,13 +9019,25 @@
       <c r="AA20" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>78</v>
@@ -8788,22 +9046,22 @@
         <v>144</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>76</v>
@@ -8856,37 +9114,49 @@
       <c r="AA21" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>76</v>
@@ -8939,37 +9209,49 @@
       <c r="AA22" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>76</v>
@@ -9022,37 +9304,49 @@
       <c r="AA23" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>76</v>
@@ -9105,13 +9399,25 @@
       <c r="AA24" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>78</v>
@@ -9120,22 +9426,22 @@
         <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>76</v>
@@ -9188,13 +9494,25 @@
       <c r="AA25" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>78</v>
@@ -9203,22 +9521,22 @@
         <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>76</v>
@@ -9271,13 +9589,25 @@
       <c r="AA26" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>78</v>
@@ -9286,22 +9616,22 @@
         <v>154</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>76</v>
@@ -9354,13 +9684,25 @@
       <c r="AA27" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>78</v>
@@ -9369,22 +9711,22 @@
         <v>155</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>76</v>
@@ -9437,37 +9779,49 @@
       <c r="AA28" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>76</v>
@@ -9520,13 +9874,25 @@
       <c r="AA29" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>78</v>
@@ -9535,22 +9901,22 @@
         <v>158</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>76</v>
@@ -9603,13 +9969,25 @@
       <c r="AA30" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>78</v>
@@ -9618,22 +9996,22 @@
         <v>159</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>76</v>
@@ -9686,13 +10064,25 @@
       <c r="AA31" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>78</v>
@@ -9701,22 +10091,22 @@
         <v>160</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>76</v>
@@ -9769,13 +10159,25 @@
       <c r="AA32" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>78</v>
@@ -9784,22 +10186,22 @@
         <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>76</v>
@@ -9852,13 +10254,25 @@
       <c r="AA33" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>78</v>
@@ -9867,22 +10281,22 @@
         <v>162</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>76</v>
@@ -9935,13 +10349,25 @@
       <c r="AA34" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
@@ -9950,22 +10376,22 @@
         <v>163</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>76</v>
@@ -10018,13 +10444,25 @@
       <c r="AA35" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>78</v>
@@ -10033,22 +10471,22 @@
         <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>76</v>
@@ -10101,13 +10539,25 @@
       <c r="AA36" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>78</v>
@@ -10116,22 +10566,22 @@
         <v>116</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>76</v>
@@ -10184,13 +10634,25 @@
       <c r="AA37" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="AB37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>78</v>
@@ -10199,22 +10661,22 @@
         <v>117</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>76</v>
@@ -10267,13 +10729,25 @@
       <c r="AA38" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>78</v>
@@ -10282,22 +10756,22 @@
         <v>118</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>76</v>
@@ -10350,13 +10824,25 @@
       <c r="AA39" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>78</v>
@@ -10365,22 +10851,22 @@
         <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>76</v>
@@ -10433,37 +10919,49 @@
       <c r="AA40" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>76</v>
@@ -10516,13 +11014,25 @@
       <c r="AA41" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>78</v>
@@ -10531,22 +11041,22 @@
         <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>76</v>
@@ -10599,13 +11109,25 @@
       <c r="AA42" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>78</v>
@@ -10614,22 +11136,22 @@
         <v>123</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>76</v>
@@ -10682,37 +11204,49 @@
       <c r="AA43" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>76</v>
@@ -10765,13 +11299,25 @@
       <c r="AA44" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>78</v>
@@ -10780,22 +11326,22 @@
         <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>76</v>
@@ -10848,13 +11394,25 @@
       <c r="AA45" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>78</v>
@@ -10863,22 +11421,22 @@
         <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>76</v>
@@ -10931,13 +11489,25 @@
       <c r="AA46" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>78</v>
@@ -10946,22 +11516,22 @@
         <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>76</v>
@@ -11014,37 +11584,49 @@
       <c r="AA47" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>76</v>
@@ -11097,13 +11679,25 @@
       <c r="AA48" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>78</v>
@@ -11112,22 +11706,22 @@
         <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>76</v>
@@ -11180,13 +11774,25 @@
       <c r="AA49" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>78</v>
@@ -11195,22 +11801,22 @@
         <v>132</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>76</v>
@@ -11263,13 +11869,25 @@
       <c r="AA50" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>78</v>
@@ -11278,22 +11896,22 @@
         <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>76</v>
@@ -11346,13 +11964,25 @@
       <c r="AA51" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>78</v>
@@ -11361,22 +11991,22 @@
         <v>134</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>76</v>
@@ -11429,13 +12059,25 @@
       <c r="AA52" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
@@ -11444,22 +12086,22 @@
         <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>76</v>
@@ -11512,37 +12154,49 @@
       <c r="AA53" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>76</v>
@@ -11595,13 +12249,25 @@
       <c r="AA54" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>78</v>
@@ -11610,22 +12276,22 @@
         <v>138</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>76</v>
@@ -11678,37 +12344,49 @@
       <c r="AA55" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>76</v>
@@ -11761,13 +12439,25 @@
       <c r="AA56" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>78</v>
@@ -11776,22 +12466,22 @@
         <v>141</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>76</v>
@@ -11844,13 +12534,25 @@
       <c r="AA57" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>78</v>
@@ -11859,22 +12561,22 @@
         <v>142</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>76</v>
@@ -11927,37 +12629,49 @@
       <c r="AA58" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE58" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>76</v>
@@ -12010,37 +12724,49 @@
       <c r="AA59" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>76</v>
@@ -12093,13 +12819,25 @@
       <c r="AA60" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE60" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>78</v>
@@ -12108,22 +12846,22 @@
         <v>149</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>76</v>
@@ -12176,13 +12914,25 @@
       <c r="AA61" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE61" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>78</v>
@@ -12191,22 +12941,22 @@
         <v>150</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>76</v>
@@ -12259,13 +13009,25 @@
       <c r="AA62" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>78</v>
@@ -12274,22 +13036,22 @@
         <v>151</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>76</v>
@@ -12342,37 +13104,49 @@
       <c r="AA63" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>76</v>
@@ -12425,13 +13199,25 @@
       <c r="AA64" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>78</v>
@@ -12440,22 +13226,22 @@
         <v>154</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>76</v>
@@ -12508,13 +13294,25 @@
       <c r="AA65" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
@@ -12523,22 +13321,22 @@
         <v>155</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>76</v>
@@ -12591,13 +13389,25 @@
       <c r="AA66" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>78</v>
@@ -12606,22 +13416,22 @@
         <v>156</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>76</v>
@@ -12674,13 +13484,25 @@
       <c r="AA67" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>78</v>
@@ -12689,22 +13511,22 @@
         <v>157</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>76</v>
@@ -12757,37 +13579,49 @@
       <c r="AA68" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>76</v>
@@ -12840,13 +13674,25 @@
       <c r="AA69" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>78</v>
@@ -12855,22 +13701,22 @@
         <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>76</v>
@@ -12923,13 +13769,25 @@
       <c r="AA70" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>78</v>
@@ -12938,22 +13796,22 @@
         <v>161</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>76</v>
@@ -13006,13 +13864,25 @@
       <c r="AA71" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE71" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>78</v>
@@ -13021,22 +13891,22 @@
         <v>162</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>76</v>
@@ -13089,13 +13959,25 @@
       <c r="AA72" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="AB72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE72" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>78</v>
@@ -13104,22 +13986,22 @@
         <v>163</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>76</v>
@@ -13170,6 +14052,18 @@
         <v>76</v>
       </c>
       <c r="AA73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE73" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13184,7 +14078,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -13202,10 +14096,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2"/>
@@ -13214,16 +14108,16 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
@@ -13263,7 +14157,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>72.0</v>
@@ -13289,7 +14183,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -13416,7 +14310,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
@@ -13834,7 +14728,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -13914,7 +14808,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -14002,7 +14896,7 @@
         <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>76</v>
@@ -15937,7 +16831,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -16004,7 +16898,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
@@ -16045,13 +16939,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +35,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +54,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +73,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,11 +92,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -113,7 +111,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
+    Beth Fox
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
@@ -133,7 +150,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
@@ -153,11 +170,10 @@
   <commentList>
     <comment ref="C4" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -173,11 +189,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -186,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="416">
   <si>
     <t>Conference name</t>
   </si>
@@ -308,7 +323,7 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -1432,6 +1447,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow
+Beth Fox</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1472,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,6 +1507,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1501,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1525,6 +1584,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,6 +1642,14 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -2892,6 +2986,145 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -21,6 +21,8 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +35,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +54,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +73,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,11 +92,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -113,7 +111,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
+    Beth Fox
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
@@ -133,7 +150,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
@@ -153,11 +170,10 @@
   <commentList>
     <comment ref="C4" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -173,11 +189,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35: Using secure Tensorflow
+        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
     Beth Fox
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -186,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4114" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="416">
   <si>
     <t>Conference name</t>
   </si>
@@ -305,6 +320,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -375,12 +396,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -1432,6 +1447,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow
+Beth Fox</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1472,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,6 +1507,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1501,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -1525,6 +1584,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,6 +1642,14 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1593,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -1842,109 +1936,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -1955,40 +2039,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1999,17 +2083,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2024,7 +2119,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2187,7 +2282,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2350,7 +2445,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2513,7 +2608,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2676,7 +2771,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2822,12 +2917,6 @@
       <c r="M3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>395</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2845,7 +2934,71 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -2854,41 +3007,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2898,7 +3134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -3143,7 +3379,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3782,7 +4018,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -7076,7 +7312,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13184,7 +13420,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -13289,7 +13525,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -13834,7 +14070,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -15937,7 +16173,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -27,25 +27,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
-PINNED BY USER
--45hard total
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -54,10 +35,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -73,10 +53,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -92,10 +71,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -111,10 +89,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -130,11 +107,9 @@
   <commentList>
     <comment ref="B3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
-    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -150,11 +125,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
-    -45hard for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -168,12 +141,19 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
+</t>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="0">
+      <text>
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
+PINNED BY USER
 </t>
       </text>
     </comment>
@@ -189,10 +169,9 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S35-IoT: Using secure Tensorflow
-    Beth Fox
+        <t xml:space="preserve">S54-Culture: Troubleshooting reliable Tensorflow
+    Jay Fox, Amy Jones
 PINNED BY USER
--45hard total
 </t>
       </text>
     </comment>
@@ -201,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="454">
   <si>
     <t>Conference name</t>
   </si>
@@ -692,9 +671,6 @@
     <t>Amy Jones</t>
   </si>
   <si>
-    <t>Large</t>
-  </si>
-  <si>
     <t>Beth King</t>
   </si>
   <si>
@@ -815,588 +791,603 @@
     <t>Hands on real-time OpenShift</t>
   </si>
   <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Business analysts</t>
+  </si>
+  <si>
+    <t>OpenShift, Kubernetes</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>Advanced containerized WildFly</t>
+  </si>
+  <si>
+    <t>Beth Fox, Chad Green</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Programmers</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>Learn virtualized Spring</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>Intro to serverless Drools</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Managers</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>Discover AI-driven OptaPlanner</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Mobile</t>
+  </si>
+  <si>
+    <t>OptaPlanner</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>Mastering machine learning jBPM</t>
+  </si>
+  <si>
+    <t>Modern Web</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Camel</t>
+  </si>
+  <si>
+    <t>Hugo Rye, Ivy Smith</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>Building deep learning XStream</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>XStream</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>Securing scalable Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>Debug enterprise Hibernate</t>
+  </si>
+  <si>
+    <t>Beth Green, Chad Jones</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Prepare for streaming GWT</t>
+  </si>
+  <si>
+    <t>Dan King, Elsa Li</t>
+  </si>
+  <si>
+    <t>GWT</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Understand mobile Errai</t>
+  </si>
+  <si>
+    <t>Flo Poe, Gus Rye</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Errai</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Applying modern Angular</t>
+  </si>
+  <si>
+    <t>Hugo Smith, Ivy Watt</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>Grok distributed Weld</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Weld</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable RestEasy</t>
+  </si>
+  <si>
+    <t>Amy Green, Beth Jones</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>RestEasy</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Using secure Android</t>
+  </si>
+  <si>
+    <t>Chad King, Dan Li</t>
+  </si>
+  <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>Business analysts</t>
-  </si>
-  <si>
-    <t>OpenShift, Kubernetes</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>Advanced containerized WildFly</t>
-  </si>
-  <si>
-    <t>Beth Fox, Chad Green</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>WildFly</t>
-  </si>
-  <si>
-    <t>S02</t>
-  </si>
-  <si>
-    <t>Learn virtualized Spring</t>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>Deliver stable Tensorflow</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>Implement platform-independent VertX</t>
+  </si>
+  <si>
+    <t>IoT, Big Data</t>
+  </si>
+  <si>
+    <t>VertX</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>Program flexible JUnit</t>
+  </si>
+  <si>
+    <t>JUnit</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>Hack modularized Keycloak</t>
+  </si>
+  <si>
+    <t>Keycloak</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>Hands on real-time WildFly</t>
+  </si>
+  <si>
+    <t>Ivy Cole, Jay Fox</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Advanced containerized Spring</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Cloud</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>Learn virtualized Drools</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Intro to serverless OptaPlanner</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Discover AI-driven jBPM</t>
+  </si>
+  <si>
+    <t>Dan Poe, Elsa Rye, Flo Smith, Gus Watt</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Mastering machine learning Camel</t>
+  </si>
+  <si>
+    <t>Security, Middleware</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven XStream</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Building deep learning Docker</t>
+  </si>
+  <si>
+    <t>Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>Securing scalable Hibernate</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>Debug enterprise GWT</t>
+  </si>
+  <si>
+    <t>Beth Li, Chad Poe</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Errai</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>Understand mobile Angular</t>
+  </si>
+  <si>
+    <t>Elsa Smith, Flo Watt</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>Applying modern Weld</t>
+  </si>
+  <si>
+    <t>Gus Cole, Hugo Fox</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>Grok distributed RestEasy</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Android</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>Using secure Tensorflow</t>
+  </si>
+  <si>
+    <t>Chad Green, Dan Jones</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>Deliver stable VertX</t>
+  </si>
+  <si>
+    <t>Elsa King, Flo Li</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>Implement platform-independent JUnit</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>Program flexible Keycloak</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>Hack modularized OpenShift</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>Hands on real-time Spring</t>
+  </si>
+  <si>
+    <t>Jay Watt, Amy Fox</t>
   </si>
   <si>
     <t>Security</t>
   </si>
   <si>
-    <t>Programmers</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
-    <t>Intro to serverless Drools</t>
-  </si>
-  <si>
-    <t>Drools</t>
-  </si>
-  <si>
-    <t>S04</t>
-  </si>
-  <si>
-    <t>Discover AI-driven OptaPlanner</t>
-  </si>
-  <si>
-    <t>Flo Li, Gus Poe</t>
-  </si>
-  <si>
-    <t>Big Data</t>
-  </si>
-  <si>
-    <t>Managers</t>
-  </si>
-  <si>
-    <t>OptaPlanner</t>
-  </si>
-  <si>
-    <t>S05</t>
-  </si>
-  <si>
-    <t>Mastering machine learning jBPM</t>
-  </si>
-  <si>
-    <t>Hugo Rye, Ivy Smith, Jay Watt</t>
-  </si>
-  <si>
-    <t>Modern Web</t>
-  </si>
-  <si>
-    <t>jBPM</t>
-  </si>
-  <si>
-    <t>S06</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Camel</t>
-  </si>
-  <si>
-    <t>Amy Fox, Beth Green</t>
-  </si>
-  <si>
-    <t>Middleware</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>S07</t>
-  </si>
-  <si>
-    <t>Building deep learning XStream</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>XStream</t>
-  </si>
-  <si>
-    <t>S08</t>
-  </si>
-  <si>
-    <t>Securing scalable Docker</t>
-  </si>
-  <si>
-    <t>Culture, Security</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>S09</t>
-  </si>
-  <si>
-    <t>Debug enterprise Hibernate</t>
-  </si>
-  <si>
-    <t>Elsa Li, Flo Poe</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Culture</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>Prepare for streaming GWT</t>
-  </si>
-  <si>
-    <t>Gus Rye, Hugo Smith</t>
-  </si>
-  <si>
-    <t>GWT</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>Understand mobile Errai</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Errai</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>Applying modern Angular</t>
-  </si>
-  <si>
-    <t>Jay Cole, Amy Green</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>Grok distributed Weld</t>
-  </si>
-  <si>
-    <t>Beth Jones, Chad King</t>
-  </si>
-  <si>
-    <t>Weld</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable RestEasy</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>RestEasy</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>Using secure Android</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>Deliver stable Tensorflow</t>
-  </si>
-  <si>
-    <t>Flo Rye, Gus Smith</t>
-  </si>
-  <si>
-    <t>Security, Mobile</t>
-  </si>
-  <si>
-    <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>Implement platform-independent VertX</t>
-  </si>
-  <si>
-    <t>VertX</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>Program flexible JUnit</t>
-  </si>
-  <si>
-    <t>JUnit</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>Hack modularized Keycloak</t>
-  </si>
-  <si>
-    <t>IoT</t>
-  </si>
-  <si>
-    <t>Keycloak</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>Hands on real-time WildFly</t>
-  </si>
-  <si>
-    <t>Amy Jones, Beth King</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Advanced containerized Spring</t>
-  </si>
-  <si>
-    <t>Chad Li, Dan Poe</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>Learn virtualized Drools</t>
-  </si>
-  <si>
-    <t>Elsa Rye, Flo Smith</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>Intro to serverless OptaPlanner</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>Discover AI-driven jBPM</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Mastering machine learning Camel</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven XStream</t>
-  </si>
-  <si>
-    <t>Middleware, Culture</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>Building deep learning Docker</t>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>Advanced containerized Drools</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>Learn virtualized OptaPlanner</t>
+  </si>
+  <si>
+    <t>Modern Web, IoT</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>Intro to serverless jBPM</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>Discover AI-driven Camel</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Mastering machine learning XStream</t>
+  </si>
+  <si>
+    <t>Culture, Mobile</t>
+  </si>
+  <si>
+    <t>S46</t>
+  </si>
+  <si>
+    <t>Tuning IOT-driven Docker</t>
+  </si>
+  <si>
+    <t>Ivy Watt, Jay Cole</t>
+  </si>
+  <si>
+    <t>Modern Web, Security</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>Building deep learning Hibernate</t>
+  </si>
+  <si>
+    <t>Security, IoT</t>
+  </si>
+  <si>
+    <t>S48</t>
+  </si>
+  <si>
+    <t>Securing scalable GWT</t>
+  </si>
+  <si>
+    <t>S49</t>
+  </si>
+  <si>
+    <t>Debug enterprise Errai</t>
+  </si>
+  <si>
+    <t>S50</t>
+  </si>
+  <si>
+    <t>Prepare for streaming Angular</t>
+  </si>
+  <si>
+    <t>Elsa Poe, Flo Rye</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>Understand mobile Weld</t>
+  </si>
+  <si>
+    <t>Financial services</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>Applying modern RestEasy</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>Grok distributed Android</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Security</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>Troubleshooting reliable Tensorflow</t>
+  </si>
+  <si>
+    <t>Jay Fox, Amy Jones</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>Using secure VertX</t>
+  </si>
+  <si>
+    <t>Beth King, Chad Li</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>Deliver stable JUnit</t>
+  </si>
+  <si>
+    <t>Dan Poe, Elsa Rye</t>
+  </si>
+  <si>
+    <t>S57</t>
+  </si>
+  <si>
+    <t>Implement platform-independent Keycloak</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>Program flexible OpenShift</t>
+  </si>
+  <si>
+    <t>S59</t>
+  </si>
+  <si>
+    <t>Hack modularized WildFly</t>
+  </si>
+  <si>
+    <t>Hugo Cole, Ivy Fox</t>
+  </si>
+  <si>
+    <t>S60</t>
+  </si>
+  <si>
+    <t>Hands on real-time Drools</t>
+  </si>
+  <si>
+    <t>IoT, Mobile</t>
+  </si>
+  <si>
+    <t>S61</t>
+  </si>
+  <si>
+    <t>Advanced containerized OptaPlanner</t>
   </si>
   <si>
     <t>Amy King, Beth Li</t>
   </si>
   <si>
-    <t>Docker, Kubernetes</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>Securing scalable Hibernate</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>Debug enterprise GWT</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Errai</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>Understand mobile Angular</t>
-  </si>
-  <si>
-    <t>Mobile, Culture</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>Applying modern Weld</t>
-  </si>
-  <si>
-    <t>Modern Web, Middleware</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>Grok distributed RestEasy</t>
-  </si>
-  <si>
-    <t>Modern Web, Cloud</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Android</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
-    <t>Using secure Tensorflow</t>
-  </si>
-  <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>Deliver stable VertX</t>
-  </si>
-  <si>
-    <t>Cloud, Middleware</t>
-  </si>
-  <si>
-    <t>S37</t>
-  </si>
-  <si>
-    <t>Implement platform-independent JUnit</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>S38</t>
-  </si>
-  <si>
-    <t>Program flexible Keycloak</t>
-  </si>
-  <si>
-    <t>S39</t>
-  </si>
-  <si>
-    <t>Hack modularized OpenShift</t>
-  </si>
-  <si>
-    <t>OpenShift</t>
-  </si>
-  <si>
-    <t>S40</t>
-  </si>
-  <si>
-    <t>Hands on real-time Spring</t>
-  </si>
-  <si>
-    <t>S41</t>
-  </si>
-  <si>
-    <t>Advanced containerized Drools</t>
-  </si>
-  <si>
-    <t>S42</t>
-  </si>
-  <si>
-    <t>Learn virtualized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Jay Watt, Amy Fox</t>
-  </si>
-  <si>
-    <t>S43</t>
-  </si>
-  <si>
-    <t>Intro to serverless jBPM</t>
-  </si>
-  <si>
-    <t>S44</t>
-  </si>
-  <si>
-    <t>Discover AI-driven Camel</t>
-  </si>
-  <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>Mastering machine learning XStream</t>
-  </si>
-  <si>
-    <t>S46</t>
-  </si>
-  <si>
-    <t>Tuning IOT-driven Docker</t>
-  </si>
-  <si>
-    <t>S47</t>
-  </si>
-  <si>
-    <t>Building deep learning Hibernate</t>
-  </si>
-  <si>
-    <t>S48</t>
-  </si>
-  <si>
-    <t>Securing scalable GWT</t>
-  </si>
-  <si>
-    <t>S49</t>
-  </si>
-  <si>
-    <t>Debug enterprise Errai</t>
-  </si>
-  <si>
-    <t>IoT, Mobile</t>
-  </si>
-  <si>
-    <t>S50</t>
-  </si>
-  <si>
-    <t>Prepare for streaming Angular</t>
-  </si>
-  <si>
-    <t>S51</t>
-  </si>
-  <si>
-    <t>Understand mobile Weld</t>
-  </si>
-  <si>
-    <t>S52</t>
-  </si>
-  <si>
-    <t>Applying modern RestEasy</t>
-  </si>
-  <si>
-    <t>S53</t>
-  </si>
-  <si>
-    <t>Grok distributed Android</t>
-  </si>
-  <si>
-    <t>S54</t>
-  </si>
-  <si>
-    <t>Troubleshooting reliable Tensorflow</t>
-  </si>
-  <si>
-    <t>Elsa Poe, Flo Rye</t>
-  </si>
-  <si>
-    <t>S55</t>
-  </si>
-  <si>
-    <t>Using secure VertX</t>
-  </si>
-  <si>
-    <t>S56</t>
-  </si>
-  <si>
-    <t>Deliver stable JUnit</t>
-  </si>
-  <si>
-    <t>Security, Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>S57</t>
-  </si>
-  <si>
-    <t>Implement platform-independent Keycloak</t>
-  </si>
-  <si>
-    <t>Ivy Cole, Jay Fox</t>
-  </si>
-  <si>
-    <t>S58</t>
-  </si>
-  <si>
-    <t>Program flexible OpenShift</t>
-  </si>
-  <si>
-    <t>Amy Jones, Beth King, Chad Li</t>
-  </si>
-  <si>
-    <t>S59</t>
-  </si>
-  <si>
-    <t>Hack modularized WildFly</t>
-  </si>
-  <si>
-    <t>S60</t>
-  </si>
-  <si>
-    <t>Hands on real-time Drools</t>
-  </si>
-  <si>
-    <t>S61</t>
-  </si>
-  <si>
-    <t>Advanced containerized OptaPlanner</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Mobile</t>
-  </si>
-  <si>
     <t>S62</t>
   </si>
   <si>
     <t>Learn virtualized jBPM</t>
   </si>
   <si>
-    <t>Gus Watt, Hugo Cole</t>
-  </si>
-  <si>
     <t>S63</t>
   </si>
   <si>
     <t>Intro to serverless Camel</t>
   </si>
   <si>
-    <t>Big Data, Middleware</t>
-  </si>
-  <si>
     <t>S64</t>
   </si>
   <si>
@@ -1421,7 +1412,7 @@
     <t>Building deep learning GWT</t>
   </si>
   <si>
-    <t>Chad Poe, Dan Rye</t>
+    <t>Amy Cole, Beth Fox</t>
   </si>
   <si>
     <t>S68</t>
@@ -1430,6 +1421,9 @@
     <t>Securing scalable Errai</t>
   </si>
   <si>
+    <t>Chad Green, Dan Jones, Elsa King, Flo Li</t>
+  </si>
+  <si>
     <t>S69</t>
   </si>
   <si>
@@ -1451,7 +1445,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-142init/-45hard</t>
+    <t>-142init</t>
   </si>
   <si>
     <t>Count</t>
@@ -1469,14 +1463,14 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S35: Using secure Tensorflow
-  Beth Fox</t>
+    <t>S54: Troubleshooting reliable Tensorflow
+  Jay Fox, Amy Jones</t>
   </si>
   <si>
     <t>Speaker</t>
   </si>
   <si>
-    <t>S35 @ R 1</t>
+    <t>S54 @ R 1</t>
   </si>
   <si>
     <t>Theme track tag</t>
@@ -1494,7 +1488,7 @@
     <t>Content tag</t>
   </si>
   <si>
-    <t>S35 (level 3)</t>
+    <t>S54 (level 3)</t>
   </si>
   <si>
     <t>Constraint name</t>
@@ -1533,9 +1527,6 @@
     <t>1hard</t>
   </si>
   <si>
-    <t>-45hard</t>
-  </si>
-  <si>
     <t>1medium</t>
   </si>
   <si>
@@ -1551,8 +1542,8 @@
     <t>1soft</t>
   </si>
   <si>
-    <t>Using secure Tensorflow
-Beth Fox</t>
+    <t>Troubleshooting reliable Tensorflow
+Jay Fox, Amy Jones</t>
   </si>
 </sst>
 </file>
@@ -2273,7 +2264,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -2282,7 +2273,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
@@ -2340,7 +2331,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2377,47 +2368,6 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="3" ht="15.0" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2377,6 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2503,7 +2452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2544,13 +2493,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2666,7 +2615,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2707,13 +2656,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2829,7 +2778,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -2870,13 +2819,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2992,7 +2941,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -3033,13 +2982,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3088,7 +3037,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -3100,7 +3049,7 @@
     <col min="1" max="1" width="35.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.34375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.0703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="1.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="12.9296875" customWidth="true" bestFit="true"/>
@@ -3108,39 +3057,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3153,13 +3102,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6">
@@ -3167,13 +3116,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7">
@@ -3181,13 +3130,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8">
@@ -3195,13 +3144,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9">
@@ -3209,13 +3158,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
@@ -3223,13 +3172,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
@@ -3237,10 +3186,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>443</v>
@@ -3251,13 +3200,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13">
@@ -3265,13 +3214,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
@@ -3279,13 +3228,13 @@
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15">
@@ -3293,13 +3242,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
@@ -3307,13 +3256,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17">
@@ -3321,13 +3270,13 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18">
@@ -3335,13 +3284,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19">
@@ -3349,13 +3298,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20">
@@ -3363,13 +3312,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21">
@@ -3377,13 +3326,13 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
@@ -3391,13 +3340,13 @@
         <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23">
@@ -3405,13 +3354,13 @@
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24">
@@ -3419,13 +3368,13 @@
         <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25">
@@ -3433,13 +3382,13 @@
         <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26">
@@ -3447,13 +3396,13 @@
         <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27">
@@ -3461,13 +3410,13 @@
         <v>82</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28">
@@ -3475,13 +3424,13 @@
         <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29">
@@ -3489,13 +3438,13 @@
         <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30">
@@ -3503,13 +3452,13 @@
         <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31">
@@ -3517,13 +3466,13 @@
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32">
@@ -3531,13 +3480,13 @@
         <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33">
@@ -3545,13 +3494,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34">
@@ -3559,13 +3508,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35">
@@ -3573,13 +3522,13 @@
         <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36">
@@ -3587,13 +3536,13 @@
         <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37">
@@ -3601,13 +3550,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38">
@@ -3615,13 +3564,13 @@
         <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39">
@@ -3629,13 +3578,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40">
@@ -3643,13 +3592,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41">
@@ -3657,103 +3606,104 @@
         <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42"/>
     <row r="43"/>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>447</v>
@@ -3762,68 +3712,68 @@
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>444</v>
@@ -3832,236 +3782,236 @@
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>446</v>
@@ -4070,133 +4020,119 @@
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4243,8 +4179,8 @@
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>449</v>
+      <c r="B3" s="19" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4" ht="45.0" customHeight="true">
@@ -6466,7 +6402,7 @@
       <c r="K19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -6475,13 +6411,13 @@
       <c r="N19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="O19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R19" s="2" t="s">
@@ -6528,7 +6464,7 @@
       <c r="J20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>93</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -6868,22 +6804,22 @@
       <c r="O25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U25" s="2" t="s">
+      <c r="P25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7164,7 +7100,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>93</v>
@@ -7232,7 +7168,7 @@
         <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>93</v>
@@ -7359,7 +7295,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>93</v>
@@ -7409,7 +7345,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>93</v>
@@ -7435,7 +7371,7 @@
       <c r="I34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="2" t="s">
         <v>93</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -7474,7 +7410,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>93</v>
@@ -7539,7 +7475,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>93</v>
@@ -7604,7 +7540,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>93</v>
@@ -7669,7 +7605,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>93</v>
@@ -7734,7 +7670,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>93</v>
@@ -7799,7 +7735,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -7864,7 +7800,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -7890,13 +7826,13 @@
       <c r="I41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L41" s="2" t="s">
+      <c r="J41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -7908,13 +7844,13 @@
       <c r="O41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R41" s="2" t="s">
+      <c r="P41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S41" s="2" t="s">
@@ -7929,7 +7865,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>93</v>
@@ -7994,7 +7930,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>93</v>
@@ -8029,13 +7965,13 @@
       <c r="L43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O43" s="5" t="s">
+      <c r="M43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -8047,19 +7983,19 @@
       <c r="R43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U43" s="5" t="s">
+      <c r="S43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U43" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>93</v>
@@ -8124,7 +8060,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
@@ -8142,7 +8078,7 @@
         <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>93</v>
@@ -8189,7 +8125,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>93</v>
@@ -8207,7 +8143,7 @@
         <v>93</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>93</v>
@@ -8254,7 +8190,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>93</v>
@@ -8319,7 +8255,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>93</v>
@@ -8354,13 +8290,13 @@
       <c r="L48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O48" s="5" t="s">
+      <c r="M48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P48" s="2" t="s">
@@ -8372,19 +8308,19 @@
       <c r="R48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="U48" s="5" t="s">
+      <c r="S48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U48" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>93</v>
@@ -8449,7 +8385,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -8536,7 +8472,7 @@
     <col min="1" max="1" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.41796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="36.17578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.59375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="19.625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.4453125" customWidth="true" bestFit="true"/>
@@ -8568,34 +8504,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>124</v>
@@ -8622,22 +8558,22 @@
         <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>85</v>
@@ -8646,27 +8582,27 @@
         <v>86</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>92</v>
@@ -8675,23 +8611,23 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>93</v>
       </c>
@@ -8723,10 +8659,10 @@
         <v>93</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>915.0</v>
+        <v>435.0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="2" t="b">
         <v>0</v>
@@ -8758,35 +8694,35 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>93</v>
       </c>
@@ -8818,10 +8754,10 @@
         <v>93</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>790.0</v>
+        <v>322.0</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="2" t="b">
         <v>0</v>
@@ -8853,10 +8789,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
@@ -8865,22 +8801,22 @@
         <v>135</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>93</v>
@@ -8913,10 +8849,10 @@
         <v>93</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>540.0</v>
+        <v>558.0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="2" t="b">
         <v>0</v>
@@ -8948,10 +8884,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
@@ -8960,13 +8896,13 @@
         <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>2.0</v>
@@ -8975,7 +8911,7 @@
         <v>221</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>93</v>
@@ -9008,10 +8944,10 @@
         <v>93</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>240.0</v>
+        <v>119.0</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>0</v>
@@ -9052,25 +8988,25 @@
         <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>93</v>
@@ -9103,10 +9039,10 @@
         <v>93</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>522.0</v>
+        <v>838.0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6" s="2" t="b">
         <v>0</v>
@@ -9138,34 +9074,34 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>93</v>
@@ -9198,10 +9134,10 @@
         <v>93</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>349.0</v>
+        <v>734.0</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="2" t="b">
         <v>0</v>
@@ -9233,34 +9169,34 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>93</v>
@@ -9293,10 +9229,10 @@
         <v>93</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>217.0</v>
+        <v>946.0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="2" t="b">
         <v>0</v>
@@ -9328,34 +9264,34 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -9388,10 +9324,10 @@
         <v>93</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>630.0</v>
+        <v>685.0</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" s="2" t="b">
         <v>0</v>
@@ -9423,34 +9359,34 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>93</v>
@@ -9483,10 +9419,10 @@
         <v>93</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>295.0</v>
+        <v>236.0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" s="2" t="b">
         <v>0</v>
@@ -9518,34 +9454,34 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>93</v>
@@ -9578,10 +9514,10 @@
         <v>93</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>711.0</v>
+        <v>539.0</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11" s="2" t="b">
         <v>0</v>
@@ -9613,34 +9549,34 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -9673,10 +9609,10 @@
         <v>93</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>534.0</v>
+        <v>313.0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12" s="2" t="b">
         <v>0</v>
@@ -9708,34 +9644,34 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>93</v>
@@ -9768,10 +9704,10 @@
         <v>93</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>529.0</v>
+        <v>740.0</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W13" s="2" t="b">
         <v>0</v>
@@ -9803,35 +9739,35 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K14" s="2" t="s">
         <v>93</v>
       </c>
@@ -9863,7 +9799,7 @@
         <v>93</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>194.0</v>
+        <v>282.0</v>
       </c>
       <c r="V14" s="2" t="n">
         <v>0.0</v>
@@ -9898,35 +9834,35 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K15" s="2" t="s">
         <v>93</v>
       </c>
@@ -9958,7 +9894,7 @@
         <v>93</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>653.0</v>
+        <v>898.0</v>
       </c>
       <c r="V15" s="2" t="n">
         <v>0.0</v>
@@ -9993,34 +9929,34 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>93</v>
@@ -10053,10 +9989,10 @@
         <v>93</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>682.0</v>
+        <v>243.0</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="2" t="b">
         <v>0</v>
@@ -10088,34 +10024,34 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>93</v>
@@ -10148,10 +10084,10 @@
         <v>93</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>610.0</v>
+        <v>718.0</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" s="2" t="b">
         <v>0</v>
@@ -10183,34 +10119,34 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>93</v>
@@ -10243,7 +10179,7 @@
         <v>93</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>88.0</v>
+        <v>348.0</v>
       </c>
       <c r="V18" s="2" t="n">
         <v>0.0</v>
@@ -10278,34 +10214,34 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>93</v>
@@ -10338,7 +10274,7 @@
         <v>93</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>935.0</v>
+        <v>299.0</v>
       </c>
       <c r="V19" s="2" t="n">
         <v>0.0</v>
@@ -10373,34 +10309,34 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>93</v>
@@ -10433,7 +10369,7 @@
         <v>93</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>309.0</v>
+        <v>444.0</v>
       </c>
       <c r="V20" s="2" t="n">
         <v>0.0</v>
@@ -10468,34 +10404,34 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>93</v>
@@ -10528,10 +10464,10 @@
         <v>93</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>736.0</v>
+        <v>813.0</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W21" s="2" t="b">
         <v>0</v>
@@ -10563,34 +10499,34 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>93</v>
@@ -10623,7 +10559,7 @@
         <v>93</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>946.0</v>
+        <v>536.0</v>
       </c>
       <c r="V22" s="2" t="n">
         <v>0.0</v>
@@ -10658,34 +10594,34 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>93</v>
@@ -10718,7 +10654,7 @@
         <v>93</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>726.0</v>
+        <v>453.0</v>
       </c>
       <c r="V23" s="2" t="n">
         <v>0.0</v>
@@ -10753,34 +10689,34 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>93</v>
@@ -10813,7 +10749,7 @@
         <v>93</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>435.0</v>
+        <v>881.0</v>
       </c>
       <c r="V24" s="2" t="n">
         <v>0.0</v>
@@ -10848,35 +10784,35 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K25" s="2" t="s">
         <v>93</v>
       </c>
@@ -10908,10 +10844,10 @@
         <v>93</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>87.0</v>
+        <v>75.0</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W25" s="2" t="b">
         <v>0</v>
@@ -10943,34 +10879,34 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>93</v>
@@ -11003,7 +10939,7 @@
         <v>93</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>968.0</v>
+        <v>198.0</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>0.0</v>
@@ -11038,34 +10974,34 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>93</v>
@@ -11098,10 +11034,10 @@
         <v>93</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>141.0</v>
+        <v>713.0</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W27" s="2" t="b">
         <v>0</v>
@@ -11133,34 +11069,34 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>93</v>
@@ -11193,7 +11129,7 @@
         <v>93</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>268.0</v>
+        <v>615.0</v>
       </c>
       <c r="V28" s="2" t="n">
         <v>0.0</v>
@@ -11228,34 +11164,34 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>93</v>
@@ -11288,10 +11224,10 @@
         <v>93</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>820.0</v>
+        <v>333.0</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W29" s="2" t="b">
         <v>0</v>
@@ -11323,34 +11259,34 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>93</v>
@@ -11383,10 +11319,10 @@
         <v>93</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>258.0</v>
+        <v>480.0</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W30" s="2" t="b">
         <v>0</v>
@@ -11418,34 +11354,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>93</v>
@@ -11478,10 +11414,10 @@
         <v>93</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>312.0</v>
+        <v>726.0</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W31" s="2" t="b">
         <v>0</v>
@@ -11513,34 +11449,34 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>93</v>
@@ -11573,10 +11509,10 @@
         <v>93</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>774.0</v>
+        <v>868.0</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W32" s="2" t="b">
         <v>0</v>
@@ -11608,35 +11544,35 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>178</v>
+        <v>317</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K33" s="2" t="s">
         <v>93</v>
       </c>
@@ -11668,10 +11604,10 @@
         <v>93</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>161.0</v>
+        <v>679.0</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W33" s="2" t="b">
         <v>0</v>
@@ -11703,34 +11639,34 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>93</v>
@@ -11763,7 +11699,7 @@
         <v>93</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>377.0</v>
+        <v>655.0</v>
       </c>
       <c r="V34" s="2" t="n">
         <v>0.0</v>
@@ -11798,35 +11734,35 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K35" s="2" t="s">
         <v>93</v>
       </c>
@@ -11858,10 +11794,10 @@
         <v>93</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>208.0</v>
+        <v>735.0</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W35" s="2" t="b">
         <v>0</v>
@@ -11893,34 +11829,34 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>93</v>
@@ -11953,10 +11889,10 @@
         <v>93</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>156.0</v>
+        <v>191.0</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W36" s="2" t="b">
         <v>0</v>
@@ -11988,35 +11924,35 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K37" s="2" t="s">
         <v>93</v>
       </c>
@@ -12048,25 +11984,25 @@
         <v>93</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>617.0</v>
+        <v>266.0</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W37" s="6" t="b">
-        <v>1</v>
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>93</v>
@@ -12083,34 +12019,34 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>93</v>
@@ -12143,7 +12079,7 @@
         <v>93</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>572.0</v>
+        <v>460.0</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>0.0</v>
@@ -12178,35 +12114,35 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K39" s="2" t="s">
         <v>93</v>
       </c>
@@ -12238,10 +12174,10 @@
         <v>93</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>618.0</v>
+        <v>926.0</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W39" s="2" t="b">
         <v>0</v>
@@ -12273,35 +12209,35 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K40" s="2" t="s">
         <v>93</v>
       </c>
@@ -12333,10 +12269,10 @@
         <v>93</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>642.0</v>
+        <v>193.0</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W40" s="2" t="b">
         <v>0</v>
@@ -12368,34 +12304,34 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>93</v>
@@ -12428,10 +12364,10 @@
         <v>93</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>158.0</v>
+        <v>454.0</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W41" s="2" t="b">
         <v>0</v>
@@ -12463,34 +12399,34 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>93</v>
@@ -12523,10 +12459,10 @@
         <v>93</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>493.0</v>
+        <v>291.0</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W42" s="2" t="b">
         <v>0</v>
@@ -12558,34 +12494,34 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>93</v>
@@ -12618,10 +12554,10 @@
         <v>93</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>569.0</v>
+        <v>272.0</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W43" s="2" t="b">
         <v>0</v>
@@ -12653,35 +12589,35 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K44" s="2" t="s">
         <v>93</v>
       </c>
@@ -12713,10 +12649,10 @@
         <v>93</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>718.0</v>
+        <v>964.0</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W44" s="2" t="b">
         <v>0</v>
@@ -12748,35 +12684,35 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K45" s="2" t="s">
         <v>93</v>
       </c>
@@ -12808,7 +12744,7 @@
         <v>93</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>995.0</v>
+        <v>530.0</v>
       </c>
       <c r="V45" s="2" t="n">
         <v>0.0</v>
@@ -12843,34 +12779,34 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>93</v>
@@ -12903,7 +12839,7 @@
         <v>93</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>327.0</v>
+        <v>228.0</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>0.0</v>
@@ -12938,34 +12874,34 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>93</v>
@@ -12998,10 +12934,10 @@
         <v>93</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>588.0</v>
+        <v>318.0</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W47" s="2" t="b">
         <v>0</v>
@@ -13042,25 +12978,25 @@
         <v>95</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>93</v>
@@ -13093,10 +13029,10 @@
         <v>93</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>277.0</v>
+        <v>454.0</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W48" s="2" t="b">
         <v>0</v>
@@ -13128,35 +13064,35 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K49" s="2" t="s">
         <v>93</v>
       </c>
@@ -13188,10 +13124,10 @@
         <v>93</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>928.0</v>
+        <v>903.0</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W49" s="2" t="b">
         <v>0</v>
@@ -13223,34 +13159,34 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>93</v>
@@ -13283,10 +13219,10 @@
         <v>93</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>659.0</v>
+        <v>837.0</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W50" s="2" t="b">
         <v>0</v>
@@ -13318,34 +13254,34 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>93</v>
@@ -13378,10 +13314,10 @@
         <v>93</v>
       </c>
       <c r="U51" s="2" t="n">
-        <v>402.0</v>
+        <v>571.0</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W51" s="2" t="b">
         <v>0</v>
@@ -13413,35 +13349,35 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H52" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K52" s="2" t="s">
         <v>93</v>
       </c>
@@ -13473,10 +13409,10 @@
         <v>93</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>648.0</v>
+        <v>113.0</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W52" s="2" t="b">
         <v>0</v>
@@ -13508,34 +13444,34 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="H53" s="2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>93</v>
@@ -13568,10 +13504,10 @@
         <v>93</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>900.0</v>
+        <v>989.0</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W53" s="2" t="b">
         <v>0</v>
@@ -13603,34 +13539,34 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>93</v>
@@ -13663,10 +13599,10 @@
         <v>93</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>283.0</v>
+        <v>853.0</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W54" s="2" t="b">
         <v>0</v>
@@ -13698,35 +13634,35 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K55" s="2" t="s">
         <v>93</v>
       </c>
@@ -13758,10 +13694,10 @@
         <v>93</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>514.0</v>
+        <v>884.0</v>
       </c>
       <c r="V55" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W55" s="2" t="b">
         <v>0</v>
@@ -13793,34 +13729,34 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>93</v>
@@ -13853,25 +13789,25 @@
         <v>93</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>601.0</v>
+        <v>938.0</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W56" s="2" t="b">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>93</v>
@@ -13888,34 +13824,34 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>381</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>93</v>
@@ -13948,10 +13884,10 @@
         <v>93</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>307.0</v>
+        <v>991.0</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W57" s="2" t="b">
         <v>0</v>
@@ -13983,34 +13919,34 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>93</v>
@@ -14043,10 +13979,10 @@
         <v>93</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>525.0</v>
+        <v>530.0</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W58" s="2" t="b">
         <v>0</v>
@@ -14078,34 +14014,34 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>93</v>
@@ -14138,7 +14074,7 @@
         <v>93</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>968.0</v>
+        <v>364.0</v>
       </c>
       <c r="V59" s="2" t="n">
         <v>0.0</v>
@@ -14173,35 +14109,35 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="K60" s="2" t="s">
         <v>93</v>
       </c>
@@ -14233,10 +14169,10 @@
         <v>93</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>356.0</v>
+        <v>768.0</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W60" s="2" t="b">
         <v>0</v>
@@ -14268,34 +14204,34 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>391</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>93</v>
@@ -14328,10 +14264,10 @@
         <v>93</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>125.0</v>
+        <v>877.0</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W61" s="2" t="b">
         <v>0</v>
@@ -14363,34 +14299,34 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>244</v>
+        <v>394</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>221</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>93</v>
@@ -14423,7 +14359,7 @@
         <v>93</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>404.0</v>
+        <v>402.0</v>
       </c>
       <c r="V62" s="2" t="n">
         <v>0.0</v>
@@ -14458,34 +14394,34 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>391</v>
+        <v>237</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>93</v>
@@ -14518,10 +14454,10 @@
         <v>93</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>125.0</v>
+        <v>703.0</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W63" s="2" t="b">
         <v>0</v>
@@ -14553,34 +14489,34 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>93</v>
@@ -14613,10 +14549,10 @@
         <v>93</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>591.0</v>
+        <v>150.0</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W64" s="2" t="b">
         <v>0</v>
@@ -14648,34 +14584,34 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>93</v>
@@ -14711,7 +14647,7 @@
         <v>778.0</v>
       </c>
       <c r="V65" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W65" s="2" t="b">
         <v>0</v>
@@ -14743,34 +14679,34 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>93</v>
@@ -14803,10 +14739,10 @@
         <v>93</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>310.0</v>
+        <v>362.0</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W66" s="2" t="b">
         <v>0</v>
@@ -14838,34 +14774,34 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>93</v>
@@ -14898,10 +14834,10 @@
         <v>93</v>
       </c>
       <c r="U67" s="2" t="n">
-        <v>658.0</v>
+        <v>194.0</v>
       </c>
       <c r="V67" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W67" s="2" t="b">
         <v>0</v>
@@ -14933,34 +14869,34 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>93</v>
@@ -14993,10 +14929,10 @@
         <v>93</v>
       </c>
       <c r="U68" s="2" t="n">
-        <v>564.0</v>
+        <v>251.0</v>
       </c>
       <c r="V68" s="2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="W68" s="2" t="b">
         <v>0</v>
@@ -15028,34 +14964,34 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>93</v>
@@ -15088,7 +15024,7 @@
         <v>93</v>
       </c>
       <c r="U69" s="2" t="n">
-        <v>357.0</v>
+        <v>759.0</v>
       </c>
       <c r="V69" s="2" t="n">
         <v>0.0</v>
@@ -15123,34 +15059,34 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>93</v>
@@ -15183,10 +15119,10 @@
         <v>93</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>97.0</v>
+        <v>239.0</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="W70" s="2" t="b">
         <v>0</v>
@@ -15218,34 +15154,34 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>93</v>
@@ -15278,10 +15214,10 @@
         <v>93</v>
       </c>
       <c r="U71" s="2" t="n">
-        <v>626.0</v>
+        <v>310.0</v>
       </c>
       <c r="V71" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W71" s="2" t="b">
         <v>0</v>
@@ -15313,34 +15249,34 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>93</v>
@@ -15373,10 +15309,10 @@
         <v>93</v>
       </c>
       <c r="U72" s="2" t="n">
-        <v>231.0</v>
+        <v>621.0</v>
       </c>
       <c r="V72" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W72" s="2" t="b">
         <v>0</v>
@@ -15408,34 +15344,34 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>93</v>
@@ -15468,10 +15404,10 @@
         <v>93</v>
       </c>
       <c r="U73" s="2" t="n">
-        <v>548.0</v>
+        <v>125.0</v>
       </c>
       <c r="V73" s="2" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="W73" s="2" t="b">
         <v>0</v>
@@ -15522,7 +15458,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="9.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.95703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.22265625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.59375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.30078125" customWidth="true" bestFit="true"/>
@@ -15530,28 +15466,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
@@ -15591,7 +15527,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>72.0</v>
@@ -15697,7 +15633,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -15744,7 +15680,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -16242,7 +16178,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -16329,8 +16265,8 @@
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>424</v>
+      <c r="C4" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>93</v>
@@ -16947,7 +16883,7 @@
       <c r="C19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -16956,13 +16892,13 @@
       <c r="F19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="G19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="10" t="s">
@@ -16985,7 +16921,7 @@
       <c r="B20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -17205,22 +17141,22 @@
       <c r="G25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="H25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -17477,8 +17413,8 @@
       <c r="B32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>93</v>
+      <c r="C32" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>93</v>
@@ -17518,8 +17454,8 @@
       <c r="B33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>93</v>
+      <c r="C33" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>93</v>
@@ -17554,9 +17490,9 @@
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -17595,7 +17531,7 @@
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="A35" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>93</v>
@@ -17636,7 +17572,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="A36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>93</v>
@@ -17677,7 +17613,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="A37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>93</v>
@@ -17718,7 +17654,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="A38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>93</v>
@@ -17759,7 +17695,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="A39" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>93</v>
@@ -17800,7 +17736,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="A40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>93</v>
@@ -17841,15 +17777,15 @@
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="A41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -17861,13 +17797,13 @@
       <c r="G41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="H41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>93</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -17882,7 +17818,7 @@
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="A42" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>93</v>
@@ -17923,7 +17859,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="true">
       <c r="A43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>93</v>
@@ -17934,13 +17870,13 @@
       <c r="D43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="E43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H43" s="10" t="s">
@@ -17952,19 +17888,19 @@
       <c r="J43" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M43" s="5" t="s">
+      <c r="K43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="A44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>93</v>
@@ -18005,7 +17941,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="true">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>93</v>
@@ -18046,7 +17982,7 @@
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>93</v>
@@ -18087,7 +18023,7 @@
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>93</v>
@@ -18128,7 +18064,7 @@
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="A48" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>93</v>
@@ -18139,13 +18075,13 @@
       <c r="D48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="E48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>93</v>
       </c>
       <c r="H48" s="10" t="s">
@@ -18157,19 +18093,19 @@
       <c r="J48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="K48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="A49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>93</v>
@@ -18210,7 +18146,7 @@
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="A50" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>93</v>
@@ -18332,7 +18268,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>106</v>
@@ -18373,13 +18309,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/72talks-12timeslots-10rooms.xlsx
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4731" uniqueCount="460">
   <si>
     <t>Conference name</t>
   </si>
@@ -877,9 +877,6 @@
   </si>
   <si>
     <t>WildFly</t>
-  </si>
-  <si>
-    <t>Large, Recorded</t>
   </si>
   <si>
     <t>S02</t>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>107</v>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>107</v>
@@ -2577,7 +2574,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -2615,7 +2612,7 @@
         <v>212</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -2775,10 +2772,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>93</v>
@@ -2816,13 +2813,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>93</v>
@@ -2938,7 +2935,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>107</v>
@@ -2979,13 +2976,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3020,10 +3017,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -3186,10 +3183,10 @@
         <v>208</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -3258,39 +3255,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3303,13 +3300,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
@@ -3317,13 +3314,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
@@ -3331,13 +3328,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
@@ -3345,13 +3342,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
@@ -3359,13 +3356,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
@@ -3373,13 +3370,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11">
@@ -3387,13 +3384,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12">
@@ -3401,13 +3398,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13">
@@ -3415,13 +3412,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
@@ -3429,13 +3426,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
@@ -3443,13 +3440,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16">
@@ -3457,13 +3454,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
@@ -3471,13 +3468,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18">
@@ -3485,13 +3482,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19">
@@ -3499,13 +3496,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20">
@@ -3513,13 +3510,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21">
@@ -3527,13 +3524,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22">
@@ -3541,13 +3538,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
@@ -3555,13 +3552,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24">
@@ -3569,13 +3566,13 @@
         <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25">
@@ -3583,13 +3580,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26">
@@ -3597,13 +3594,13 @@
         <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27">
@@ -3611,13 +3608,13 @@
         <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28">
@@ -3625,13 +3622,13 @@
         <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29">
@@ -3639,13 +3636,13 @@
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30">
@@ -3653,13 +3650,13 @@
         <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31">
@@ -3667,13 +3664,13 @@
         <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32">
@@ -3681,13 +3678,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33">
@@ -3695,13 +3692,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34">
@@ -3709,13 +3706,13 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35">
@@ -3723,13 +3720,13 @@
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36">
@@ -3737,13 +3734,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37">
@@ -3751,13 +3748,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38">
@@ -3765,13 +3762,13 @@
         <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39">
@@ -3779,13 +3776,13 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40">
@@ -3793,13 +3790,13 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41">
@@ -3807,13 +3804,13 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42"/>
@@ -3823,13 +3820,13 @@
         <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45">
@@ -3837,13 +3834,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
@@ -3851,13 +3848,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
@@ -3865,13 +3862,13 @@
         <v>24</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
@@ -3879,13 +3876,13 @@
         <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49">
@@ -3893,13 +3890,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50">
@@ -3907,13 +3904,13 @@
         <v>26</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
@@ -3921,13 +3918,13 @@
         <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
@@ -3935,13 +3932,13 @@
         <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
@@ -3949,13 +3946,13 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54">
@@ -3963,13 +3960,13 @@
         <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55">
@@ -3977,13 +3974,13 @@
         <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
@@ -3991,13 +3988,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57">
@@ -4005,13 +4002,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58">
@@ -4019,13 +4016,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59">
@@ -4033,13 +4030,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
@@ -4047,13 +4044,13 @@
         <v>78</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61">
@@ -4061,13 +4058,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
@@ -4075,13 +4072,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63">
@@ -4089,13 +4086,13 @@
         <v>31</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64">
@@ -4103,13 +4100,13 @@
         <v>35</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -4117,13 +4114,13 @@
         <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66">
@@ -4131,13 +4128,13 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
@@ -4145,13 +4142,13 @@
         <v>80</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68">
@@ -4159,13 +4156,13 @@
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -4173,13 +4170,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70">
@@ -4187,13 +4184,13 @@
         <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71">
@@ -4201,13 +4198,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72">
@@ -4215,13 +4212,13 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73">
@@ -4229,13 +4226,13 @@
         <v>40</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74">
@@ -4243,13 +4240,13 @@
         <v>34</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75">
@@ -4257,13 +4254,13 @@
         <v>39</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76">
@@ -4271,13 +4268,13 @@
         <v>33</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77">
@@ -4285,13 +4282,13 @@
         <v>83</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78">
@@ -4299,13 +4296,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79">
@@ -4313,13 +4310,13 @@
         <v>47</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -4327,13 +4324,13 @@
         <v>49</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4380,7 +4377,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
@@ -4388,7 +4385,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -8961,7 +8958,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>93</v>
@@ -9011,10 +9008,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>92</v>
@@ -9023,19 +9020,19 @@
         <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>208</v>
@@ -9056,7 +9053,7 @@
         <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>93</v>
@@ -9106,31 +9103,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>208</v>
@@ -9151,7 +9148,7 @@
         <v>93</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>93</v>
@@ -9201,19 +9198,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>93</v>
@@ -9225,7 +9222,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>208</v>
@@ -9246,7 +9243,7 @@
         <v>93</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>93</v>
@@ -9296,10 +9293,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>92</v>
@@ -9308,7 +9305,7 @@
         <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>93</v>
@@ -9320,7 +9317,7 @@
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>208</v>
@@ -9341,7 +9338,7 @@
         <v>93</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>93</v>
@@ -9391,10 +9388,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>92</v>
@@ -9403,10 +9400,10 @@
         <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>206</v>
@@ -9415,7 +9412,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>208</v>
@@ -9486,19 +9483,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>93</v>
@@ -9510,7 +9507,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>208</v>
@@ -9531,7 +9528,7 @@
         <v>93</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>93</v>
@@ -9581,10 +9578,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>95</v>
@@ -9593,19 +9590,19 @@
         <v>146</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>208</v>
@@ -9626,7 +9623,7 @@
         <v>93</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>93</v>
@@ -9676,10 +9673,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>95</v>
@@ -9688,7 +9685,7 @@
         <v>147</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>93</v>
@@ -9700,7 +9697,7 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>208</v>
@@ -9721,16 +9718,16 @@
         <v>93</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="S11" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>93</v>
@@ -9771,19 +9768,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>93</v>
@@ -9795,7 +9792,7 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>208</v>
@@ -9866,31 +9863,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>208</v>
@@ -9911,7 +9908,7 @@
         <v>93</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>93</v>
@@ -9961,31 +9958,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>208</v>
@@ -10006,7 +10003,7 @@
         <v>93</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>93</v>
@@ -10056,31 +10053,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>208</v>
@@ -10101,7 +10098,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>93</v>
@@ -10151,19 +10148,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>93</v>
@@ -10175,7 +10172,7 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>208</v>
@@ -10205,7 +10202,7 @@
         <v>93</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>93</v>
@@ -10246,16 +10243,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>205</v>
@@ -10264,13 +10261,13 @@
         <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>208</v>
@@ -10291,7 +10288,7 @@
         <v>93</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>93</v>
@@ -10341,10 +10338,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
@@ -10353,7 +10350,7 @@
         <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>93</v>
@@ -10365,7 +10362,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>208</v>
@@ -10436,31 +10433,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>208</v>
@@ -10531,10 +10528,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>95</v>
@@ -10543,19 +10540,19 @@
         <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>208</v>
@@ -10626,16 +10623,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>205</v>
@@ -10650,7 +10647,7 @@
         <v>1.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>208</v>
@@ -10671,13 +10668,13 @@
         <v>93</v>
       </c>
       <c r="P21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>93</v>
@@ -10721,10 +10718,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
@@ -10733,13 +10730,13 @@
         <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>2.0</v>
@@ -10766,7 +10763,7 @@
         <v>93</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>93</v>
@@ -10816,10 +10813,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>95</v>
@@ -10828,7 +10825,7 @@
         <v>167</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>93</v>
@@ -10840,7 +10837,7 @@
         <v>1.0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>208</v>
@@ -10861,7 +10858,7 @@
         <v>93</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>93</v>
@@ -10911,10 +10908,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>95</v>
@@ -10923,7 +10920,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>93</v>
@@ -10935,7 +10932,7 @@
         <v>1.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>208</v>
@@ -10956,7 +10953,7 @@
         <v>93</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>93</v>
@@ -11006,10 +11003,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>95</v>
@@ -11018,7 +11015,7 @@
         <v>169</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>93</v>
@@ -11030,7 +11027,7 @@
         <v>3.0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>208</v>
@@ -11051,7 +11048,7 @@
         <v>93</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>93</v>
@@ -11101,10 +11098,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
@@ -11113,7 +11110,7 @@
         <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
@@ -11125,7 +11122,7 @@
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>208</v>
@@ -11196,10 +11193,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>95</v>
@@ -11208,7 +11205,7 @@
         <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>93</v>
@@ -11220,7 +11217,7 @@
         <v>3.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>208</v>
@@ -11253,7 +11250,7 @@
         <v>93</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U27" s="2" t="n">
         <v>971.0</v>
@@ -11291,19 +11288,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>93</v>
@@ -11315,7 +11312,7 @@
         <v>3.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>208</v>
@@ -11386,19 +11383,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>93</v>
@@ -11410,7 +11407,7 @@
         <v>1.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>208</v>
@@ -11481,10 +11478,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
@@ -11493,19 +11490,19 @@
         <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>208</v>
@@ -11526,7 +11523,7 @@
         <v>93</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>93</v>
@@ -11576,10 +11573,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
@@ -11588,7 +11585,7 @@
         <v>177</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
@@ -11600,7 +11597,7 @@
         <v>2.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>208</v>
@@ -11671,10 +11668,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
@@ -11683,7 +11680,7 @@
         <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>93</v>
@@ -11695,7 +11692,7 @@
         <v>1.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>208</v>
@@ -11713,16 +11710,16 @@
         <v>93</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>93</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>93</v>
@@ -11766,10 +11763,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>95</v>
@@ -11778,19 +11775,19 @@
         <v>179</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>208</v>
@@ -11861,10 +11858,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>95</v>
@@ -11873,7 +11870,7 @@
         <v>180</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>93</v>
@@ -11885,7 +11882,7 @@
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>208</v>
@@ -11956,10 +11953,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>95</v>
@@ -11968,7 +11965,7 @@
         <v>181</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>93</v>
@@ -11980,7 +11977,7 @@
         <v>1.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>208</v>
@@ -12051,10 +12048,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>95</v>
@@ -12063,7 +12060,7 @@
         <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>93</v>
@@ -12075,7 +12072,7 @@
         <v>1.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>208</v>
@@ -12096,7 +12093,7 @@
         <v>93</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>93</v>
@@ -12146,10 +12143,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
@@ -12158,7 +12155,7 @@
         <v>134</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>93</v>
@@ -12170,7 +12167,7 @@
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>208</v>
@@ -12241,10 +12238,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>95</v>
@@ -12253,7 +12250,7 @@
         <v>135</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>93</v>
@@ -12265,7 +12262,7 @@
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>208</v>
@@ -12336,10 +12333,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
@@ -12348,7 +12345,7 @@
         <v>136</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>93</v>
@@ -12360,7 +12357,7 @@
         <v>3.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>208</v>
@@ -12431,10 +12428,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
@@ -12443,7 +12440,7 @@
         <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>93</v>
@@ -12455,7 +12452,7 @@
         <v>1.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>208</v>
@@ -12526,10 +12523,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>95</v>
@@ -12538,7 +12535,7 @@
         <v>138</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>93</v>
@@ -12621,10 +12618,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
@@ -12645,7 +12642,7 @@
         <v>3.0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>208</v>
@@ -12716,31 +12713,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>208</v>
@@ -12773,7 +12770,7 @@
         <v>93</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U43" s="2" t="n">
         <v>894.0</v>
@@ -12811,10 +12808,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>95</v>
@@ -12823,7 +12820,7 @@
         <v>143</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>93</v>
@@ -12835,7 +12832,7 @@
         <v>2.0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>208</v>
@@ -12906,31 +12903,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>208</v>
@@ -13001,10 +12998,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>95</v>
@@ -13013,7 +13010,7 @@
         <v>146</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>93</v>
@@ -13025,7 +13022,7 @@
         <v>1.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>208</v>
@@ -13046,7 +13043,7 @@
         <v>93</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>93</v>
@@ -13096,10 +13093,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>95</v>
@@ -13108,7 +13105,7 @@
         <v>147</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>93</v>
@@ -13120,7 +13117,7 @@
         <v>3.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>208</v>
@@ -13150,7 +13147,7 @@
         <v>93</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>93</v>
@@ -13191,10 +13188,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>95</v>
@@ -13203,7 +13200,7 @@
         <v>148</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>93</v>
@@ -13215,7 +13212,7 @@
         <v>2.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>208</v>
@@ -13286,10 +13283,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>95</v>
@@ -13298,7 +13295,7 @@
         <v>149</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>93</v>
@@ -13310,7 +13307,7 @@
         <v>2.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>208</v>
@@ -13331,7 +13328,7 @@
         <v>93</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>93</v>
@@ -13340,7 +13337,7 @@
         <v>93</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T49" s="2" t="s">
         <v>93</v>
@@ -13381,31 +13378,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>208</v>
@@ -13476,10 +13473,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>95</v>
@@ -13500,7 +13497,7 @@
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>208</v>
@@ -13521,7 +13518,7 @@
         <v>93</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>93</v>
@@ -13571,19 +13568,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>93</v>
@@ -13595,7 +13592,7 @@
         <v>1.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>208</v>
@@ -13616,7 +13613,7 @@
         <v>93</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>93</v>
@@ -13666,10 +13663,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>95</v>
@@ -13678,10 +13675,10 @@
         <v>155</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>212</v>
@@ -13690,7 +13687,7 @@
         <v>1.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>208</v>
@@ -13708,7 +13705,7 @@
         <v>93</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>93</v>
@@ -13717,7 +13714,7 @@
         <v>93</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>93</v>
@@ -13761,10 +13758,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>95</v>
@@ -13785,7 +13782,7 @@
         <v>3.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>208</v>
@@ -13856,10 +13853,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>95</v>
@@ -13868,7 +13865,7 @@
         <v>157</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>93</v>
@@ -13880,7 +13877,7 @@
         <v>1.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>208</v>
@@ -13901,13 +13898,13 @@
         <v>93</v>
       </c>
       <c r="P55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R55" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>93</v>
@@ -13951,10 +13948,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>95</v>
@@ -13963,7 +13960,7 @@
         <v>158</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>93</v>
@@ -13975,7 +13972,7 @@
         <v>2.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>208</v>
@@ -13996,7 +13993,7 @@
         <v>93</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>93</v>
@@ -14046,10 +14043,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>95</v>
@@ -14058,10 +14055,10 @@
         <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>206</v>
@@ -14070,7 +14067,7 @@
         <v>1.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>208</v>
@@ -14141,31 +14138,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>208</v>
@@ -14236,19 +14233,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>93</v>
@@ -14260,7 +14257,7 @@
         <v>1.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>208</v>
@@ -14331,25 +14328,25 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>2.0</v>
@@ -14376,7 +14373,7 @@
         <v>93</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>93</v>
@@ -14426,22 +14423,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>212</v>
@@ -14471,7 +14468,7 @@
         <v>93</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>93</v>
@@ -14483,7 +14480,7 @@
         <v>93</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U61" s="2" t="n">
         <v>307.0</v>
@@ -14521,10 +14518,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
@@ -14533,7 +14530,7 @@
         <v>168</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>93</v>
@@ -14545,7 +14542,7 @@
         <v>3.0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>208</v>
@@ -14616,19 +14613,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>93</v>
@@ -14640,7 +14637,7 @@
         <v>3.0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>208</v>
@@ -14661,7 +14658,7 @@
         <v>93</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>93</v>
@@ -14711,19 +14708,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>93</v>
@@ -14735,7 +14732,7 @@
         <v>1.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>208</v>
@@ -14806,10 +14803,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>95</v>
@@ -14818,7 +14815,7 @@
         <v>174</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
@@ -14830,7 +14827,7 @@
         <v>1.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>208</v>
@@ -14851,7 +14848,7 @@
         <v>93</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>93</v>
@@ -14901,31 +14898,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>208</v>
@@ -14946,7 +14943,7 @@
         <v>93</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>93</v>
@@ -14996,10 +14993,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>95</v>
@@ -15008,19 +15005,19 @@
         <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>2.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>208</v>
@@ -15091,22 +15088,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>206</v>
@@ -15115,7 +15112,7 @@
         <v>3.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>208</v>
@@ -15186,10 +15183,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>95</v>
@@ -15198,7 +15195,7 @@
         <v>181</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>93</v>
@@ -15210,7 +15207,7 @@
         <v>2.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>208</v>
@@ -15231,7 +15228,7 @@
         <v>93</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>93</v>
@@ -15281,10 +15278,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>95</v>
@@ -15293,19 +15290,19 @@
         <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>208</v>
@@ -15326,7 +15323,7 @@
         <v>93</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>93</v>
@@ -15335,7 +15332,7 @@
         <v>93</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T70" s="2" t="s">
         <v>93</v>
@@ -15376,10 +15373,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>95</v>
@@ -15388,7 +15385,7 @@
         <v>211</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>93</v>
@@ -15400,7 +15397,7 @@
         <v>2.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>208</v>
@@ -15471,10 +15468,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -15483,19 +15480,19 @@
         <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>208</v>
@@ -15516,7 +15513,7 @@
         <v>93</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>93</v>
@@ -15566,31 +15563,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>3.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>208</v>
@@ -15688,10 +15685,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2"/>
@@ -15700,16 +15697,16 @@
         <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4">
@@ -15749,7 +15746,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>72.0</v>
@@ -15902,7 +15899,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -16063,7 +16060,7 @@
         <v>119</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -16397,7 +16394,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>107</v>
@@ -16567,7 +16564,7 @@
         <v>93</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>93</v>
@@ -16687,7 +16684,7 @@
         <v>139</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -16724,7 +16721,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -18481,7 +18478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>107</v>
@@ -18522,10 +18519,10 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>93</v>
@@ -18563,13 +18560,13 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>93</v>
